--- a/input/managementPlans.xlsx
+++ b/input/managementPlans.xlsx
@@ -868,12 +868,108 @@
         </r>
       </text>
     </comment>
+    <comment ref="A88" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+N application scenario: 0=non-N-limited conditions, 2=N-limited conditions.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E88" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Water application scenario: 0=potential production, 1=automated irrigated, 2=rainfed, 3=fixed irrigated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A90" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1=DAP, 2=CBD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E90" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1=DAP, 2=CBD with user-specified irrigation, 3= DOY, 4= CBD with auto-irrigation</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="58">
   <si>
     <t>water = 0   for potential production</t>
   </si>
@@ -1033,12 +1129,27 @@
   <si>
     <t>ROTATION_POISCHICHE</t>
   </si>
+  <si>
+    <t>Gorgan-RFD</t>
+  </si>
+  <si>
+    <t>yno</t>
+  </si>
+  <si>
+    <t>Pdoy</t>
+  </si>
+  <si>
+    <t>PDEN</t>
+  </si>
+  <si>
+    <t>DAP- or CBD-based:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1105,6 +1216,20 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+      <charset val="178"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1266,11 +1391,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1366,8 +1493,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -1735,8 +1896,8 @@
   <dimension ref="A1:X3956"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1994,7 +2155,7 @@
       <c r="P14" s="8"/>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="49" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="13"/>
@@ -2605,7 +2766,7 @@
       <c r="X37" s="8"/>
     </row>
     <row r="38" spans="1:24">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="49" t="s">
         <v>51</v>
       </c>
       <c r="B38" s="13"/>
@@ -3392,7 +3553,7 @@
       <c r="X60" s="8"/>
     </row>
     <row r="61" spans="1:24">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="49" t="s">
         <v>52</v>
       </c>
       <c r="B61" s="13"/>
@@ -4092,7 +4253,7 @@
       <c r="K80" s="14"/>
       <c r="L80" s="5"/>
     </row>
-    <row r="81" spans="7:24">
+    <row r="81" spans="1:24" ht="13" thickBot="1">
       <c r="G81" s="13"/>
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
@@ -4111,97 +4272,354 @@
       <c r="W81" s="8"/>
       <c r="X81" s="8"/>
     </row>
-    <row r="82" spans="7:24">
+    <row r="82" spans="1:24">
+      <c r="A82" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="50"/>
       <c r="L82" s="5"/>
     </row>
-    <row r="83" spans="7:24">
+    <row r="83" spans="1:24">
+      <c r="A83" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="51"/>
       <c r="L83" s="5"/>
     </row>
-    <row r="84" spans="7:24">
+    <row r="84" spans="1:24">
+      <c r="A84" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B84" s="13"/>
+      <c r="C84" s="52"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="51"/>
       <c r="L84" s="5"/>
     </row>
-    <row r="85" spans="7:24">
+    <row r="85" spans="1:24">
+      <c r="A85" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E85" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F85" s="9"/>
+      <c r="G85" s="53"/>
       <c r="L85" s="5"/>
     </row>
-    <row r="86" spans="7:24">
+    <row r="86" spans="1:24">
+      <c r="A86" s="25">
+        <v>3</v>
+      </c>
+      <c r="B86" s="26">
+        <v>1</v>
+      </c>
+      <c r="C86" s="26">
+        <v>2005</v>
+      </c>
+      <c r="D86" s="26">
+        <v>175</v>
+      </c>
+      <c r="E86" s="26">
+        <v>7</v>
+      </c>
+      <c r="F86" s="10"/>
+      <c r="G86" s="54"/>
       <c r="L86" s="5"/>
     </row>
-    <row r="87" spans="7:24">
+    <row r="87" spans="1:24">
+      <c r="A87" s="28"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="51"/>
       <c r="L87" s="5"/>
     </row>
-    <row r="88" spans="7:24">
+    <row r="88" spans="1:24">
+      <c r="A88" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B88" s="10">
+        <v>0</v>
+      </c>
+      <c r="C88" s="30"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F88" s="26">
+        <v>2</v>
+      </c>
+      <c r="G88" s="55" t="s">
+        <v>36</v>
+      </c>
       <c r="L88" s="5"/>
     </row>
-    <row r="89" spans="7:24">
+    <row r="89" spans="1:24">
+      <c r="A89" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B89" s="10">
+        <v>2</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F89" s="26">
+        <v>0</v>
+      </c>
+      <c r="G89" s="27">
+        <v>0.5</v>
+      </c>
       <c r="L89" s="5"/>
     </row>
-    <row r="90" spans="7:24">
+    <row r="90" spans="1:24">
+      <c r="A90" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B90" s="10">
+        <v>2</v>
+      </c>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F90" s="26">
+        <v>0</v>
+      </c>
+      <c r="G90" s="56"/>
       <c r="L90" s="5"/>
     </row>
-    <row r="91" spans="7:24">
+    <row r="91" spans="1:24">
+      <c r="A91" s="35"/>
+      <c r="B91" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C91" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D91" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E91" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G91" s="57"/>
       <c r="L91" s="5"/>
     </row>
-    <row r="92" spans="7:24">
+    <row r="92" spans="1:24">
+      <c r="A92" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B92" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C92" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D92" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E92" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F92" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G92" s="57"/>
       <c r="L92" s="5"/>
     </row>
-    <row r="93" spans="7:24">
+    <row r="93" spans="1:24">
+      <c r="A93" s="40">
+        <v>1</v>
+      </c>
+      <c r="B93" s="58">
+        <v>1</v>
+      </c>
+      <c r="C93" s="58">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D93" s="58">
+        <v>2</v>
+      </c>
+      <c r="E93" s="59"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="51"/>
       <c r="L93" s="5"/>
     </row>
-    <row r="94" spans="7:24">
+    <row r="94" spans="1:24">
+      <c r="A94" s="40">
+        <v>2</v>
+      </c>
+      <c r="B94" s="58">
+        <v>10</v>
+      </c>
+      <c r="C94" s="58">
+        <v>3.45</v>
+      </c>
+      <c r="D94" s="58">
+        <v>10</v>
+      </c>
+      <c r="E94" s="26"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="51"/>
       <c r="L94" s="5"/>
     </row>
-    <row r="95" spans="7:24">
+    <row r="95" spans="1:24">
+      <c r="A95" s="40">
+        <v>3</v>
+      </c>
+      <c r="B95" s="58"/>
+      <c r="C95" s="58"/>
+      <c r="D95" s="58"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="51"/>
       <c r="L95" s="5"/>
     </row>
-    <row r="96" spans="7:24">
+    <row r="96" spans="1:24">
+      <c r="A96" s="41">
+        <v>4</v>
+      </c>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="26"/>
+      <c r="G96" s="51"/>
       <c r="L96" s="5"/>
     </row>
-    <row r="97" spans="12:12">
+    <row r="97" spans="1:12">
+      <c r="A97" s="41">
+        <v>5</v>
+      </c>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="51"/>
       <c r="L97" s="5"/>
     </row>
-    <row r="98" spans="12:12">
+    <row r="98" spans="1:12">
+      <c r="A98" s="41">
+        <v>6</v>
+      </c>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="26"/>
+      <c r="G98" s="51"/>
       <c r="L98" s="5"/>
     </row>
-    <row r="99" spans="12:12">
+    <row r="99" spans="1:12">
+      <c r="A99" s="41">
+        <v>7</v>
+      </c>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="51"/>
       <c r="L99" s="5"/>
     </row>
-    <row r="100" spans="12:12">
+    <row r="100" spans="1:12">
+      <c r="A100" s="41">
+        <v>8</v>
+      </c>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="51"/>
       <c r="L100" s="5"/>
     </row>
-    <row r="101" spans="12:12">
+    <row r="101" spans="1:12">
+      <c r="A101" s="41">
+        <v>9</v>
+      </c>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="51"/>
       <c r="L101" s="5"/>
     </row>
-    <row r="102" spans="12:12">
+    <row r="102" spans="1:12" ht="13" thickBot="1">
+      <c r="A102" s="42">
+        <v>10</v>
+      </c>
+      <c r="B102" s="60"/>
+      <c r="C102" s="60"/>
+      <c r="D102" s="61"/>
+      <c r="E102" s="43"/>
+      <c r="F102" s="43"/>
+      <c r="G102" s="62"/>
       <c r="L102" s="5"/>
     </row>
-    <row r="103" spans="12:12">
+    <row r="103" spans="1:12">
       <c r="L103" s="5"/>
     </row>
-    <row r="104" spans="12:12">
+    <row r="104" spans="1:12">
       <c r="L104" s="5"/>
     </row>
-    <row r="105" spans="12:12">
+    <row r="105" spans="1:12">
       <c r="L105" s="5"/>
     </row>
-    <row r="106" spans="12:12">
+    <row r="106" spans="1:12">
       <c r="L106" s="5"/>
     </row>
-    <row r="107" spans="12:12">
+    <row r="107" spans="1:12">
       <c r="L107" s="5"/>
     </row>
-    <row r="108" spans="12:12">
+    <row r="108" spans="1:12">
       <c r="L108" s="5"/>
     </row>
-    <row r="109" spans="12:12">
+    <row r="109" spans="1:12">
       <c r="L109" s="5"/>
     </row>
-    <row r="110" spans="12:12">
+    <row r="110" spans="1:12">
       <c r="L110" s="5"/>
     </row>
-    <row r="111" spans="12:12">
+    <row r="111" spans="1:12">
       <c r="L111" s="5"/>
     </row>
-    <row r="112" spans="12:12">
+    <row r="112" spans="1:12">
       <c r="L112" s="5"/>
     </row>
     <row r="113" spans="12:12">

--- a/input/managementPlans.xlsx
+++ b/input/managementPlans.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="13300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Manag" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="Diameter">[1]Run!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140000" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,6 +29,7 @@
   <authors>
     <author>afshin</author>
     <author>Afshin Soltani</author>
+    <author>Marie Gosme</author>
   </authors>
   <commentList>
     <comment ref="A16" authorId="0">
@@ -764,6 +765,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="I63" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marie Gosme:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+was 0.3, I'm just trying to see if this level can be reached a few days after simustart</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A65" authorId="0">
       <text>
         <r>
@@ -868,6 +893,150 @@
         </r>
       </text>
     </comment>
+    <comment ref="D85" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sowing date for FixFind=0, or beginning of sowing window</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F85" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Specifies the DOY of the end of sowing window</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G85" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Afshin Soltani:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DOY when crop must be harvested even pre-maturely</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H85" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sowing temperature </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I85" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Soil profile (not top layer) ATSW that allows sowing.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K85" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Start simulation DOY</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A88" authorId="0">
       <text>
         <r>
@@ -969,7 +1138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="55">
   <si>
     <t>water = 0   for potential production</t>
   </si>
@@ -1133,15 +1302,6 @@
     <t>Gorgan-RFD</t>
   </si>
   <si>
-    <t>yno</t>
-  </si>
-  <si>
-    <t>Pdoy</t>
-  </si>
-  <si>
-    <t>PDEN</t>
-  </si>
-  <si>
     <t>DAP- or CBD-based:</t>
   </si>
 </sst>
@@ -1149,7 +1309,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1230,6 +1390,19 @@
       <color theme="11"/>
       <name val="Arial"/>
       <charset val="178"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1391,13 +1564,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1501,9 +1692,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1526,9 +1714,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="22">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -1896,8 +2102,8 @@
   <dimension ref="A1:X3956"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <pane ySplit="10" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2240,7 +2446,7 @@
         <v>33</v>
       </c>
       <c r="I17" s="26">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J17" s="26">
         <v>280</v>
@@ -3654,7 +3860,7 @@
         <v>33</v>
       </c>
       <c r="I63" s="26">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
       <c r="J63" s="26">
         <v>30</v>
@@ -4311,8 +4517,8 @@
       <c r="L84" s="5"/>
     </row>
     <row r="85" spans="1:24">
-      <c r="A85" s="19" t="s">
-        <v>54</v>
+      <c r="A85" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="B85" s="20" t="s">
         <v>22</v>
@@ -4320,14 +4526,30 @@
       <c r="C85" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D85" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E85" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F85" s="9"/>
-      <c r="G85" s="53"/>
+      <c r="D85" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E85" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F85" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G85" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H85" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I85" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J85" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K85" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="L85" s="5"/>
     </row>
     <row r="86" spans="1:24">
@@ -4346,8 +4568,13 @@
       <c r="E86" s="26">
         <v>7</v>
       </c>
-      <c r="F86" s="10"/>
-      <c r="G86" s="54"/>
+      <c r="F86" s="10">
+        <v>200</v>
+      </c>
+      <c r="G86" s="53"/>
+      <c r="J86">
+        <v>1</v>
+      </c>
       <c r="L86" s="5"/>
     </row>
     <row r="87" spans="1:24">
@@ -4375,7 +4602,7 @@
       <c r="F88" s="26">
         <v>2</v>
       </c>
-      <c r="G88" s="55" t="s">
+      <c r="G88" s="54" t="s">
         <v>36</v>
       </c>
       <c r="L88" s="5"/>
@@ -4402,7 +4629,7 @@
     </row>
     <row r="90" spans="1:24">
       <c r="A90" s="33" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B90" s="10">
         <v>2</v>
@@ -4415,7 +4642,7 @@
       <c r="F90" s="26">
         <v>0</v>
       </c>
-      <c r="G90" s="56"/>
+      <c r="G90" s="55"/>
       <c r="L90" s="5"/>
     </row>
     <row r="91" spans="1:24">
@@ -4435,7 +4662,7 @@
       <c r="F91" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="G91" s="57"/>
+      <c r="G91" s="56"/>
       <c r="L91" s="5"/>
     </row>
     <row r="92" spans="1:24">
@@ -4457,23 +4684,23 @@
       <c r="F92" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="G92" s="57"/>
+      <c r="G92" s="56"/>
       <c r="L92" s="5"/>
     </row>
     <row r="93" spans="1:24">
       <c r="A93" s="40">
         <v>1</v>
       </c>
-      <c r="B93" s="58">
+      <c r="B93" s="57">
         <v>1</v>
       </c>
-      <c r="C93" s="58">
+      <c r="C93" s="57">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D93" s="58">
+      <c r="D93" s="57">
         <v>2</v>
       </c>
-      <c r="E93" s="59"/>
+      <c r="E93" s="58"/>
       <c r="F93" s="26"/>
       <c r="G93" s="51"/>
       <c r="L93" s="5"/>
@@ -4482,13 +4709,13 @@
       <c r="A94" s="40">
         <v>2</v>
       </c>
-      <c r="B94" s="58">
+      <c r="B94" s="57">
         <v>10</v>
       </c>
-      <c r="C94" s="58">
+      <c r="C94" s="57">
         <v>3.45</v>
       </c>
-      <c r="D94" s="58">
+      <c r="D94" s="57">
         <v>10</v>
       </c>
       <c r="E94" s="26"/>
@@ -4500,9 +4727,9 @@
       <c r="A95" s="40">
         <v>3</v>
       </c>
-      <c r="B95" s="58"/>
-      <c r="C95" s="58"/>
-      <c r="D95" s="58"/>
+      <c r="B95" s="57"/>
+      <c r="C95" s="57"/>
+      <c r="D95" s="57"/>
       <c r="E95" s="26"/>
       <c r="F95" s="26"/>
       <c r="G95" s="51"/>
@@ -4584,12 +4811,12 @@
       <c r="A102" s="42">
         <v>10</v>
       </c>
-      <c r="B102" s="60"/>
-      <c r="C102" s="60"/>
-      <c r="D102" s="61"/>
+      <c r="B102" s="59"/>
+      <c r="C102" s="59"/>
+      <c r="D102" s="60"/>
       <c r="E102" s="43"/>
       <c r="F102" s="43"/>
-      <c r="G102" s="62"/>
+      <c r="G102" s="61"/>
       <c r="L102" s="5"/>
     </row>
     <row r="103" spans="1:12">

--- a/input/managementPlans.xlsx
+++ b/input/managementPlans.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Manag" sheetId="1" r:id="rId1"/>
@@ -1133,12 +1133,1224 @@
         </r>
       </text>
     </comment>
+    <comment ref="A108" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Fixed sowing date. 
+1 - Sow in the 5th day of a 5-day rainfree period.
+2 - Sow in the 5th day  of a 5-day rainfree period + average temp &gt; SowTmp.
+3 - Sow in the 5th day  of a 5-day rainfree period + average temp &lt; SowTmp.
+4 - Sow when FTSW1 &gt; SowWat. 
+5 - Sow when FTSW1 &lt; SowWat. 
+6 - Sow when cumulative rainfall over a 5-day period &gt; SowWat. 
+7 - Sow when soil profile ATSW &gt; SowWat. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D108" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Start simulation DOY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E108" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sowing date for FixFind=0, or beginning of sowing window</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F108" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Specifies the DOY of the end of sowing window</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G108" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Afshin Soltani:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DOY when crop must be harvested even pre-maturely</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H108" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sowing temperature </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I108" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Soil profile (not top layer) ATSW that allows sowing.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I109" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marie Gosme:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+was 0.3, I'm just trying to see if this level can be reached a few days after simustart</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A111" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+N application scenario: 
+0=non-N-limited conditions, 
+2=N-limited conditions.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E111" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Water application scenario:
+0=potential production, 1=automated irrigated, 2=rainfed, 
+3=fixed irrigated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A113" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1=DAP, 
+2=CBD, 
+3=DOY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E113" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1=DAP, 
+2=CBD, 
+3=DOY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A131" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Fixed sowing date. 
+1 - Sow in the 5th day of a 5-day rainfree period.
+2 - Sow in the 5th day  of a 5-day rainfree period + average temp &gt; SowTmp.
+3 - Sow in the 5th day  of a 5-day rainfree period + average temp &lt; SowTmp.
+4 - Sow when FTSW1 &gt; SowWat. 
+5 - Sow when FTSW1 &lt; SowWat. 
+6 - Sow when cumulative rainfall over a 5-day period &gt; SowWat. 
+7 - Sow when soil profile ATSW &gt; SowWat. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D131" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Start simulation DOY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E131" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sowing date for FixFind=0, or beginning of sowing window</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F131" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Specifies the DOY of the end of sowing window</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G131" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Afshin Soltani:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DOY when crop must be harvested even pre-maturely</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H131" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sowing temperature </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I131" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Soil profile (not top layer) ATSW that allows sowing.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I132" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marie Gosme:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+was 0.3, I'm just trying to see if this level can be reached a few days after simustart</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A134" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+N application scenario: 
+0=non-N-limited conditions, 
+2=N-limited conditions.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E134" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Water application scenario:
+0=potential production, 1=automated irrigated, 2=rainfed, 
+3=fixed irrigated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A136" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1=DAP, 
+2=CBD, 
+3=DOY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E136" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1=DAP, 
+2=CBD, 
+3=DOY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A154" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Fixed sowing date. 
+1 - Sow in the 5th day of a 5-day rainfree period.
+2 - Sow in the 5th day  of a 5-day rainfree period + average temp &gt; SowTmp.
+3 - Sow in the 5th day  of a 5-day rainfree period + average temp &lt; SowTmp.
+4 - Sow when FTSW1 &gt; SowWat. 
+5 - Sow when FTSW1 &lt; SowWat. 
+6 - Sow when cumulative rainfall over a 5-day period &gt; SowWat. 
+7 - Sow when soil profile ATSW &gt; SowWat. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D154" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Start simulation DOY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E154" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sowing date for FixFind=0, or beginning of sowing window</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F154" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Specifies the DOY of the end of sowing window</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G154" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Afshin Soltani:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DOY when crop must be harvested even pre-maturely</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H154" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sowing temperature </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I154" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Soil profile (not top layer) ATSW that allows sowing.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I155" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marie Gosme:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+was 0.3, I'm just trying to see if this level can be reached a few days after simustart</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A157" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+N application scenario: 
+0=non-N-limited conditions, 
+2=N-limited conditions.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E157" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Water application scenario:
+0=potential production, 1=automated irrigated, 2=rainfed, 
+3=fixed irrigated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A159" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1=DAP, 
+2=CBD, 
+3=DOY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E159" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1=DAP, 
+2=CBD, 
+3=DOY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A177" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Fixed sowing date. 
+1 - Sow in the 5th day of a 5-day rainfree period.
+2 - Sow in the 5th day  of a 5-day rainfree period + average temp &gt; SowTmp.
+3 - Sow in the 5th day  of a 5-day rainfree period + average temp &lt; SowTmp.
+4 - Sow when FTSW1 &gt; SowWat. 
+5 - Sow when FTSW1 &lt; SowWat. 
+6 - Sow when cumulative rainfall over a 5-day period &gt; SowWat. 
+7 - Sow when soil profile ATSW &gt; SowWat. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D177" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Start simulation DOY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E177" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sowing date for FixFind=0, or beginning of sowing window</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F177" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Specifies the DOY of the end of sowing window</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G177" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Afshin Soltani:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DOY when crop must be harvested even pre-maturely</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H177" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sowing temperature </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I177" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Soil profile (not top layer) ATSW that allows sowing.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I178" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marie Gosme:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+was 0.3, I'm just trying to see if this level can be reached a few days after simustart</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A180" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+N application scenario: 
+0=non-N-limited conditions, 
+2=N-limited conditions.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E180" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Water application scenario:
+0=potential production, 1=automated irrigated, 2=rainfed, 
+3=fixed irrigated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A182" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1=DAP, 
+2=CBD, 
+3=DOY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E182" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1=DAP, 
+2=CBD, 
+3=DOY</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="59">
   <si>
     <t>water = 0   for potential production</t>
   </si>
@@ -1303,6 +2515,18 @@
   </si>
   <si>
     <t>DAP- or CBD-based:</t>
+  </si>
+  <si>
+    <t>essai_bidon_irrigation_DAP</t>
+  </si>
+  <si>
+    <t>essai_bidon_irrigation_DOY</t>
+  </si>
+  <si>
+    <t>essai_bidon_irrigation_CBD</t>
+  </si>
+  <si>
+    <t>essai_bidon_irrigation_CBDautoAmount</t>
   </si>
 </sst>
 </file>
@@ -1564,9 +2788,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1714,7 +2950,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="34">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
@@ -1725,6 +2961,12 @@
     <cellStyle name="Lien hypertexte" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="32" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
@@ -1735,6 +2977,12 @@
     <cellStyle name="Lien hypertexte visité" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -2102,8 +3350,8 @@
   <dimension ref="A1:X3956"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F87" sqref="F87"/>
+      <pane ySplit="10" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F182" sqref="F182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -4822,319 +6070,2139 @@
     <row r="103" spans="1:12">
       <c r="L103" s="5"/>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" ht="13" thickBot="1">
       <c r="L104" s="5"/>
     </row>
     <row r="105" spans="1:12">
+      <c r="A105" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="17"/>
+      <c r="J105" s="17"/>
+      <c r="K105" s="18"/>
       <c r="L105" s="5"/>
     </row>
     <row r="106" spans="1:12">
+      <c r="A106" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B106" s="20"/>
+      <c r="C106" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="21"/>
       <c r="L106" s="5"/>
     </row>
     <row r="107" spans="1:12">
+      <c r="A107" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B107" s="13"/>
+      <c r="C107" s="22">
+        <v>0</v>
+      </c>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="21"/>
       <c r="L107" s="5"/>
     </row>
     <row r="108" spans="1:12">
+      <c r="A108" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B108" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D108" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E108" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F108" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G108" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H108" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I108" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J108" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="K108" s="24" t="s">
+        <v>32</v>
+      </c>
       <c r="L108" s="5"/>
     </row>
     <row r="109" spans="1:12">
+      <c r="A109" s="25">
+        <v>4</v>
+      </c>
+      <c r="B109" s="26">
+        <v>1980</v>
+      </c>
+      <c r="C109" s="26">
+        <v>1</v>
+      </c>
+      <c r="D109" s="47">
+        <v>67</v>
+      </c>
+      <c r="E109" s="26">
+        <v>288</v>
+      </c>
+      <c r="F109" s="26">
+        <v>20</v>
+      </c>
+      <c r="G109" s="26">
+        <v>280</v>
+      </c>
+      <c r="H109" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I109" s="26">
+        <v>0.21</v>
+      </c>
+      <c r="J109" s="26">
+        <v>30</v>
+      </c>
+      <c r="K109" s="27">
+        <v>1.7658476878487881</v>
+      </c>
       <c r="L109" s="5"/>
     </row>
     <row r="110" spans="1:12">
+      <c r="A110" s="28"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="21"/>
       <c r="L110" s="5"/>
     </row>
     <row r="111" spans="1:12">
+      <c r="A111" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B111" s="26">
+        <v>2</v>
+      </c>
+      <c r="C111" s="30"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F111" s="26">
+        <v>3</v>
+      </c>
+      <c r="G111" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="21"/>
       <c r="L111" s="5"/>
     </row>
     <row r="112" spans="1:12">
+      <c r="A112" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B112" s="26">
+        <v>0</v>
+      </c>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F112" s="26">
+        <v>6</v>
+      </c>
+      <c r="G112" s="26">
+        <v>0</v>
+      </c>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="21"/>
       <c r="L112" s="5"/>
     </row>
-    <row r="113" spans="12:12">
+    <row r="113" spans="1:12">
+      <c r="A113" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B113" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F113" s="26">
+        <v>1</v>
+      </c>
+      <c r="G113" s="30"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="21"/>
       <c r="L113" s="5"/>
     </row>
-    <row r="114" spans="12:12">
+    <row r="114" spans="1:12">
+      <c r="A114" s="35"/>
+      <c r="B114" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C114" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D114" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E114" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F114" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G114" s="38"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="21"/>
       <c r="L114" s="5"/>
     </row>
-    <row r="115" spans="12:12">
+    <row r="115" spans="1:12">
+      <c r="A115" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B115" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C115" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D115" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E115" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F115" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G115" s="38"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="48"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="21"/>
       <c r="L115" s="5"/>
     </row>
-    <row r="116" spans="12:12">
+    <row r="116" spans="1:12">
+      <c r="A116" s="40">
+        <v>1</v>
+      </c>
+      <c r="B116" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C116" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D116" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E116" s="26">
+        <v>10</v>
+      </c>
+      <c r="F116" s="26">
+        <v>10</v>
+      </c>
+      <c r="G116" s="13"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
+      <c r="K116" s="21"/>
       <c r="L116" s="5"/>
     </row>
-    <row r="117" spans="12:12">
+    <row r="117" spans="1:12">
+      <c r="A117" s="40">
+        <v>2</v>
+      </c>
+      <c r="B117" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C117" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D117" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E117" s="26">
+        <v>20</v>
+      </c>
+      <c r="F117" s="26">
+        <v>25</v>
+      </c>
+      <c r="G117" s="13"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="21"/>
       <c r="L117" s="5"/>
     </row>
-    <row r="118" spans="12:12">
+    <row r="118" spans="1:12">
+      <c r="A118" s="40">
+        <v>3</v>
+      </c>
+      <c r="B118" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C118" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D118" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E118" s="26">
+        <v>30</v>
+      </c>
+      <c r="F118" s="26">
+        <v>40</v>
+      </c>
+      <c r="G118" s="13"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="21"/>
       <c r="L118" s="5"/>
     </row>
-    <row r="119" spans="12:12">
+    <row r="119" spans="1:12">
+      <c r="A119" s="41">
+        <v>4</v>
+      </c>
+      <c r="B119" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D119" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E119" s="26">
+        <v>40</v>
+      </c>
+      <c r="F119" s="26">
+        <v>30</v>
+      </c>
+      <c r="G119" s="13"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="21"/>
       <c r="L119" s="5"/>
     </row>
-    <row r="120" spans="12:12">
+    <row r="120" spans="1:12">
+      <c r="A120" s="41">
+        <v>5</v>
+      </c>
+      <c r="B120" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C120" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D120" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E120" s="26">
+        <v>50</v>
+      </c>
+      <c r="F120" s="26">
+        <v>5</v>
+      </c>
+      <c r="G120" s="13"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
+      <c r="J120" s="8"/>
+      <c r="K120" s="21"/>
       <c r="L120" s="5"/>
     </row>
-    <row r="121" spans="12:12">
+    <row r="121" spans="1:12">
+      <c r="A121" s="41">
+        <v>6</v>
+      </c>
+      <c r="B121" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C121" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D121" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E121" s="26">
+        <v>60</v>
+      </c>
+      <c r="F121" s="26">
+        <v>18</v>
+      </c>
+      <c r="G121" s="13"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="21"/>
       <c r="L121" s="5"/>
     </row>
-    <row r="122" spans="12:12">
+    <row r="122" spans="1:12">
+      <c r="A122" s="41">
+        <v>7</v>
+      </c>
+      <c r="B122" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C122" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D122" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E122" s="26">
+        <v>0</v>
+      </c>
+      <c r="F122" s="26">
+        <v>0</v>
+      </c>
+      <c r="G122" s="13"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
+      <c r="J122" s="8"/>
+      <c r="K122" s="21"/>
       <c r="L122" s="5"/>
     </row>
-    <row r="123" spans="12:12">
+    <row r="123" spans="1:12">
+      <c r="A123" s="41">
+        <v>8</v>
+      </c>
+      <c r="B123" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C123" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D123" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E123" s="26">
+        <v>0</v>
+      </c>
+      <c r="F123" s="26">
+        <v>0</v>
+      </c>
+      <c r="G123" s="13"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="8"/>
+      <c r="K123" s="21"/>
       <c r="L123" s="5"/>
     </row>
-    <row r="124" spans="12:12">
+    <row r="124" spans="1:12">
+      <c r="A124" s="41">
+        <v>9</v>
+      </c>
+      <c r="B124" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C124" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D124" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E124" s="26">
+        <v>0</v>
+      </c>
+      <c r="F124" s="26">
+        <v>0</v>
+      </c>
+      <c r="G124" s="13"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="21"/>
       <c r="L124" s="5"/>
     </row>
-    <row r="125" spans="12:12">
+    <row r="125" spans="1:12" ht="13" thickBot="1">
+      <c r="A125" s="42">
+        <v>10</v>
+      </c>
+      <c r="B125" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C125" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D125" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E125" s="43">
+        <v>0</v>
+      </c>
+      <c r="F125" s="43">
+        <v>0</v>
+      </c>
+      <c r="G125" s="44"/>
+      <c r="H125" s="45"/>
+      <c r="I125" s="45"/>
+      <c r="J125" s="45"/>
+      <c r="K125" s="46"/>
       <c r="L125" s="5"/>
     </row>
-    <row r="126" spans="12:12">
+    <row r="126" spans="1:12">
       <c r="L126" s="5"/>
     </row>
-    <row r="127" spans="12:12">
+    <row r="127" spans="1:12" ht="13" thickBot="1">
       <c r="L127" s="5"/>
     </row>
-    <row r="128" spans="12:12">
+    <row r="128" spans="1:12">
+      <c r="A128" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B128" s="16"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="16"/>
+      <c r="F128" s="16"/>
+      <c r="G128" s="16"/>
+      <c r="H128" s="17"/>
+      <c r="I128" s="17"/>
+      <c r="J128" s="17"/>
+      <c r="K128" s="18"/>
       <c r="L128" s="5"/>
     </row>
-    <row r="129" spans="12:12">
+    <row r="129" spans="1:12">
+      <c r="A129" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B129" s="20"/>
+      <c r="C129" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="13"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="8"/>
+      <c r="J129" s="8"/>
+      <c r="K129" s="21"/>
       <c r="L129" s="5"/>
     </row>
-    <row r="130" spans="12:12">
+    <row r="130" spans="1:12">
+      <c r="A130" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B130" s="13"/>
+      <c r="C130" s="22">
+        <v>0</v>
+      </c>
+      <c r="D130" s="13"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13"/>
+      <c r="G130" s="13"/>
+      <c r="H130" s="8"/>
+      <c r="I130" s="8"/>
+      <c r="J130" s="8"/>
+      <c r="K130" s="21"/>
       <c r="L130" s="5"/>
     </row>
-    <row r="131" spans="12:12">
+    <row r="131" spans="1:12">
+      <c r="A131" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B131" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C131" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D131" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E131" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F131" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G131" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H131" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I131" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J131" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="K131" s="24" t="s">
+        <v>32</v>
+      </c>
       <c r="L131" s="5"/>
     </row>
-    <row r="132" spans="12:12">
+    <row r="132" spans="1:12">
+      <c r="A132" s="25">
+        <v>4</v>
+      </c>
+      <c r="B132" s="26">
+        <v>1980</v>
+      </c>
+      <c r="C132" s="26">
+        <v>1</v>
+      </c>
+      <c r="D132" s="47">
+        <v>67</v>
+      </c>
+      <c r="E132" s="26">
+        <v>288</v>
+      </c>
+      <c r="F132" s="26">
+        <v>20</v>
+      </c>
+      <c r="G132" s="26">
+        <v>280</v>
+      </c>
+      <c r="H132" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I132" s="26">
+        <v>0.21</v>
+      </c>
+      <c r="J132" s="26">
+        <v>30</v>
+      </c>
+      <c r="K132" s="27">
+        <v>1.7658476878487881</v>
+      </c>
       <c r="L132" s="5"/>
     </row>
-    <row r="133" spans="12:12">
+    <row r="133" spans="1:12">
+      <c r="A133" s="28"/>
+      <c r="B133" s="13"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="13"/>
+      <c r="G133" s="13"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="8"/>
+      <c r="J133" s="8"/>
+      <c r="K133" s="21"/>
       <c r="L133" s="5"/>
     </row>
-    <row r="134" spans="12:12">
+    <row r="134" spans="1:12">
+      <c r="A134" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B134" s="26">
+        <v>2</v>
+      </c>
+      <c r="C134" s="30"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F134" s="26">
+        <v>3</v>
+      </c>
+      <c r="G134" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
+      <c r="J134" s="8"/>
+      <c r="K134" s="21"/>
       <c r="L134" s="5"/>
     </row>
-    <row r="135" spans="12:12">
+    <row r="135" spans="1:12">
+      <c r="A135" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B135" s="26">
+        <v>0</v>
+      </c>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F135" s="26">
+        <v>6</v>
+      </c>
+      <c r="G135" s="26">
+        <v>0</v>
+      </c>
+      <c r="H135" s="8"/>
+      <c r="I135" s="8"/>
+      <c r="J135" s="8"/>
+      <c r="K135" s="21"/>
       <c r="L135" s="5"/>
     </row>
-    <row r="136" spans="12:12">
+    <row r="136" spans="1:12">
+      <c r="A136" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B136" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F136" s="26">
+        <v>3</v>
+      </c>
+      <c r="G136" s="30"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="8"/>
+      <c r="K136" s="21"/>
       <c r="L136" s="5"/>
     </row>
-    <row r="137" spans="12:12">
+    <row r="137" spans="1:12">
+      <c r="A137" s="35"/>
+      <c r="B137" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C137" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D137" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E137" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F137" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G137" s="38"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="8"/>
+      <c r="J137" s="8"/>
+      <c r="K137" s="21"/>
       <c r="L137" s="5"/>
     </row>
-    <row r="138" spans="12:12">
+    <row r="138" spans="1:12">
+      <c r="A138" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B138" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C138" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D138" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E138" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F138" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G138" s="38"/>
+      <c r="H138" s="8"/>
+      <c r="I138" s="48"/>
+      <c r="J138" s="8"/>
+      <c r="K138" s="21"/>
       <c r="L138" s="5"/>
     </row>
-    <row r="139" spans="12:12">
+    <row r="139" spans="1:12">
+      <c r="A139" s="40">
+        <v>1</v>
+      </c>
+      <c r="B139" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C139" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D139" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E139" s="26">
+        <v>289</v>
+      </c>
+      <c r="F139" s="26">
+        <v>10</v>
+      </c>
+      <c r="G139" s="13"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="8"/>
+      <c r="J139" s="8"/>
+      <c r="K139" s="21"/>
       <c r="L139" s="5"/>
     </row>
-    <row r="140" spans="12:12">
+    <row r="140" spans="1:12">
+      <c r="A140" s="40">
+        <v>2</v>
+      </c>
+      <c r="B140" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C140" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D140" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E140" s="26">
+        <v>296</v>
+      </c>
+      <c r="F140" s="26">
+        <v>25</v>
+      </c>
+      <c r="G140" s="13"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="K140" s="21"/>
       <c r="L140" s="5"/>
     </row>
-    <row r="141" spans="12:12">
+    <row r="141" spans="1:12">
+      <c r="A141" s="40">
+        <v>3</v>
+      </c>
+      <c r="B141" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C141" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D141" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E141" s="26">
+        <v>303</v>
+      </c>
+      <c r="F141" s="26">
+        <v>40</v>
+      </c>
+      <c r="G141" s="13"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="8"/>
+      <c r="J141" s="8"/>
+      <c r="K141" s="21"/>
       <c r="L141" s="5"/>
     </row>
-    <row r="142" spans="12:12">
+    <row r="142" spans="1:12">
+      <c r="A142" s="41">
+        <v>4</v>
+      </c>
+      <c r="B142" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C142" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D142" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E142" s="26">
+        <v>1</v>
+      </c>
+      <c r="F142" s="26">
+        <v>30</v>
+      </c>
+      <c r="G142" s="13"/>
+      <c r="H142" s="8"/>
+      <c r="I142" s="8"/>
+      <c r="J142" s="8"/>
+      <c r="K142" s="21"/>
       <c r="L142" s="5"/>
     </row>
-    <row r="143" spans="12:12">
+    <row r="143" spans="1:12">
+      <c r="A143" s="41">
+        <v>5</v>
+      </c>
+      <c r="B143" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C143" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D143" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E143" s="26">
+        <v>8</v>
+      </c>
+      <c r="F143" s="26">
+        <v>5</v>
+      </c>
+      <c r="G143" s="13"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="K143" s="21"/>
       <c r="L143" s="5"/>
     </row>
-    <row r="144" spans="12:12">
+    <row r="144" spans="1:12">
+      <c r="A144" s="41">
+        <v>6</v>
+      </c>
+      <c r="B144" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C144" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D144" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E144" s="26">
+        <v>15</v>
+      </c>
+      <c r="F144" s="26">
+        <v>18</v>
+      </c>
+      <c r="G144" s="13"/>
+      <c r="H144" s="8"/>
+      <c r="I144" s="8"/>
+      <c r="J144" s="8"/>
+      <c r="K144" s="21"/>
       <c r="L144" s="5"/>
     </row>
-    <row r="145" spans="12:12">
+    <row r="145" spans="1:12">
+      <c r="A145" s="41">
+        <v>7</v>
+      </c>
+      <c r="B145" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C145" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D145" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E145" s="26">
+        <v>0</v>
+      </c>
+      <c r="F145" s="26">
+        <v>0</v>
+      </c>
+      <c r="G145" s="13"/>
+      <c r="H145" s="8"/>
+      <c r="I145" s="8"/>
+      <c r="J145" s="8"/>
+      <c r="K145" s="21"/>
       <c r="L145" s="5"/>
     </row>
-    <row r="146" spans="12:12">
+    <row r="146" spans="1:12">
+      <c r="A146" s="41">
+        <v>8</v>
+      </c>
+      <c r="B146" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C146" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D146" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E146" s="26">
+        <v>0</v>
+      </c>
+      <c r="F146" s="26">
+        <v>0</v>
+      </c>
+      <c r="G146" s="13"/>
+      <c r="H146" s="8"/>
+      <c r="I146" s="8"/>
+      <c r="J146" s="8"/>
+      <c r="K146" s="21"/>
       <c r="L146" s="5"/>
     </row>
-    <row r="147" spans="12:12">
+    <row r="147" spans="1:12">
+      <c r="A147" s="41">
+        <v>9</v>
+      </c>
+      <c r="B147" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C147" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D147" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E147" s="26">
+        <v>0</v>
+      </c>
+      <c r="F147" s="26">
+        <v>0</v>
+      </c>
+      <c r="G147" s="13"/>
+      <c r="H147" s="8"/>
+      <c r="I147" s="8"/>
+      <c r="J147" s="8"/>
+      <c r="K147" s="21"/>
       <c r="L147" s="5"/>
     </row>
-    <row r="148" spans="12:12">
+    <row r="148" spans="1:12" ht="13" thickBot="1">
+      <c r="A148" s="42">
+        <v>10</v>
+      </c>
+      <c r="B148" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C148" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D148" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E148" s="43">
+        <v>0</v>
+      </c>
+      <c r="F148" s="43">
+        <v>0</v>
+      </c>
+      <c r="G148" s="44"/>
+      <c r="H148" s="45"/>
+      <c r="I148" s="45"/>
+      <c r="J148" s="45"/>
+      <c r="K148" s="46"/>
       <c r="L148" s="5"/>
     </row>
-    <row r="149" spans="12:12">
+    <row r="149" spans="1:12">
       <c r="L149" s="5"/>
     </row>
-    <row r="150" spans="12:12">
+    <row r="150" spans="1:12" ht="13" thickBot="1">
       <c r="L150" s="5"/>
     </row>
-    <row r="151" spans="12:12">
+    <row r="151" spans="1:12">
+      <c r="A151" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B151" s="16"/>
+      <c r="C151" s="16"/>
+      <c r="D151" s="16"/>
+      <c r="E151" s="16"/>
+      <c r="F151" s="16"/>
+      <c r="G151" s="16"/>
+      <c r="H151" s="17"/>
+      <c r="I151" s="17"/>
+      <c r="J151" s="17"/>
+      <c r="K151" s="18"/>
       <c r="L151" s="5"/>
     </row>
-    <row r="152" spans="12:12">
+    <row r="152" spans="1:12">
+      <c r="A152" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B152" s="20"/>
+      <c r="C152" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D152" s="13"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="13"/>
+      <c r="G152" s="13"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="8"/>
+      <c r="J152" s="8"/>
+      <c r="K152" s="21"/>
       <c r="L152" s="5"/>
     </row>
-    <row r="153" spans="12:12">
+    <row r="153" spans="1:12">
+      <c r="A153" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B153" s="13"/>
+      <c r="C153" s="22">
+        <v>0</v>
+      </c>
+      <c r="D153" s="13"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="13"/>
+      <c r="G153" s="13"/>
+      <c r="H153" s="8"/>
+      <c r="I153" s="8"/>
+      <c r="J153" s="8"/>
+      <c r="K153" s="21"/>
       <c r="L153" s="5"/>
     </row>
-    <row r="154" spans="12:12">
+    <row r="154" spans="1:12">
+      <c r="A154" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B154" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C154" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D154" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E154" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F154" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G154" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H154" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I154" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J154" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="K154" s="24" t="s">
+        <v>32</v>
+      </c>
       <c r="L154" s="5"/>
     </row>
-    <row r="155" spans="12:12">
+    <row r="155" spans="1:12">
+      <c r="A155" s="25">
+        <v>4</v>
+      </c>
+      <c r="B155" s="26">
+        <v>1980</v>
+      </c>
+      <c r="C155" s="26">
+        <v>1</v>
+      </c>
+      <c r="D155" s="47">
+        <v>67</v>
+      </c>
+      <c r="E155" s="26">
+        <v>288</v>
+      </c>
+      <c r="F155" s="26">
+        <v>20</v>
+      </c>
+      <c r="G155" s="26">
+        <v>280</v>
+      </c>
+      <c r="H155" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I155" s="26">
+        <v>0.21</v>
+      </c>
+      <c r="J155" s="26">
+        <v>30</v>
+      </c>
+      <c r="K155" s="27">
+        <v>1.7658476878487881</v>
+      </c>
       <c r="L155" s="5"/>
     </row>
-    <row r="156" spans="12:12">
+    <row r="156" spans="1:12">
+      <c r="A156" s="28"/>
+      <c r="B156" s="13"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="13"/>
+      <c r="G156" s="13"/>
+      <c r="H156" s="8"/>
+      <c r="I156" s="8"/>
+      <c r="J156" s="8"/>
+      <c r="K156" s="21"/>
       <c r="L156" s="5"/>
     </row>
-    <row r="157" spans="12:12">
+    <row r="157" spans="1:12">
+      <c r="A157" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B157" s="26">
+        <v>2</v>
+      </c>
+      <c r="C157" s="30"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F157" s="26">
+        <v>3</v>
+      </c>
+      <c r="G157" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H157" s="8"/>
+      <c r="I157" s="8"/>
+      <c r="J157" s="8"/>
+      <c r="K157" s="21"/>
       <c r="L157" s="5"/>
     </row>
-    <row r="158" spans="12:12">
+    <row r="158" spans="1:12">
+      <c r="A158" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B158" s="26">
+        <v>0</v>
+      </c>
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F158" s="26">
+        <v>6</v>
+      </c>
+      <c r="G158" s="26">
+        <v>0</v>
+      </c>
+      <c r="H158" s="8"/>
+      <c r="I158" s="8"/>
+      <c r="J158" s="8"/>
+      <c r="K158" s="21"/>
       <c r="L158" s="5"/>
     </row>
-    <row r="159" spans="12:12">
+    <row r="159" spans="1:12">
+      <c r="A159" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B159" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F159" s="26">
+        <v>2</v>
+      </c>
+      <c r="G159" s="30"/>
+      <c r="H159" s="8"/>
+      <c r="I159" s="8"/>
+      <c r="J159" s="8"/>
+      <c r="K159" s="21"/>
       <c r="L159" s="5"/>
     </row>
-    <row r="160" spans="12:12">
+    <row r="160" spans="1:12">
+      <c r="A160" s="35"/>
+      <c r="B160" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C160" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D160" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E160" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F160" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G160" s="38"/>
+      <c r="H160" s="8"/>
+      <c r="I160" s="8"/>
+      <c r="J160" s="8"/>
+      <c r="K160" s="21"/>
       <c r="L160" s="5"/>
     </row>
-    <row r="161" spans="12:12">
+    <row r="161" spans="1:12">
+      <c r="A161" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B161" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C161" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D161" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E161" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F161" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G161" s="38"/>
+      <c r="H161" s="8"/>
+      <c r="I161" s="48"/>
+      <c r="J161" s="8"/>
+      <c r="K161" s="21"/>
       <c r="L161" s="5"/>
     </row>
-    <row r="162" spans="12:12">
+    <row r="162" spans="1:12">
+      <c r="A162" s="40">
+        <v>1</v>
+      </c>
+      <c r="B162" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C162" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D162" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E162" s="26">
+        <v>5</v>
+      </c>
+      <c r="F162" s="26">
+        <v>10</v>
+      </c>
+      <c r="G162" s="13"/>
+      <c r="H162" s="8"/>
+      <c r="I162" s="8"/>
+      <c r="J162" s="8"/>
+      <c r="K162" s="21"/>
       <c r="L162" s="5"/>
     </row>
-    <row r="163" spans="12:12">
+    <row r="163" spans="1:12">
+      <c r="A163" s="40">
+        <v>2</v>
+      </c>
+      <c r="B163" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C163" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D163" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E163" s="26">
+        <v>10</v>
+      </c>
+      <c r="F163" s="26">
+        <v>25</v>
+      </c>
+      <c r="G163" s="13"/>
+      <c r="H163" s="8"/>
+      <c r="I163" s="8"/>
+      <c r="J163" s="8"/>
+      <c r="K163" s="21"/>
       <c r="L163" s="5"/>
     </row>
-    <row r="164" spans="12:12">
+    <row r="164" spans="1:12">
+      <c r="A164" s="40">
+        <v>3</v>
+      </c>
+      <c r="B164" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C164" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D164" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E164" s="26">
+        <v>12</v>
+      </c>
+      <c r="F164" s="26">
+        <v>40</v>
+      </c>
+      <c r="G164" s="13"/>
+      <c r="H164" s="8"/>
+      <c r="I164" s="8"/>
+      <c r="J164" s="8"/>
+      <c r="K164" s="21"/>
       <c r="L164" s="5"/>
     </row>
-    <row r="165" spans="12:12">
+    <row r="165" spans="1:12">
+      <c r="A165" s="41">
+        <v>4</v>
+      </c>
+      <c r="B165" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C165" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D165" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E165" s="26">
+        <v>20</v>
+      </c>
+      <c r="F165" s="26">
+        <v>30</v>
+      </c>
+      <c r="G165" s="13"/>
+      <c r="H165" s="8"/>
+      <c r="I165" s="8"/>
+      <c r="J165" s="8"/>
+      <c r="K165" s="21"/>
       <c r="L165" s="5"/>
     </row>
-    <row r="166" spans="12:12">
+    <row r="166" spans="1:12">
+      <c r="A166" s="41">
+        <v>5</v>
+      </c>
+      <c r="B166" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C166" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D166" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E166" s="26">
+        <v>30</v>
+      </c>
+      <c r="F166" s="26">
+        <v>5</v>
+      </c>
+      <c r="G166" s="13"/>
+      <c r="H166" s="8"/>
+      <c r="I166" s="8"/>
+      <c r="J166" s="8"/>
+      <c r="K166" s="21"/>
       <c r="L166" s="5"/>
     </row>
-    <row r="167" spans="12:12">
+    <row r="167" spans="1:12">
+      <c r="A167" s="41">
+        <v>6</v>
+      </c>
+      <c r="B167" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C167" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D167" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E167" s="26">
+        <v>40</v>
+      </c>
+      <c r="F167" s="26">
+        <v>18</v>
+      </c>
+      <c r="G167" s="13"/>
+      <c r="H167" s="8"/>
+      <c r="I167" s="8"/>
+      <c r="J167" s="8"/>
+      <c r="K167" s="21"/>
       <c r="L167" s="5"/>
     </row>
-    <row r="168" spans="12:12">
+    <row r="168" spans="1:12">
+      <c r="A168" s="41">
+        <v>7</v>
+      </c>
+      <c r="B168" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C168" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D168" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E168" s="26">
+        <v>0</v>
+      </c>
+      <c r="F168" s="26">
+        <v>0</v>
+      </c>
+      <c r="G168" s="13"/>
+      <c r="H168" s="8"/>
+      <c r="I168" s="8"/>
+      <c r="J168" s="8"/>
+      <c r="K168" s="21"/>
       <c r="L168" s="5"/>
     </row>
-    <row r="169" spans="12:12">
+    <row r="169" spans="1:12">
+      <c r="A169" s="41">
+        <v>8</v>
+      </c>
+      <c r="B169" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C169" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D169" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E169" s="26">
+        <v>0</v>
+      </c>
+      <c r="F169" s="26">
+        <v>0</v>
+      </c>
+      <c r="G169" s="13"/>
+      <c r="H169" s="8"/>
+      <c r="I169" s="8"/>
+      <c r="J169" s="8"/>
+      <c r="K169" s="21"/>
       <c r="L169" s="5"/>
     </row>
-    <row r="170" spans="12:12">
+    <row r="170" spans="1:12">
+      <c r="A170" s="41">
+        <v>9</v>
+      </c>
+      <c r="B170" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C170" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D170" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E170" s="26">
+        <v>0</v>
+      </c>
+      <c r="F170" s="26">
+        <v>0</v>
+      </c>
+      <c r="G170" s="13"/>
+      <c r="H170" s="8"/>
+      <c r="I170" s="8"/>
+      <c r="J170" s="8"/>
+      <c r="K170" s="21"/>
       <c r="L170" s="5"/>
     </row>
-    <row r="171" spans="12:12">
+    <row r="171" spans="1:12" ht="13" thickBot="1">
+      <c r="A171" s="42">
+        <v>10</v>
+      </c>
+      <c r="B171" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C171" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D171" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E171" s="43">
+        <v>0</v>
+      </c>
+      <c r="F171" s="43">
+        <v>0</v>
+      </c>
+      <c r="G171" s="44"/>
+      <c r="H171" s="45"/>
+      <c r="I171" s="45"/>
+      <c r="J171" s="45"/>
+      <c r="K171" s="46"/>
       <c r="L171" s="5"/>
     </row>
-    <row r="172" spans="12:12">
+    <row r="172" spans="1:12">
       <c r="L172" s="5"/>
     </row>
-    <row r="173" spans="12:12">
+    <row r="173" spans="1:12" ht="13" thickBot="1">
       <c r="L173" s="5"/>
     </row>
-    <row r="174" spans="12:12">
+    <row r="174" spans="1:12">
+      <c r="A174" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B174" s="16"/>
+      <c r="C174" s="16"/>
+      <c r="D174" s="16"/>
+      <c r="E174" s="16"/>
+      <c r="F174" s="16"/>
+      <c r="G174" s="16"/>
+      <c r="H174" s="17"/>
+      <c r="I174" s="17"/>
+      <c r="J174" s="17"/>
+      <c r="K174" s="18"/>
       <c r="L174" s="5"/>
     </row>
-    <row r="175" spans="12:12">
+    <row r="175" spans="1:12">
+      <c r="A175" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B175" s="20"/>
+      <c r="C175" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D175" s="13"/>
+      <c r="E175" s="13"/>
+      <c r="F175" s="13"/>
+      <c r="G175" s="13"/>
+      <c r="H175" s="8"/>
+      <c r="I175" s="8"/>
+      <c r="J175" s="8"/>
+      <c r="K175" s="21"/>
       <c r="L175" s="5"/>
     </row>
-    <row r="176" spans="12:12">
+    <row r="176" spans="1:12">
+      <c r="A176" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B176" s="13"/>
+      <c r="C176" s="22">
+        <v>0</v>
+      </c>
+      <c r="D176" s="13"/>
+      <c r="E176" s="13"/>
+      <c r="F176" s="13"/>
+      <c r="G176" s="13"/>
+      <c r="H176" s="8"/>
+      <c r="I176" s="8"/>
+      <c r="J176" s="8"/>
+      <c r="K176" s="21"/>
       <c r="L176" s="5"/>
     </row>
-    <row r="177" spans="12:12">
+    <row r="177" spans="1:12">
+      <c r="A177" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B177" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C177" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D177" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E177" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F177" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G177" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H177" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I177" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J177" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="K177" s="24" t="s">
+        <v>32</v>
+      </c>
       <c r="L177" s="5"/>
     </row>
-    <row r="178" spans="12:12">
+    <row r="178" spans="1:12">
+      <c r="A178" s="25">
+        <v>4</v>
+      </c>
+      <c r="B178" s="26">
+        <v>1980</v>
+      </c>
+      <c r="C178" s="26">
+        <v>1</v>
+      </c>
+      <c r="D178" s="47">
+        <v>67</v>
+      </c>
+      <c r="E178" s="26">
+        <v>288</v>
+      </c>
+      <c r="F178" s="26">
+        <v>20</v>
+      </c>
+      <c r="G178" s="26">
+        <v>280</v>
+      </c>
+      <c r="H178" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I178" s="26">
+        <v>0.21</v>
+      </c>
+      <c r="J178" s="26">
+        <v>30</v>
+      </c>
+      <c r="K178" s="27">
+        <v>1.7658476878487881</v>
+      </c>
       <c r="L178" s="5"/>
     </row>
-    <row r="179" spans="12:12">
+    <row r="179" spans="1:12">
+      <c r="A179" s="28"/>
+      <c r="B179" s="13"/>
+      <c r="C179" s="13"/>
+      <c r="D179" s="13"/>
+      <c r="E179" s="13"/>
+      <c r="F179" s="13"/>
+      <c r="G179" s="13"/>
+      <c r="H179" s="8"/>
+      <c r="I179" s="8"/>
+      <c r="J179" s="8"/>
+      <c r="K179" s="21"/>
       <c r="L179" s="5"/>
     </row>
-    <row r="180" spans="12:12">
+    <row r="180" spans="1:12">
+      <c r="A180" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B180" s="26">
+        <v>2</v>
+      </c>
+      <c r="C180" s="30"/>
+      <c r="D180" s="8"/>
+      <c r="E180" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F180" s="26">
+        <v>3</v>
+      </c>
+      <c r="G180" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H180" s="8"/>
+      <c r="I180" s="8"/>
+      <c r="J180" s="8"/>
+      <c r="K180" s="21"/>
       <c r="L180" s="5"/>
     </row>
-    <row r="181" spans="12:12">
+    <row r="181" spans="1:12">
+      <c r="A181" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B181" s="26">
+        <v>0</v>
+      </c>
+      <c r="C181" s="8"/>
+      <c r="D181" s="8"/>
+      <c r="E181" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F181" s="26">
+        <v>6</v>
+      </c>
+      <c r="G181" s="26">
+        <v>0</v>
+      </c>
+      <c r="H181" s="8"/>
+      <c r="I181" s="8"/>
+      <c r="J181" s="8"/>
+      <c r="K181" s="21"/>
       <c r="L181" s="5"/>
     </row>
-    <row r="182" spans="12:12">
+    <row r="182" spans="1:12">
+      <c r="A182" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B182" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C182" s="8"/>
+      <c r="D182" s="8"/>
+      <c r="E182" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F182" s="26">
+        <v>4</v>
+      </c>
+      <c r="G182" s="30"/>
+      <c r="H182" s="8"/>
+      <c r="I182" s="8"/>
+      <c r="J182" s="8"/>
+      <c r="K182" s="21"/>
       <c r="L182" s="5"/>
     </row>
-    <row r="183" spans="12:12">
+    <row r="183" spans="1:12">
+      <c r="A183" s="35"/>
+      <c r="B183" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C183" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D183" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E183" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F183" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G183" s="38"/>
+      <c r="H183" s="8"/>
+      <c r="I183" s="8"/>
+      <c r="J183" s="8"/>
+      <c r="K183" s="21"/>
       <c r="L183" s="5"/>
     </row>
-    <row r="184" spans="12:12">
+    <row r="184" spans="1:12">
+      <c r="A184" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B184" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C184" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D184" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E184" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F184" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G184" s="38"/>
+      <c r="H184" s="8"/>
+      <c r="I184" s="48"/>
+      <c r="J184" s="8"/>
+      <c r="K184" s="21"/>
       <c r="L184" s="5"/>
     </row>
-    <row r="185" spans="12:12">
+    <row r="185" spans="1:12">
+      <c r="A185" s="40">
+        <v>1</v>
+      </c>
+      <c r="B185" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C185" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D185" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E185" s="26">
+        <v>5</v>
+      </c>
+      <c r="F185" s="26">
+        <v>1978</v>
+      </c>
+      <c r="G185" s="13"/>
+      <c r="H185" s="8"/>
+      <c r="I185" s="8"/>
+      <c r="J185" s="8"/>
+      <c r="K185" s="21"/>
       <c r="L185" s="5"/>
     </row>
-    <row r="186" spans="12:12">
+    <row r="186" spans="1:12">
+      <c r="A186" s="40">
+        <v>2</v>
+      </c>
+      <c r="B186" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C186" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D186" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E186" s="26">
+        <v>10</v>
+      </c>
+      <c r="F186" s="26">
+        <v>1978</v>
+      </c>
+      <c r="G186" s="13"/>
+      <c r="H186" s="8"/>
+      <c r="I186" s="8"/>
+      <c r="J186" s="8"/>
+      <c r="K186" s="21"/>
       <c r="L186" s="5"/>
     </row>
-    <row r="187" spans="12:12">
+    <row r="187" spans="1:12">
+      <c r="A187" s="40">
+        <v>3</v>
+      </c>
+      <c r="B187" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C187" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D187" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E187" s="26">
+        <v>12</v>
+      </c>
+      <c r="F187" s="26">
+        <v>1978</v>
+      </c>
+      <c r="G187" s="13"/>
+      <c r="H187" s="8"/>
+      <c r="I187" s="8"/>
+      <c r="J187" s="8"/>
+      <c r="K187" s="21"/>
       <c r="L187" s="5"/>
     </row>
-    <row r="188" spans="12:12">
+    <row r="188" spans="1:12">
+      <c r="A188" s="41">
+        <v>4</v>
+      </c>
+      <c r="B188" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C188" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D188" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E188" s="26">
+        <v>20</v>
+      </c>
+      <c r="F188" s="26">
+        <v>1978</v>
+      </c>
+      <c r="G188" s="13"/>
+      <c r="H188" s="8"/>
+      <c r="I188" s="8"/>
+      <c r="J188" s="8"/>
+      <c r="K188" s="21"/>
       <c r="L188" s="5"/>
     </row>
-    <row r="189" spans="12:12">
+    <row r="189" spans="1:12">
+      <c r="A189" s="41">
+        <v>5</v>
+      </c>
+      <c r="B189" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C189" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D189" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E189" s="26">
+        <v>30</v>
+      </c>
+      <c r="F189" s="26">
+        <v>1978</v>
+      </c>
+      <c r="G189" s="13"/>
+      <c r="H189" s="8"/>
+      <c r="I189" s="8"/>
+      <c r="J189" s="8"/>
+      <c r="K189" s="21"/>
       <c r="L189" s="5"/>
     </row>
-    <row r="190" spans="12:12">
+    <row r="190" spans="1:12">
+      <c r="A190" s="41">
+        <v>6</v>
+      </c>
+      <c r="B190" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C190" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D190" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E190" s="26">
+        <v>40</v>
+      </c>
+      <c r="F190" s="26">
+        <v>1978</v>
+      </c>
+      <c r="G190" s="13"/>
+      <c r="H190" s="8"/>
+      <c r="I190" s="8"/>
+      <c r="J190" s="8"/>
+      <c r="K190" s="21"/>
       <c r="L190" s="5"/>
     </row>
-    <row r="191" spans="12:12">
+    <row r="191" spans="1:12">
+      <c r="A191" s="41">
+        <v>7</v>
+      </c>
+      <c r="B191" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C191" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D191" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E191" s="26">
+        <v>0</v>
+      </c>
+      <c r="F191" s="26">
+        <v>0</v>
+      </c>
+      <c r="G191" s="13"/>
+      <c r="H191" s="8"/>
+      <c r="I191" s="8"/>
+      <c r="J191" s="8"/>
+      <c r="K191" s="21"/>
       <c r="L191" s="5"/>
     </row>
-    <row r="192" spans="12:12">
+    <row r="192" spans="1:12">
+      <c r="A192" s="41">
+        <v>8</v>
+      </c>
+      <c r="B192" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C192" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D192" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E192" s="26">
+        <v>0</v>
+      </c>
+      <c r="F192" s="26">
+        <v>0</v>
+      </c>
+      <c r="G192" s="13"/>
+      <c r="H192" s="8"/>
+      <c r="I192" s="8"/>
+      <c r="J192" s="8"/>
+      <c r="K192" s="21"/>
       <c r="L192" s="5"/>
     </row>
-    <row r="193" spans="12:12">
+    <row r="193" spans="1:12">
+      <c r="A193" s="41">
+        <v>9</v>
+      </c>
+      <c r="B193" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C193" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D193" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E193" s="26">
+        <v>0</v>
+      </c>
+      <c r="F193" s="26">
+        <v>0</v>
+      </c>
+      <c r="G193" s="13"/>
+      <c r="H193" s="8"/>
+      <c r="I193" s="8"/>
+      <c r="J193" s="8"/>
+      <c r="K193" s="21"/>
       <c r="L193" s="5"/>
     </row>
-    <row r="194" spans="12:12">
+    <row r="194" spans="1:12" ht="13" thickBot="1">
+      <c r="A194" s="42">
+        <v>10</v>
+      </c>
+      <c r="B194" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C194" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D194" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E194" s="43">
+        <v>0</v>
+      </c>
+      <c r="F194" s="43">
+        <v>0</v>
+      </c>
+      <c r="G194" s="44"/>
+      <c r="H194" s="45"/>
+      <c r="I194" s="45"/>
+      <c r="J194" s="45"/>
+      <c r="K194" s="46"/>
       <c r="L194" s="5"/>
     </row>
-    <row r="195" spans="12:12">
+    <row r="195" spans="1:12">
       <c r="L195" s="5"/>
     </row>
-    <row r="196" spans="12:12">
+    <row r="196" spans="1:12">
       <c r="L196" s="5"/>
     </row>
-    <row r="197" spans="12:12">
+    <row r="197" spans="1:12">
       <c r="L197" s="5"/>
     </row>
-    <row r="198" spans="12:12">
+    <row r="198" spans="1:12">
       <c r="L198" s="5"/>
     </row>
-    <row r="199" spans="12:12">
+    <row r="199" spans="1:12">
       <c r="L199" s="5"/>
     </row>
-    <row r="200" spans="12:12">
+    <row r="200" spans="1:12">
       <c r="L200" s="5"/>
     </row>
-    <row r="201" spans="12:12">
+    <row r="201" spans="1:12">
       <c r="L201" s="5"/>
     </row>
-    <row r="202" spans="12:12">
+    <row r="202" spans="1:12">
       <c r="L202" s="5"/>
     </row>
-    <row r="203" spans="12:12">
+    <row r="203" spans="1:12">
       <c r="L203" s="5"/>
     </row>
-    <row r="204" spans="12:12">
+    <row r="204" spans="1:12">
       <c r="L204" s="5"/>
     </row>
-    <row r="205" spans="12:12">
+    <row r="205" spans="1:12">
       <c r="L205" s="5"/>
     </row>
-    <row r="206" spans="12:12">
+    <row r="206" spans="1:12">
       <c r="L206" s="5"/>
     </row>
-    <row r="207" spans="12:12">
+    <row r="207" spans="1:12">
       <c r="L207" s="5"/>
     </row>
-    <row r="208" spans="12:12">
+    <row r="208" spans="1:12">
       <c r="L208" s="5"/>
     </row>
     <row r="209" spans="12:12">

--- a/input/managementPlans.xlsx
+++ b/input/managementPlans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achille\Documents\GitHub\SSM.R\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F30AB6-57D3-4CD9-80E9-AEABE09FDD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C469C0-617B-4593-A09A-72E3404908B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,17 @@
   <definedNames>
     <definedName name="Diameter">[1]Run!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -518,7 +527,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E42" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="E42" authorId="0" shapeId="0" xr:uid="{5DFE0CC7-BDC1-4B53-9B95-0E1DCE5EC981}">
       <text>
         <r>
           <rPr>
@@ -570,7 +579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="E44" authorId="0" shapeId="0" xr:uid="{0870B7BC-AD57-4F82-9FF1-50FC584AB48F}">
       <text>
         <r>
           <rPr>
@@ -2356,7 +2365,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="59">
   <si>
     <t>water = 0   for potential production</t>
   </si>
@@ -3364,8 +3373,8 @@
   <dimension ref="A1:X3956"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F182" sqref="F182"/>
+      <pane ySplit="10" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4394,7 +4403,7 @@
         <v>35</v>
       </c>
       <c r="F42" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G42" s="32" t="s">
         <v>36</v>
@@ -4421,7 +4430,7 @@
         <v>37</v>
       </c>
       <c r="B43" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -4429,7 +4438,7 @@
         <v>38</v>
       </c>
       <c r="F43" s="26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G43" s="26">
         <v>0.25</v>
@@ -4456,7 +4465,7 @@
         <v>39</v>
       </c>
       <c r="B44" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -4464,7 +4473,7 @@
         <v>39</v>
       </c>
       <c r="F44" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="30"/>
       <c r="H44" s="8"/>
@@ -4561,19 +4570,19 @@
         <v>1</v>
       </c>
       <c r="B47" s="26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C47" s="26">
+        <v>10</v>
+      </c>
+      <c r="D47" s="26">
         <v>5</v>
       </c>
-      <c r="D47" s="26">
-        <v>7</v>
-      </c>
       <c r="E47" s="26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F47" s="26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G47" s="13"/>
       <c r="H47" s="8"/>
@@ -4597,20 +4606,20 @@
       <c r="A48" s="40">
         <v>2</v>
       </c>
-      <c r="B48" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>33</v>
+      <c r="B48" s="26">
+        <v>10</v>
+      </c>
+      <c r="C48" s="26">
+        <v>10</v>
+      </c>
+      <c r="D48" s="26">
+        <v>5</v>
       </c>
       <c r="E48" s="26">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F48" s="26">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G48" s="13"/>
       <c r="H48" s="8"/>
@@ -4634,20 +4643,20 @@
       <c r="A49" s="40">
         <v>3</v>
       </c>
-      <c r="B49" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>33</v>
+      <c r="B49" s="26">
+        <v>12</v>
+      </c>
+      <c r="C49" s="26">
+        <v>10</v>
+      </c>
+      <c r="D49" s="26">
+        <v>5</v>
       </c>
       <c r="E49" s="26">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F49" s="26">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G49" s="13"/>
       <c r="H49" s="8"/>
@@ -4671,20 +4680,20 @@
       <c r="A50" s="41">
         <v>4</v>
       </c>
-      <c r="B50" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>33</v>
+      <c r="B50" s="26">
+        <v>20</v>
+      </c>
+      <c r="C50" s="26">
+        <v>10</v>
+      </c>
+      <c r="D50" s="26">
+        <v>5</v>
       </c>
       <c r="E50" s="26">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F50" s="26">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G50" s="13"/>
       <c r="H50" s="8"/>
@@ -4708,20 +4717,20 @@
       <c r="A51" s="41">
         <v>5</v>
       </c>
-      <c r="B51" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>33</v>
+      <c r="B51" s="26">
+        <v>30</v>
+      </c>
+      <c r="C51" s="26">
+        <v>10</v>
+      </c>
+      <c r="D51" s="26">
+        <v>5</v>
       </c>
       <c r="E51" s="26">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F51" s="26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G51" s="13"/>
       <c r="H51" s="8"/>
@@ -4745,20 +4754,20 @@
       <c r="A52" s="41">
         <v>6</v>
       </c>
-      <c r="B52" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D52" s="26" t="s">
-        <v>33</v>
+      <c r="B52" s="26">
+        <v>40</v>
+      </c>
+      <c r="C52" s="26">
+        <v>10</v>
+      </c>
+      <c r="D52" s="26">
+        <v>5</v>
       </c>
       <c r="E52" s="26">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F52" s="26">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G52" s="13"/>
       <c r="H52" s="8"/>
@@ -4782,14 +4791,14 @@
       <c r="A53" s="41">
         <v>7</v>
       </c>
-      <c r="B53" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" s="26" t="s">
-        <v>33</v>
+      <c r="B53" s="26">
+        <v>0</v>
+      </c>
+      <c r="C53" s="26">
+        <v>0</v>
+      </c>
+      <c r="D53" s="26">
+        <v>0</v>
       </c>
       <c r="E53" s="26">
         <v>0</v>
@@ -4819,14 +4828,14 @@
       <c r="A54" s="41">
         <v>8</v>
       </c>
-      <c r="B54" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D54" s="26" t="s">
-        <v>33</v>
+      <c r="B54" s="26">
+        <v>0</v>
+      </c>
+      <c r="C54" s="26">
+        <v>0</v>
+      </c>
+      <c r="D54" s="26">
+        <v>0</v>
       </c>
       <c r="E54" s="26">
         <v>0</v>
@@ -4856,14 +4865,14 @@
       <c r="A55" s="41">
         <v>9</v>
       </c>
-      <c r="B55" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D55" s="26" t="s">
-        <v>33</v>
+      <c r="B55" s="26">
+        <v>0</v>
+      </c>
+      <c r="C55" s="26">
+        <v>0</v>
+      </c>
+      <c r="D55" s="26">
+        <v>0</v>
       </c>
       <c r="E55" s="26">
         <v>0</v>
@@ -4893,14 +4902,14 @@
       <c r="A56" s="42">
         <v>10</v>
       </c>
-      <c r="B56" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="C56" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="D56" s="43" t="s">
-        <v>33</v>
+      <c r="B56" s="26">
+        <v>0</v>
+      </c>
+      <c r="C56" s="26">
+        <v>0</v>
+      </c>
+      <c r="D56" s="26">
+        <v>0</v>
       </c>
       <c r="E56" s="43">
         <v>0</v>
@@ -7302,7 +7311,7 @@
         <v>37</v>
       </c>
       <c r="B158" s="26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
@@ -7325,8 +7334,8 @@
       <c r="A159" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B159" s="26" t="s">
-        <v>33</v>
+      <c r="B159" s="26">
+        <v>2</v>
       </c>
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
@@ -7397,14 +7406,14 @@
       <c r="A162" s="40">
         <v>1</v>
       </c>
-      <c r="B162" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C162" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D162" s="26" t="s">
-        <v>33</v>
+      <c r="B162" s="26">
+        <v>5</v>
+      </c>
+      <c r="C162" s="26">
+        <v>10</v>
+      </c>
+      <c r="D162" s="26">
+        <v>5</v>
       </c>
       <c r="E162" s="26">
         <v>5</v>
@@ -7423,14 +7432,14 @@
       <c r="A163" s="40">
         <v>2</v>
       </c>
-      <c r="B163" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C163" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D163" s="26" t="s">
-        <v>33</v>
+      <c r="B163" s="26">
+        <v>10</v>
+      </c>
+      <c r="C163" s="26">
+        <v>10</v>
+      </c>
+      <c r="D163" s="26">
+        <v>5</v>
       </c>
       <c r="E163" s="26">
         <v>10</v>
@@ -7449,14 +7458,14 @@
       <c r="A164" s="40">
         <v>3</v>
       </c>
-      <c r="B164" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C164" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D164" s="26" t="s">
-        <v>33</v>
+      <c r="B164" s="26">
+        <v>12</v>
+      </c>
+      <c r="C164" s="26">
+        <v>10</v>
+      </c>
+      <c r="D164" s="26">
+        <v>5</v>
       </c>
       <c r="E164" s="26">
         <v>12</v>
@@ -7475,14 +7484,14 @@
       <c r="A165" s="41">
         <v>4</v>
       </c>
-      <c r="B165" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C165" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D165" s="26" t="s">
-        <v>33</v>
+      <c r="B165" s="26">
+        <v>20</v>
+      </c>
+      <c r="C165" s="26">
+        <v>10</v>
+      </c>
+      <c r="D165" s="26">
+        <v>5</v>
       </c>
       <c r="E165" s="26">
         <v>20</v>
@@ -7501,14 +7510,14 @@
       <c r="A166" s="41">
         <v>5</v>
       </c>
-      <c r="B166" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C166" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D166" s="26" t="s">
-        <v>33</v>
+      <c r="B166" s="26">
+        <v>30</v>
+      </c>
+      <c r="C166" s="26">
+        <v>10</v>
+      </c>
+      <c r="D166" s="26">
+        <v>5</v>
       </c>
       <c r="E166" s="26">
         <v>30</v>
@@ -7527,14 +7536,14 @@
       <c r="A167" s="41">
         <v>6</v>
       </c>
-      <c r="B167" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C167" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D167" s="26" t="s">
-        <v>33</v>
+      <c r="B167" s="26">
+        <v>40</v>
+      </c>
+      <c r="C167" s="26">
+        <v>10</v>
+      </c>
+      <c r="D167" s="26">
+        <v>5</v>
       </c>
       <c r="E167" s="26">
         <v>40</v>
@@ -7553,14 +7562,14 @@
       <c r="A168" s="41">
         <v>7</v>
       </c>
-      <c r="B168" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C168" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D168" s="26" t="s">
-        <v>33</v>
+      <c r="B168" s="26">
+        <v>0</v>
+      </c>
+      <c r="C168" s="26">
+        <v>0</v>
+      </c>
+      <c r="D168" s="26">
+        <v>0</v>
       </c>
       <c r="E168" s="26">
         <v>0</v>
@@ -7579,14 +7588,14 @@
       <c r="A169" s="41">
         <v>8</v>
       </c>
-      <c r="B169" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C169" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D169" s="26" t="s">
-        <v>33</v>
+      <c r="B169" s="26">
+        <v>0</v>
+      </c>
+      <c r="C169" s="26">
+        <v>0</v>
+      </c>
+      <c r="D169" s="26">
+        <v>0</v>
       </c>
       <c r="E169" s="26">
         <v>0</v>
@@ -7605,14 +7614,14 @@
       <c r="A170" s="41">
         <v>9</v>
       </c>
-      <c r="B170" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C170" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D170" s="26" t="s">
-        <v>33</v>
+      <c r="B170" s="26">
+        <v>0</v>
+      </c>
+      <c r="C170" s="26">
+        <v>0</v>
+      </c>
+      <c r="D170" s="26">
+        <v>0</v>
       </c>
       <c r="E170" s="26">
         <v>0</v>
@@ -7631,14 +7640,14 @@
       <c r="A171" s="42">
         <v>10</v>
       </c>
-      <c r="B171" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="C171" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="D171" s="43" t="s">
-        <v>33</v>
+      <c r="B171" s="26">
+        <v>0</v>
+      </c>
+      <c r="C171" s="26">
+        <v>0</v>
+      </c>
+      <c r="D171" s="26">
+        <v>0</v>
       </c>
       <c r="E171" s="43">
         <v>0</v>
@@ -7826,7 +7835,7 @@
         <v>37</v>
       </c>
       <c r="B181" s="26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C181" s="8"/>
       <c r="D181" s="8"/>
@@ -7849,8 +7858,8 @@
       <c r="A182" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B182" s="26" t="s">
-        <v>33</v>
+      <c r="B182" s="26">
+        <v>2</v>
       </c>
       <c r="C182" s="8"/>
       <c r="D182" s="8"/>
@@ -7921,14 +7930,14 @@
       <c r="A185" s="40">
         <v>1</v>
       </c>
-      <c r="B185" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C185" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D185" s="26" t="s">
-        <v>33</v>
+      <c r="B185" s="26">
+        <v>5</v>
+      </c>
+      <c r="C185" s="26">
+        <v>10</v>
+      </c>
+      <c r="D185" s="26">
+        <v>5</v>
       </c>
       <c r="E185" s="26">
         <v>5</v>
@@ -7947,14 +7956,14 @@
       <c r="A186" s="40">
         <v>2</v>
       </c>
-      <c r="B186" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C186" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D186" s="26" t="s">
-        <v>33</v>
+      <c r="B186" s="26">
+        <v>10</v>
+      </c>
+      <c r="C186" s="26">
+        <v>10</v>
+      </c>
+      <c r="D186" s="26">
+        <v>5</v>
       </c>
       <c r="E186" s="26">
         <v>10</v>
@@ -7973,14 +7982,14 @@
       <c r="A187" s="40">
         <v>3</v>
       </c>
-      <c r="B187" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C187" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D187" s="26" t="s">
-        <v>33</v>
+      <c r="B187" s="26">
+        <v>12</v>
+      </c>
+      <c r="C187" s="26">
+        <v>10</v>
+      </c>
+      <c r="D187" s="26">
+        <v>5</v>
       </c>
       <c r="E187" s="26">
         <v>12</v>
@@ -7999,14 +8008,14 @@
       <c r="A188" s="41">
         <v>4</v>
       </c>
-      <c r="B188" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C188" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D188" s="26" t="s">
-        <v>33</v>
+      <c r="B188" s="26">
+        <v>20</v>
+      </c>
+      <c r="C188" s="26">
+        <v>10</v>
+      </c>
+      <c r="D188" s="26">
+        <v>5</v>
       </c>
       <c r="E188" s="26">
         <v>20</v>
@@ -8025,14 +8034,14 @@
       <c r="A189" s="41">
         <v>5</v>
       </c>
-      <c r="B189" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C189" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D189" s="26" t="s">
-        <v>33</v>
+      <c r="B189" s="26">
+        <v>30</v>
+      </c>
+      <c r="C189" s="26">
+        <v>10</v>
+      </c>
+      <c r="D189" s="26">
+        <v>5</v>
       </c>
       <c r="E189" s="26">
         <v>30</v>
@@ -8051,14 +8060,14 @@
       <c r="A190" s="41">
         <v>6</v>
       </c>
-      <c r="B190" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C190" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D190" s="26" t="s">
-        <v>33</v>
+      <c r="B190" s="26">
+        <v>40</v>
+      </c>
+      <c r="C190" s="26">
+        <v>10</v>
+      </c>
+      <c r="D190" s="26">
+        <v>5</v>
       </c>
       <c r="E190" s="26">
         <v>40</v>
@@ -8077,14 +8086,14 @@
       <c r="A191" s="41">
         <v>7</v>
       </c>
-      <c r="B191" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C191" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D191" s="26" t="s">
-        <v>33</v>
+      <c r="B191" s="26">
+        <v>0</v>
+      </c>
+      <c r="C191" s="26">
+        <v>0</v>
+      </c>
+      <c r="D191" s="26">
+        <v>0</v>
       </c>
       <c r="E191" s="26">
         <v>0</v>
@@ -8103,14 +8112,14 @@
       <c r="A192" s="41">
         <v>8</v>
       </c>
-      <c r="B192" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C192" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D192" s="26" t="s">
-        <v>33</v>
+      <c r="B192" s="26">
+        <v>0</v>
+      </c>
+      <c r="C192" s="26">
+        <v>0</v>
+      </c>
+      <c r="D192" s="26">
+        <v>0</v>
       </c>
       <c r="E192" s="26">
         <v>0</v>
@@ -8129,14 +8138,14 @@
       <c r="A193" s="41">
         <v>9</v>
       </c>
-      <c r="B193" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C193" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D193" s="26" t="s">
-        <v>33</v>
+      <c r="B193" s="26">
+        <v>0</v>
+      </c>
+      <c r="C193" s="26">
+        <v>0</v>
+      </c>
+      <c r="D193" s="26">
+        <v>0</v>
       </c>
       <c r="E193" s="26">
         <v>0</v>
@@ -8155,14 +8164,14 @@
       <c r="A194" s="42">
         <v>10</v>
       </c>
-      <c r="B194" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="C194" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="D194" s="43" t="s">
-        <v>33</v>
+      <c r="B194" s="26">
+        <v>0</v>
+      </c>
+      <c r="C194" s="26">
+        <v>0</v>
+      </c>
+      <c r="D194" s="26">
+        <v>0</v>
       </c>
       <c r="E194" s="43">
         <v>0</v>

--- a/input/managementPlans.xlsx
+++ b/input/managementPlans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achille\Documents\GitHub\SSM.R\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C469C0-617B-4593-A09A-72E3404908B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AF183F-9C98-4CB7-98C8-BCE764BA44C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8800" yWindow="790" windowWidth="10400" windowHeight="9410" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Manag" sheetId="1" r:id="rId1"/>
@@ -1953,7 +1953,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A157" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004D000000}">
+    <comment ref="A157" authorId="0" shapeId="0" xr:uid="{458A4A32-E3B9-464A-AEF9-099CC7623CB7}">
       <text>
         <r>
           <rPr>
@@ -2005,7 +2005,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A159" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004F000000}">
+    <comment ref="A159" authorId="0" shapeId="0" xr:uid="{8AE9910D-1758-445B-B59A-A7D74CE948C6}">
       <text>
         <r>
           <rPr>
@@ -2256,7 +2256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A180" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000059000000}">
+    <comment ref="A180" authorId="0" shapeId="0" xr:uid="{B324657C-626A-4E12-B2D7-F25A03640806}">
       <text>
         <r>
           <rPr>
@@ -2308,7 +2308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A182" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005B000000}">
+    <comment ref="A182" authorId="0" shapeId="0" xr:uid="{8CC83427-C6A8-4303-BBD2-EB584C000958}">
       <text>
         <r>
           <rPr>
@@ -3373,8 +3373,8 @@
   <dimension ref="A1:X3956"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
+      <pane ySplit="10" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4430,7 +4430,7 @@
         <v>37</v>
       </c>
       <c r="B43" s="26">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -4570,13 +4570,13 @@
         <v>1</v>
       </c>
       <c r="B47" s="26">
+        <v>10</v>
+      </c>
+      <c r="C47" s="26">
         <v>5</v>
       </c>
-      <c r="C47" s="26">
-        <v>10</v>
-      </c>
       <c r="D47" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E47" s="26">
         <v>10</v>
@@ -4607,13 +4607,13 @@
         <v>2</v>
       </c>
       <c r="B48" s="26">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C48" s="26">
         <v>10</v>
       </c>
       <c r="D48" s="26">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="E48" s="26">
         <v>20</v>
@@ -4644,13 +4644,13 @@
         <v>3</v>
       </c>
       <c r="B49" s="26">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C49" s="26">
         <v>10</v>
       </c>
       <c r="D49" s="26">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="E49" s="26">
         <v>30</v>
@@ -4681,13 +4681,13 @@
         <v>4</v>
       </c>
       <c r="B50" s="26">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C50" s="26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D50" s="26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E50" s="26">
         <v>40</v>
@@ -4718,13 +4718,13 @@
         <v>5</v>
       </c>
       <c r="B51" s="26">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C51" s="26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D51" s="26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E51" s="26">
         <v>50</v>
@@ -4755,13 +4755,13 @@
         <v>6</v>
       </c>
       <c r="B52" s="26">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C52" s="26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D52" s="26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E52" s="26">
         <v>60</v>
@@ -7311,7 +7311,7 @@
         <v>37</v>
       </c>
       <c r="B158" s="26">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
@@ -7407,13 +7407,13 @@
         <v>1</v>
       </c>
       <c r="B162" s="26">
+        <v>10</v>
+      </c>
+      <c r="C162" s="26">
         <v>5</v>
       </c>
-      <c r="C162" s="26">
-        <v>10</v>
-      </c>
       <c r="D162" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E162" s="26">
         <v>5</v>
@@ -7433,13 +7433,13 @@
         <v>2</v>
       </c>
       <c r="B163" s="26">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C163" s="26">
         <v>10</v>
       </c>
       <c r="D163" s="26">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="E163" s="26">
         <v>10</v>
@@ -7459,13 +7459,13 @@
         <v>3</v>
       </c>
       <c r="B164" s="26">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C164" s="26">
         <v>10</v>
       </c>
       <c r="D164" s="26">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="E164" s="26">
         <v>12</v>
@@ -7485,13 +7485,13 @@
         <v>4</v>
       </c>
       <c r="B165" s="26">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C165" s="26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D165" s="26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E165" s="26">
         <v>20</v>
@@ -7511,13 +7511,13 @@
         <v>5</v>
       </c>
       <c r="B166" s="26">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C166" s="26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D166" s="26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E166" s="26">
         <v>30</v>
@@ -7537,13 +7537,13 @@
         <v>6</v>
       </c>
       <c r="B167" s="26">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C167" s="26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D167" s="26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E167" s="26">
         <v>40</v>
@@ -7835,7 +7835,7 @@
         <v>37</v>
       </c>
       <c r="B181" s="26">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C181" s="8"/>
       <c r="D181" s="8"/>
@@ -7931,13 +7931,13 @@
         <v>1</v>
       </c>
       <c r="B185" s="26">
+        <v>10</v>
+      </c>
+      <c r="C185" s="26">
         <v>5</v>
       </c>
-      <c r="C185" s="26">
-        <v>10</v>
-      </c>
       <c r="D185" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E185" s="26">
         <v>5</v>
@@ -7957,13 +7957,13 @@
         <v>2</v>
       </c>
       <c r="B186" s="26">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C186" s="26">
         <v>10</v>
       </c>
       <c r="D186" s="26">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="E186" s="26">
         <v>10</v>
@@ -7983,13 +7983,13 @@
         <v>3</v>
       </c>
       <c r="B187" s="26">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C187" s="26">
         <v>10</v>
       </c>
       <c r="D187" s="26">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="E187" s="26">
         <v>12</v>
@@ -8009,13 +8009,13 @@
         <v>4</v>
       </c>
       <c r="B188" s="26">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C188" s="26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D188" s="26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E188" s="26">
         <v>20</v>
@@ -8035,13 +8035,13 @@
         <v>5</v>
       </c>
       <c r="B189" s="26">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C189" s="26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D189" s="26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E189" s="26">
         <v>30</v>
@@ -8061,13 +8061,13 @@
         <v>6</v>
       </c>
       <c r="B190" s="26">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C190" s="26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D190" s="26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E190" s="26">
         <v>40</v>

--- a/input/managementPlans.xlsx
+++ b/input/managementPlans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achille\Documents\GitHub\SSM.R\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AF183F-9C98-4CB7-98C8-BCE764BA44C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C8EA0D-7FEB-48EF-8C20-26437133A5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8800" yWindow="790" windowWidth="10400" windowHeight="9410" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Manag" sheetId="1" r:id="rId1"/>
@@ -3373,8 +3373,8 @@
   <dimension ref="A1:X3956"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+      <pane ySplit="10" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D187" sqref="B185:D187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4573,10 +4573,10 @@
         <v>10</v>
       </c>
       <c r="C47" s="26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" s="26">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E47" s="26">
         <v>10</v>
@@ -4607,13 +4607,13 @@
         <v>2</v>
       </c>
       <c r="B48" s="26">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C48" s="26">
+        <v>2</v>
+      </c>
+      <c r="D48" s="26">
         <v>10</v>
-      </c>
-      <c r="D48" s="26">
-        <v>7.5</v>
       </c>
       <c r="E48" s="26">
         <v>20</v>
@@ -4644,13 +4644,13 @@
         <v>3</v>
       </c>
       <c r="B49" s="26">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C49" s="26">
+        <v>2</v>
+      </c>
+      <c r="D49" s="26">
         <v>10</v>
-      </c>
-      <c r="D49" s="26">
-        <v>7.5</v>
       </c>
       <c r="E49" s="26">
         <v>30</v>
@@ -7410,10 +7410,10 @@
         <v>10</v>
       </c>
       <c r="C162" s="26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D162" s="26">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E162" s="26">
         <v>5</v>
@@ -7433,13 +7433,13 @@
         <v>2</v>
       </c>
       <c r="B163" s="26">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C163" s="26">
+        <v>2</v>
+      </c>
+      <c r="D163" s="26">
         <v>10</v>
-      </c>
-      <c r="D163" s="26">
-        <v>7.5</v>
       </c>
       <c r="E163" s="26">
         <v>10</v>
@@ -7459,13 +7459,13 @@
         <v>3</v>
       </c>
       <c r="B164" s="26">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C164" s="26">
+        <v>2</v>
+      </c>
+      <c r="D164" s="26">
         <v>10</v>
-      </c>
-      <c r="D164" s="26">
-        <v>7.5</v>
       </c>
       <c r="E164" s="26">
         <v>12</v>
@@ -7934,10 +7934,10 @@
         <v>10</v>
       </c>
       <c r="C185" s="26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D185" s="26">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E185" s="26">
         <v>5</v>
@@ -7957,13 +7957,13 @@
         <v>2</v>
       </c>
       <c r="B186" s="26">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C186" s="26">
+        <v>2</v>
+      </c>
+      <c r="D186" s="26">
         <v>10</v>
-      </c>
-      <c r="D186" s="26">
-        <v>7.5</v>
       </c>
       <c r="E186" s="26">
         <v>10</v>
@@ -7983,13 +7983,13 @@
         <v>3</v>
       </c>
       <c r="B187" s="26">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C187" s="26">
+        <v>2</v>
+      </c>
+      <c r="D187" s="26">
         <v>10</v>
-      </c>
-      <c r="D187" s="26">
-        <v>7.5</v>
       </c>
       <c r="E187" s="26">
         <v>12</v>

--- a/input/managementPlans.xlsx
+++ b/input/managementPlans.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achille\Documents\GitHub\SSM.R\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F30AB6-57D3-4CD9-80E9-AEABE09FDD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78D6DF3-7116-46FA-B267-182E8BA28A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,17 @@
   <definedNames>
     <definedName name="Diameter">[1]Run!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -518,7 +527,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E42" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="E42" authorId="0" shapeId="0" xr:uid="{5DFE0CC7-BDC1-4B53-9B95-0E1DCE5EC981}">
       <text>
         <r>
           <rPr>
@@ -570,7 +579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="E44" authorId="0" shapeId="0" xr:uid="{0870B7BC-AD57-4F82-9FF1-50FC584AB48F}">
       <text>
         <r>
           <rPr>
@@ -1944,7 +1953,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A157" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004D000000}">
+    <comment ref="A157" authorId="0" shapeId="0" xr:uid="{458A4A32-E3B9-464A-AEF9-099CC7623CB7}">
       <text>
         <r>
           <rPr>
@@ -1996,7 +2005,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A159" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004F000000}">
+    <comment ref="A159" authorId="0" shapeId="0" xr:uid="{8AE9910D-1758-445B-B59A-A7D74CE948C6}">
       <text>
         <r>
           <rPr>
@@ -2247,7 +2256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A180" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000059000000}">
+    <comment ref="A180" authorId="0" shapeId="0" xr:uid="{B324657C-626A-4E12-B2D7-F25A03640806}">
       <text>
         <r>
           <rPr>
@@ -2299,7 +2308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A182" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005B000000}">
+    <comment ref="A182" authorId="0" shapeId="0" xr:uid="{8CC83427-C6A8-4303-BBD2-EB584C000958}">
       <text>
         <r>
           <rPr>
@@ -2326,6 +2335,309 @@
       </text>
     </comment>
     <comment ref="E182" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005C000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1=DAP, 
+2=CBD, 
+3=DOY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A200" authorId="0" shapeId="0" xr:uid="{6E16B265-E8DC-4F1E-862C-229500278AFD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Fixed sowing date. 
+1 - Sow in the 5th day of a 5-day rainfree period.
+2 - Sow in the 5th day  of a 5-day rainfree period + average temp &gt; SowTmp.
+3 - Sow in the 5th day  of a 5-day rainfree period + average temp &lt; SowTmp.
+4 - Sow when FTSW1 &gt; SowWat. 
+5 - Sow when FTSW1 &lt; SowWat. 
+6 - Sow when cumulative rainfall over a 5-day period &gt; SowWat. 
+7 - Sow when soil profile ATSW &gt; SowWat. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D200" authorId="0" shapeId="0" xr:uid="{B08E754E-8C99-4A21-85EF-872BEC69FBD7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Start simulation DOY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E200" authorId="0" shapeId="0" xr:uid="{4B955ECF-4E39-404D-A3E8-504C42BF1A79}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sowing date for FixFind=0, or beginning of sowing window</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F200" authorId="0" shapeId="0" xr:uid="{4CCF4E9C-E42A-46ED-9FA8-2000F8827F53}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Specifies the DOY of the end of sowing window</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G200" authorId="1" shapeId="0" xr:uid="{44F74DBD-2195-4E0A-BE1B-73AC1BA5F846}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Afshin Soltani:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DOY when crop must be harvested even pre-maturely</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H200" authorId="0" shapeId="0" xr:uid="{373C076A-5221-4307-A6E3-4949C984B845}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sowing temperature </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I200" authorId="0" shapeId="0" xr:uid="{DE57EA7A-82F4-45ED-8A07-4223225EEFB9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Soil profile (not top layer) ATSW that allows sowing.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I201" authorId="2" shapeId="0" xr:uid="{33F2FA31-4750-4F07-96EC-9DCE8E6E3FAF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marie Gosme:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+was 0.3, I'm just trying to see if this level can be reached a few days after simustart</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A203" authorId="0" shapeId="0" xr:uid="{89C9C2A5-93A0-4631-8F39-8CEBB948F842}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+N application scenario: 
+0=non-N-limited conditions, 
+2=N-limited conditions.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E203" authorId="0" shapeId="0" xr:uid="{0EE82C85-C095-4CD8-AB63-0571CF238A3C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Water application scenario:
+0=potential production, 1=automated irrigated, 2=rainfed, 
+3=fixed irrigated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A205" authorId="0" shapeId="0" xr:uid="{A714FB6C-A2C9-4551-B628-909713BA2824}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1=DAP, 
+2=CBD, 
+3=DOY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E205" authorId="0" shapeId="0" xr:uid="{3FC61E12-137F-46AF-8B34-46FC331E06CE}">
       <text>
         <r>
           <rPr>
@@ -2356,7 +2668,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="60">
   <si>
     <t>water = 0   for potential production</t>
   </si>
@@ -2533,6 +2845,9 @@
   </si>
   <si>
     <t>essai_bidon_irrigation_CBDautoAmount</t>
+  </si>
+  <si>
+    <t>achille_rainfed_3N</t>
   </si>
 </sst>
 </file>
@@ -3364,8 +3679,8 @@
   <dimension ref="A1:X3956"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F182" sqref="F182"/>
+      <pane ySplit="10" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A199" sqref="A199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4394,7 +4709,7 @@
         <v>35</v>
       </c>
       <c r="F42" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G42" s="32" t="s">
         <v>36</v>
@@ -4421,7 +4736,7 @@
         <v>37</v>
       </c>
       <c r="B43" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -4429,7 +4744,7 @@
         <v>38</v>
       </c>
       <c r="F43" s="26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G43" s="26">
         <v>0.25</v>
@@ -4456,7 +4771,7 @@
         <v>39</v>
       </c>
       <c r="B44" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -4464,7 +4779,7 @@
         <v>39</v>
       </c>
       <c r="F44" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="30"/>
       <c r="H44" s="8"/>
@@ -4561,19 +4876,19 @@
         <v>1</v>
       </c>
       <c r="B47" s="26">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C47" s="26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" s="26">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E47" s="26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F47" s="26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G47" s="13"/>
       <c r="H47" s="8"/>
@@ -4597,20 +4912,20 @@
       <c r="A48" s="40">
         <v>2</v>
       </c>
-      <c r="B48" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>33</v>
+      <c r="B48" s="26">
+        <v>30</v>
+      </c>
+      <c r="C48" s="26">
+        <v>2</v>
+      </c>
+      <c r="D48" s="26">
+        <v>10</v>
       </c>
       <c r="E48" s="26">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F48" s="26">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G48" s="13"/>
       <c r="H48" s="8"/>
@@ -4634,20 +4949,20 @@
       <c r="A49" s="40">
         <v>3</v>
       </c>
-      <c r="B49" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>33</v>
+      <c r="B49" s="26">
+        <v>45</v>
+      </c>
+      <c r="C49" s="26">
+        <v>2</v>
+      </c>
+      <c r="D49" s="26">
+        <v>10</v>
       </c>
       <c r="E49" s="26">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F49" s="26">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G49" s="13"/>
       <c r="H49" s="8"/>
@@ -4671,20 +4986,20 @@
       <c r="A50" s="41">
         <v>4</v>
       </c>
-      <c r="B50" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>33</v>
+      <c r="B50" s="26">
+        <v>0</v>
+      </c>
+      <c r="C50" s="26">
+        <v>0</v>
+      </c>
+      <c r="D50" s="26">
+        <v>0</v>
       </c>
       <c r="E50" s="26">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F50" s="26">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G50" s="13"/>
       <c r="H50" s="8"/>
@@ -4708,20 +5023,20 @@
       <c r="A51" s="41">
         <v>5</v>
       </c>
-      <c r="B51" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>33</v>
+      <c r="B51" s="26">
+        <v>0</v>
+      </c>
+      <c r="C51" s="26">
+        <v>0</v>
+      </c>
+      <c r="D51" s="26">
+        <v>0</v>
       </c>
       <c r="E51" s="26">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F51" s="26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G51" s="13"/>
       <c r="H51" s="8"/>
@@ -4745,20 +5060,20 @@
       <c r="A52" s="41">
         <v>6</v>
       </c>
-      <c r="B52" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D52" s="26" t="s">
-        <v>33</v>
+      <c r="B52" s="26">
+        <v>0</v>
+      </c>
+      <c r="C52" s="26">
+        <v>0</v>
+      </c>
+      <c r="D52" s="26">
+        <v>0</v>
       </c>
       <c r="E52" s="26">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F52" s="26">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G52" s="13"/>
       <c r="H52" s="8"/>
@@ -4782,14 +5097,14 @@
       <c r="A53" s="41">
         <v>7</v>
       </c>
-      <c r="B53" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" s="26" t="s">
-        <v>33</v>
+      <c r="B53" s="26">
+        <v>0</v>
+      </c>
+      <c r="C53" s="26">
+        <v>0</v>
+      </c>
+      <c r="D53" s="26">
+        <v>0</v>
       </c>
       <c r="E53" s="26">
         <v>0</v>
@@ -4819,14 +5134,14 @@
       <c r="A54" s="41">
         <v>8</v>
       </c>
-      <c r="B54" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D54" s="26" t="s">
-        <v>33</v>
+      <c r="B54" s="26">
+        <v>0</v>
+      </c>
+      <c r="C54" s="26">
+        <v>0</v>
+      </c>
+      <c r="D54" s="26">
+        <v>0</v>
       </c>
       <c r="E54" s="26">
         <v>0</v>
@@ -4856,14 +5171,14 @@
       <c r="A55" s="41">
         <v>9</v>
       </c>
-      <c r="B55" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D55" s="26" t="s">
-        <v>33</v>
+      <c r="B55" s="26">
+        <v>0</v>
+      </c>
+      <c r="C55" s="26">
+        <v>0</v>
+      </c>
+      <c r="D55" s="26">
+        <v>0</v>
       </c>
       <c r="E55" s="26">
         <v>0</v>
@@ -4893,14 +5208,14 @@
       <c r="A56" s="42">
         <v>10</v>
       </c>
-      <c r="B56" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="C56" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="D56" s="43" t="s">
-        <v>33</v>
+      <c r="B56" s="26">
+        <v>0</v>
+      </c>
+      <c r="C56" s="26">
+        <v>0</v>
+      </c>
+      <c r="D56" s="26">
+        <v>0</v>
       </c>
       <c r="E56" s="43">
         <v>0</v>
@@ -7302,7 +7617,7 @@
         <v>37</v>
       </c>
       <c r="B158" s="26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
@@ -7325,8 +7640,8 @@
       <c r="A159" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B159" s="26" t="s">
-        <v>33</v>
+      <c r="B159" s="26">
+        <v>2</v>
       </c>
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
@@ -7397,14 +7712,14 @@
       <c r="A162" s="40">
         <v>1</v>
       </c>
-      <c r="B162" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C162" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D162" s="26" t="s">
-        <v>33</v>
+      <c r="B162" s="26">
+        <v>10</v>
+      </c>
+      <c r="C162" s="26">
+        <v>2</v>
+      </c>
+      <c r="D162" s="26">
+        <v>10</v>
       </c>
       <c r="E162" s="26">
         <v>5</v>
@@ -7423,14 +7738,14 @@
       <c r="A163" s="40">
         <v>2</v>
       </c>
-      <c r="B163" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C163" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D163" s="26" t="s">
-        <v>33</v>
+      <c r="B163" s="26">
+        <v>30</v>
+      </c>
+      <c r="C163" s="26">
+        <v>2</v>
+      </c>
+      <c r="D163" s="26">
+        <v>10</v>
       </c>
       <c r="E163" s="26">
         <v>10</v>
@@ -7449,14 +7764,14 @@
       <c r="A164" s="40">
         <v>3</v>
       </c>
-      <c r="B164" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C164" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D164" s="26" t="s">
-        <v>33</v>
+      <c r="B164" s="26">
+        <v>45</v>
+      </c>
+      <c r="C164" s="26">
+        <v>2</v>
+      </c>
+      <c r="D164" s="26">
+        <v>10</v>
       </c>
       <c r="E164" s="26">
         <v>12</v>
@@ -7475,14 +7790,14 @@
       <c r="A165" s="41">
         <v>4</v>
       </c>
-      <c r="B165" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C165" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D165" s="26" t="s">
-        <v>33</v>
+      <c r="B165" s="26">
+        <v>0</v>
+      </c>
+      <c r="C165" s="26">
+        <v>0</v>
+      </c>
+      <c r="D165" s="26">
+        <v>0</v>
       </c>
       <c r="E165" s="26">
         <v>20</v>
@@ -7501,14 +7816,14 @@
       <c r="A166" s="41">
         <v>5</v>
       </c>
-      <c r="B166" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C166" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D166" s="26" t="s">
-        <v>33</v>
+      <c r="B166" s="26">
+        <v>0</v>
+      </c>
+      <c r="C166" s="26">
+        <v>0</v>
+      </c>
+      <c r="D166" s="26">
+        <v>0</v>
       </c>
       <c r="E166" s="26">
         <v>30</v>
@@ -7527,14 +7842,14 @@
       <c r="A167" s="41">
         <v>6</v>
       </c>
-      <c r="B167" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C167" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D167" s="26" t="s">
-        <v>33</v>
+      <c r="B167" s="26">
+        <v>0</v>
+      </c>
+      <c r="C167" s="26">
+        <v>0</v>
+      </c>
+      <c r="D167" s="26">
+        <v>0</v>
       </c>
       <c r="E167" s="26">
         <v>40</v>
@@ -7553,14 +7868,14 @@
       <c r="A168" s="41">
         <v>7</v>
       </c>
-      <c r="B168" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C168" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D168" s="26" t="s">
-        <v>33</v>
+      <c r="B168" s="26">
+        <v>0</v>
+      </c>
+      <c r="C168" s="26">
+        <v>0</v>
+      </c>
+      <c r="D168" s="26">
+        <v>0</v>
       </c>
       <c r="E168" s="26">
         <v>0</v>
@@ -7579,14 +7894,14 @@
       <c r="A169" s="41">
         <v>8</v>
       </c>
-      <c r="B169" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C169" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D169" s="26" t="s">
-        <v>33</v>
+      <c r="B169" s="26">
+        <v>0</v>
+      </c>
+      <c r="C169" s="26">
+        <v>0</v>
+      </c>
+      <c r="D169" s="26">
+        <v>0</v>
       </c>
       <c r="E169" s="26">
         <v>0</v>
@@ -7605,14 +7920,14 @@
       <c r="A170" s="41">
         <v>9</v>
       </c>
-      <c r="B170" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C170" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D170" s="26" t="s">
-        <v>33</v>
+      <c r="B170" s="26">
+        <v>0</v>
+      </c>
+      <c r="C170" s="26">
+        <v>0</v>
+      </c>
+      <c r="D170" s="26">
+        <v>0</v>
       </c>
       <c r="E170" s="26">
         <v>0</v>
@@ -7631,14 +7946,14 @@
       <c r="A171" s="42">
         <v>10</v>
       </c>
-      <c r="B171" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="C171" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="D171" s="43" t="s">
-        <v>33</v>
+      <c r="B171" s="26">
+        <v>0</v>
+      </c>
+      <c r="C171" s="26">
+        <v>0</v>
+      </c>
+      <c r="D171" s="26">
+        <v>0</v>
       </c>
       <c r="E171" s="43">
         <v>0</v>
@@ -7826,7 +8141,7 @@
         <v>37</v>
       </c>
       <c r="B181" s="26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C181" s="8"/>
       <c r="D181" s="8"/>
@@ -7849,8 +8164,8 @@
       <c r="A182" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B182" s="26" t="s">
-        <v>33</v>
+      <c r="B182" s="26">
+        <v>2</v>
       </c>
       <c r="C182" s="8"/>
       <c r="D182" s="8"/>
@@ -7921,14 +8236,14 @@
       <c r="A185" s="40">
         <v>1</v>
       </c>
-      <c r="B185" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C185" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D185" s="26" t="s">
-        <v>33</v>
+      <c r="B185" s="26">
+        <v>10</v>
+      </c>
+      <c r="C185" s="26">
+        <v>2</v>
+      </c>
+      <c r="D185" s="26">
+        <v>10</v>
       </c>
       <c r="E185" s="26">
         <v>5</v>
@@ -7947,14 +8262,14 @@
       <c r="A186" s="40">
         <v>2</v>
       </c>
-      <c r="B186" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C186" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D186" s="26" t="s">
-        <v>33</v>
+      <c r="B186" s="26">
+        <v>30</v>
+      </c>
+      <c r="C186" s="26">
+        <v>2</v>
+      </c>
+      <c r="D186" s="26">
+        <v>10</v>
       </c>
       <c r="E186" s="26">
         <v>10</v>
@@ -7973,14 +8288,14 @@
       <c r="A187" s="40">
         <v>3</v>
       </c>
-      <c r="B187" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C187" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D187" s="26" t="s">
-        <v>33</v>
+      <c r="B187" s="26">
+        <v>45</v>
+      </c>
+      <c r="C187" s="26">
+        <v>2</v>
+      </c>
+      <c r="D187" s="26">
+        <v>10</v>
       </c>
       <c r="E187" s="26">
         <v>12</v>
@@ -7999,14 +8314,14 @@
       <c r="A188" s="41">
         <v>4</v>
       </c>
-      <c r="B188" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C188" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D188" s="26" t="s">
-        <v>33</v>
+      <c r="B188" s="26">
+        <v>0</v>
+      </c>
+      <c r="C188" s="26">
+        <v>0</v>
+      </c>
+      <c r="D188" s="26">
+        <v>0</v>
       </c>
       <c r="E188" s="26">
         <v>20</v>
@@ -8025,14 +8340,14 @@
       <c r="A189" s="41">
         <v>5</v>
       </c>
-      <c r="B189" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C189" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D189" s="26" t="s">
-        <v>33</v>
+      <c r="B189" s="26">
+        <v>0</v>
+      </c>
+      <c r="C189" s="26">
+        <v>0</v>
+      </c>
+      <c r="D189" s="26">
+        <v>0</v>
       </c>
       <c r="E189" s="26">
         <v>30</v>
@@ -8051,14 +8366,14 @@
       <c r="A190" s="41">
         <v>6</v>
       </c>
-      <c r="B190" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C190" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D190" s="26" t="s">
-        <v>33</v>
+      <c r="B190" s="26">
+        <v>0</v>
+      </c>
+      <c r="C190" s="26">
+        <v>0</v>
+      </c>
+      <c r="D190" s="26">
+        <v>0</v>
       </c>
       <c r="E190" s="26">
         <v>40</v>
@@ -8077,14 +8392,14 @@
       <c r="A191" s="41">
         <v>7</v>
       </c>
-      <c r="B191" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C191" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D191" s="26" t="s">
-        <v>33</v>
+      <c r="B191" s="26">
+        <v>0</v>
+      </c>
+      <c r="C191" s="26">
+        <v>0</v>
+      </c>
+      <c r="D191" s="26">
+        <v>0</v>
       </c>
       <c r="E191" s="26">
         <v>0</v>
@@ -8103,14 +8418,14 @@
       <c r="A192" s="41">
         <v>8</v>
       </c>
-      <c r="B192" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C192" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D192" s="26" t="s">
-        <v>33</v>
+      <c r="B192" s="26">
+        <v>0</v>
+      </c>
+      <c r="C192" s="26">
+        <v>0</v>
+      </c>
+      <c r="D192" s="26">
+        <v>0</v>
       </c>
       <c r="E192" s="26">
         <v>0</v>
@@ -8129,14 +8444,14 @@
       <c r="A193" s="41">
         <v>9</v>
       </c>
-      <c r="B193" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C193" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D193" s="26" t="s">
-        <v>33</v>
+      <c r="B193" s="26">
+        <v>0</v>
+      </c>
+      <c r="C193" s="26">
+        <v>0</v>
+      </c>
+      <c r="D193" s="26">
+        <v>0</v>
       </c>
       <c r="E193" s="26">
         <v>0</v>
@@ -8155,14 +8470,14 @@
       <c r="A194" s="42">
         <v>10</v>
       </c>
-      <c r="B194" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="C194" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="D194" s="43" t="s">
-        <v>33</v>
+      <c r="B194" s="26">
+        <v>0</v>
+      </c>
+      <c r="C194" s="26">
+        <v>0</v>
+      </c>
+      <c r="D194" s="26">
+        <v>0</v>
       </c>
       <c r="E194" s="43">
         <v>0</v>
@@ -8180,91 +8495,546 @@
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L195" s="5"/>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L196" s="5"/>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A197" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B197" s="16"/>
+      <c r="C197" s="16"/>
+      <c r="D197" s="16"/>
+      <c r="E197" s="16"/>
+      <c r="F197" s="16"/>
+      <c r="G197" s="16"/>
+      <c r="H197" s="17"/>
+      <c r="I197" s="17"/>
+      <c r="J197" s="17"/>
+      <c r="K197" s="18"/>
       <c r="L197" s="5"/>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A198" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B198" s="20"/>
+      <c r="C198" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D198" s="13"/>
+      <c r="E198" s="13"/>
+      <c r="F198" s="13"/>
+      <c r="G198" s="13"/>
+      <c r="H198" s="8"/>
+      <c r="I198" s="8"/>
+      <c r="J198" s="8"/>
+      <c r="K198" s="21"/>
       <c r="L198" s="5"/>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A199" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B199" s="13"/>
+      <c r="C199" s="22">
+        <v>0</v>
+      </c>
+      <c r="D199" s="13"/>
+      <c r="E199" s="13"/>
+      <c r="F199" s="13"/>
+      <c r="G199" s="13"/>
+      <c r="H199" s="8"/>
+      <c r="I199" s="8"/>
+      <c r="J199" s="8"/>
+      <c r="K199" s="21"/>
       <c r="L199" s="5"/>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A200" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B200" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C200" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D200" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E200" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F200" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G200" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H200" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I200" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J200" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="K200" s="24" t="s">
+        <v>32</v>
+      </c>
       <c r="L200" s="5"/>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A201" s="25">
+        <v>4</v>
+      </c>
+      <c r="B201" s="26">
+        <v>1980</v>
+      </c>
+      <c r="C201" s="26">
+        <v>1</v>
+      </c>
+      <c r="D201" s="47">
+        <v>67</v>
+      </c>
+      <c r="E201" s="26">
+        <v>288</v>
+      </c>
+      <c r="F201" s="26">
+        <v>20</v>
+      </c>
+      <c r="G201" s="26">
+        <v>280</v>
+      </c>
+      <c r="H201" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I201" s="26">
+        <v>0.21</v>
+      </c>
+      <c r="J201" s="26">
+        <v>30</v>
+      </c>
+      <c r="K201" s="27">
+        <v>1.7658476878487881</v>
+      </c>
       <c r="L201" s="5"/>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A202" s="28"/>
+      <c r="B202" s="13"/>
+      <c r="C202" s="13"/>
+      <c r="D202" s="13"/>
+      <c r="E202" s="13"/>
+      <c r="F202" s="13"/>
+      <c r="G202" s="13"/>
+      <c r="H202" s="8"/>
+      <c r="I202" s="8"/>
+      <c r="J202" s="8"/>
+      <c r="K202" s="21"/>
       <c r="L202" s="5"/>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A203" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B203" s="26">
+        <v>2</v>
+      </c>
+      <c r="C203" s="30"/>
+      <c r="D203" s="8"/>
+      <c r="E203" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F203" s="26">
+        <v>2</v>
+      </c>
+      <c r="G203" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H203" s="8"/>
+      <c r="I203" s="8"/>
+      <c r="J203" s="8"/>
+      <c r="K203" s="21"/>
       <c r="L203" s="5"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A204" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B204" s="26">
+        <v>3</v>
+      </c>
+      <c r="C204" s="8"/>
+      <c r="D204" s="8"/>
+      <c r="E204" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F204" s="26">
+        <v>0</v>
+      </c>
+      <c r="G204" s="26">
+        <v>0</v>
+      </c>
+      <c r="H204" s="8"/>
+      <c r="I204" s="8"/>
+      <c r="J204" s="8"/>
+      <c r="K204" s="21"/>
       <c r="L204" s="5"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A205" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B205" s="26">
+        <v>2</v>
+      </c>
+      <c r="C205" s="8"/>
+      <c r="D205" s="8"/>
+      <c r="E205" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F205" s="26">
+        <v>0</v>
+      </c>
+      <c r="G205" s="30"/>
+      <c r="H205" s="8"/>
+      <c r="I205" s="8"/>
+      <c r="J205" s="8"/>
+      <c r="K205" s="21"/>
       <c r="L205" s="5"/>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A206" s="35"/>
+      <c r="B206" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C206" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D206" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E206" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F206" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G206" s="38"/>
+      <c r="H206" s="8"/>
+      <c r="I206" s="8"/>
+      <c r="J206" s="8"/>
+      <c r="K206" s="21"/>
       <c r="L206" s="5"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A207" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B207" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C207" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D207" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E207" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F207" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G207" s="38"/>
+      <c r="H207" s="8"/>
+      <c r="I207" s="48"/>
+      <c r="J207" s="8"/>
+      <c r="K207" s="21"/>
       <c r="L207" s="5"/>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A208" s="40">
+        <v>1</v>
+      </c>
+      <c r="B208" s="26">
+        <v>10</v>
+      </c>
+      <c r="C208" s="26">
+        <v>2</v>
+      </c>
+      <c r="D208" s="26">
+        <v>10</v>
+      </c>
+      <c r="E208" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F208" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G208" s="13"/>
+      <c r="H208" s="8"/>
+      <c r="I208" s="8"/>
+      <c r="J208" s="8"/>
+      <c r="K208" s="21"/>
       <c r="L208" s="5"/>
     </row>
-    <row r="209" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A209" s="40">
+        <v>2</v>
+      </c>
+      <c r="B209" s="26">
+        <v>30</v>
+      </c>
+      <c r="C209" s="26">
+        <v>2</v>
+      </c>
+      <c r="D209" s="26">
+        <v>10</v>
+      </c>
+      <c r="E209" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F209" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G209" s="13"/>
+      <c r="H209" s="8"/>
+      <c r="I209" s="8"/>
+      <c r="J209" s="8"/>
+      <c r="K209" s="21"/>
       <c r="L209" s="5"/>
     </row>
-    <row r="210" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A210" s="40">
+        <v>3</v>
+      </c>
+      <c r="B210" s="26">
+        <v>45</v>
+      </c>
+      <c r="C210" s="26">
+        <v>2</v>
+      </c>
+      <c r="D210" s="26">
+        <v>10</v>
+      </c>
+      <c r="E210" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F210" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G210" s="13"/>
+      <c r="H210" s="8"/>
+      <c r="I210" s="8"/>
+      <c r="J210" s="8"/>
+      <c r="K210" s="21"/>
       <c r="L210" s="5"/>
     </row>
-    <row r="211" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A211" s="41">
+        <v>4</v>
+      </c>
+      <c r="B211" s="26">
+        <v>0</v>
+      </c>
+      <c r="C211" s="26">
+        <v>0</v>
+      </c>
+      <c r="D211" s="26">
+        <v>0</v>
+      </c>
+      <c r="E211" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F211" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G211" s="13"/>
+      <c r="H211" s="8"/>
+      <c r="I211" s="8"/>
+      <c r="J211" s="8"/>
+      <c r="K211" s="21"/>
       <c r="L211" s="5"/>
     </row>
-    <row r="212" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A212" s="41">
+        <v>5</v>
+      </c>
+      <c r="B212" s="26">
+        <v>0</v>
+      </c>
+      <c r="C212" s="26">
+        <v>0</v>
+      </c>
+      <c r="D212" s="26">
+        <v>0</v>
+      </c>
+      <c r="E212" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F212" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G212" s="13"/>
+      <c r="H212" s="8"/>
+      <c r="I212" s="8"/>
+      <c r="J212" s="8"/>
+      <c r="K212" s="21"/>
       <c r="L212" s="5"/>
     </row>
-    <row r="213" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A213" s="41">
+        <v>6</v>
+      </c>
+      <c r="B213" s="26">
+        <v>0</v>
+      </c>
+      <c r="C213" s="26">
+        <v>0</v>
+      </c>
+      <c r="D213" s="26">
+        <v>0</v>
+      </c>
+      <c r="E213" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F213" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G213" s="13"/>
+      <c r="H213" s="8"/>
+      <c r="I213" s="8"/>
+      <c r="J213" s="8"/>
+      <c r="K213" s="21"/>
       <c r="L213" s="5"/>
     </row>
-    <row r="214" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A214" s="41">
+        <v>7</v>
+      </c>
+      <c r="B214" s="26">
+        <v>0</v>
+      </c>
+      <c r="C214" s="26">
+        <v>0</v>
+      </c>
+      <c r="D214" s="26">
+        <v>0</v>
+      </c>
+      <c r="E214" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F214" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G214" s="13"/>
+      <c r="H214" s="8"/>
+      <c r="I214" s="8"/>
+      <c r="J214" s="8"/>
+      <c r="K214" s="21"/>
       <c r="L214" s="5"/>
     </row>
-    <row r="215" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A215" s="41">
+        <v>8</v>
+      </c>
+      <c r="B215" s="26">
+        <v>0</v>
+      </c>
+      <c r="C215" s="26">
+        <v>0</v>
+      </c>
+      <c r="D215" s="26">
+        <v>0</v>
+      </c>
+      <c r="E215" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F215" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G215" s="13"/>
+      <c r="H215" s="8"/>
+      <c r="I215" s="8"/>
+      <c r="J215" s="8"/>
+      <c r="K215" s="21"/>
       <c r="L215" s="5"/>
     </row>
-    <row r="216" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A216" s="41">
+        <v>9</v>
+      </c>
+      <c r="B216" s="26">
+        <v>0</v>
+      </c>
+      <c r="C216" s="26">
+        <v>0</v>
+      </c>
+      <c r="D216" s="26">
+        <v>0</v>
+      </c>
+      <c r="E216" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F216" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G216" s="13"/>
+      <c r="H216" s="8"/>
+      <c r="I216" s="8"/>
+      <c r="J216" s="8"/>
+      <c r="K216" s="21"/>
       <c r="L216" s="5"/>
     </row>
-    <row r="217" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="42">
+        <v>10</v>
+      </c>
+      <c r="B217" s="26">
+        <v>0</v>
+      </c>
+      <c r="C217" s="26">
+        <v>0</v>
+      </c>
+      <c r="D217" s="26">
+        <v>0</v>
+      </c>
+      <c r="E217" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F217" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G217" s="44"/>
+      <c r="H217" s="45"/>
+      <c r="I217" s="45"/>
+      <c r="J217" s="45"/>
+      <c r="K217" s="46"/>
       <c r="L217" s="5"/>
     </row>
-    <row r="218" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L218" s="5"/>
     </row>
-    <row r="219" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L219" s="5"/>
     </row>
-    <row r="220" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L220" s="5"/>
     </row>
-    <row r="221" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L221" s="5"/>
     </row>
-    <row r="222" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L222" s="5"/>
     </row>
-    <row r="223" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L223" s="5"/>
     </row>
-    <row r="224" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L224" s="5"/>
     </row>
     <row r="225" spans="12:12" x14ac:dyDescent="0.25">

--- a/input/managementPlans.xlsx
+++ b/input/managementPlans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achille\Documents\GitHub\SSM.R\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C8EA0D-7FEB-48EF-8C20-26437133A5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78D6DF3-7116-46FA-B267-182E8BA28A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="Diameter">[1]Run!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2360,12 +2360,315 @@
         </r>
       </text>
     </comment>
+    <comment ref="A200" authorId="0" shapeId="0" xr:uid="{6E16B265-E8DC-4F1E-862C-229500278AFD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Fixed sowing date. 
+1 - Sow in the 5th day of a 5-day rainfree period.
+2 - Sow in the 5th day  of a 5-day rainfree period + average temp &gt; SowTmp.
+3 - Sow in the 5th day  of a 5-day rainfree period + average temp &lt; SowTmp.
+4 - Sow when FTSW1 &gt; SowWat. 
+5 - Sow when FTSW1 &lt; SowWat. 
+6 - Sow when cumulative rainfall over a 5-day period &gt; SowWat. 
+7 - Sow when soil profile ATSW &gt; SowWat. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D200" authorId="0" shapeId="0" xr:uid="{B08E754E-8C99-4A21-85EF-872BEC69FBD7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Start simulation DOY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E200" authorId="0" shapeId="0" xr:uid="{4B955ECF-4E39-404D-A3E8-504C42BF1A79}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sowing date for FixFind=0, or beginning of sowing window</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F200" authorId="0" shapeId="0" xr:uid="{4CCF4E9C-E42A-46ED-9FA8-2000F8827F53}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Specifies the DOY of the end of sowing window</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G200" authorId="1" shapeId="0" xr:uid="{44F74DBD-2195-4E0A-BE1B-73AC1BA5F846}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Afshin Soltani:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DOY when crop must be harvested even pre-maturely</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H200" authorId="0" shapeId="0" xr:uid="{373C076A-5221-4307-A6E3-4949C984B845}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sowing temperature </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I200" authorId="0" shapeId="0" xr:uid="{DE57EA7A-82F4-45ED-8A07-4223225EEFB9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Soil profile (not top layer) ATSW that allows sowing.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I201" authorId="2" shapeId="0" xr:uid="{33F2FA31-4750-4F07-96EC-9DCE8E6E3FAF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marie Gosme:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+was 0.3, I'm just trying to see if this level can be reached a few days after simustart</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A203" authorId="0" shapeId="0" xr:uid="{89C9C2A5-93A0-4631-8F39-8CEBB948F842}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+N application scenario: 
+0=non-N-limited conditions, 
+2=N-limited conditions.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E203" authorId="0" shapeId="0" xr:uid="{0EE82C85-C095-4CD8-AB63-0571CF238A3C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Water application scenario:
+0=potential production, 1=automated irrigated, 2=rainfed, 
+3=fixed irrigated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A205" authorId="0" shapeId="0" xr:uid="{A714FB6C-A2C9-4551-B628-909713BA2824}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1=DAP, 
+2=CBD, 
+3=DOY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E205" authorId="0" shapeId="0" xr:uid="{3FC61E12-137F-46AF-8B34-46FC331E06CE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1=DAP, 
+2=CBD, 
+3=DOY</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="60">
   <si>
     <t>water = 0   for potential production</t>
   </si>
@@ -2542,6 +2845,9 @@
   </si>
   <si>
     <t>essai_bidon_irrigation_CBDautoAmount</t>
+  </si>
+  <si>
+    <t>achille_rainfed_3N</t>
   </si>
 </sst>
 </file>
@@ -3373,8 +3679,8 @@
   <dimension ref="A1:X3956"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D187" sqref="B185:D187"/>
+      <pane ySplit="10" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A199" sqref="A199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -8189,91 +8495,546 @@
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L195" s="5"/>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L196" s="5"/>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A197" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B197" s="16"/>
+      <c r="C197" s="16"/>
+      <c r="D197" s="16"/>
+      <c r="E197" s="16"/>
+      <c r="F197" s="16"/>
+      <c r="G197" s="16"/>
+      <c r="H197" s="17"/>
+      <c r="I197" s="17"/>
+      <c r="J197" s="17"/>
+      <c r="K197" s="18"/>
       <c r="L197" s="5"/>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A198" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B198" s="20"/>
+      <c r="C198" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D198" s="13"/>
+      <c r="E198" s="13"/>
+      <c r="F198" s="13"/>
+      <c r="G198" s="13"/>
+      <c r="H198" s="8"/>
+      <c r="I198" s="8"/>
+      <c r="J198" s="8"/>
+      <c r="K198" s="21"/>
       <c r="L198" s="5"/>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A199" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B199" s="13"/>
+      <c r="C199" s="22">
+        <v>0</v>
+      </c>
+      <c r="D199" s="13"/>
+      <c r="E199" s="13"/>
+      <c r="F199" s="13"/>
+      <c r="G199" s="13"/>
+      <c r="H199" s="8"/>
+      <c r="I199" s="8"/>
+      <c r="J199" s="8"/>
+      <c r="K199" s="21"/>
       <c r="L199" s="5"/>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A200" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B200" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C200" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D200" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E200" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F200" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G200" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H200" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I200" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J200" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="K200" s="24" t="s">
+        <v>32</v>
+      </c>
       <c r="L200" s="5"/>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A201" s="25">
+        <v>4</v>
+      </c>
+      <c r="B201" s="26">
+        <v>1980</v>
+      </c>
+      <c r="C201" s="26">
+        <v>1</v>
+      </c>
+      <c r="D201" s="47">
+        <v>67</v>
+      </c>
+      <c r="E201" s="26">
+        <v>288</v>
+      </c>
+      <c r="F201" s="26">
+        <v>20</v>
+      </c>
+      <c r="G201" s="26">
+        <v>280</v>
+      </c>
+      <c r="H201" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I201" s="26">
+        <v>0.21</v>
+      </c>
+      <c r="J201" s="26">
+        <v>30</v>
+      </c>
+      <c r="K201" s="27">
+        <v>1.7658476878487881</v>
+      </c>
       <c r="L201" s="5"/>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A202" s="28"/>
+      <c r="B202" s="13"/>
+      <c r="C202" s="13"/>
+      <c r="D202" s="13"/>
+      <c r="E202" s="13"/>
+      <c r="F202" s="13"/>
+      <c r="G202" s="13"/>
+      <c r="H202" s="8"/>
+      <c r="I202" s="8"/>
+      <c r="J202" s="8"/>
+      <c r="K202" s="21"/>
       <c r="L202" s="5"/>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A203" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B203" s="26">
+        <v>2</v>
+      </c>
+      <c r="C203" s="30"/>
+      <c r="D203" s="8"/>
+      <c r="E203" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F203" s="26">
+        <v>2</v>
+      </c>
+      <c r="G203" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H203" s="8"/>
+      <c r="I203" s="8"/>
+      <c r="J203" s="8"/>
+      <c r="K203" s="21"/>
       <c r="L203" s="5"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A204" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B204" s="26">
+        <v>3</v>
+      </c>
+      <c r="C204" s="8"/>
+      <c r="D204" s="8"/>
+      <c r="E204" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F204" s="26">
+        <v>0</v>
+      </c>
+      <c r="G204" s="26">
+        <v>0</v>
+      </c>
+      <c r="H204" s="8"/>
+      <c r="I204" s="8"/>
+      <c r="J204" s="8"/>
+      <c r="K204" s="21"/>
       <c r="L204" s="5"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A205" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B205" s="26">
+        <v>2</v>
+      </c>
+      <c r="C205" s="8"/>
+      <c r="D205" s="8"/>
+      <c r="E205" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F205" s="26">
+        <v>0</v>
+      </c>
+      <c r="G205" s="30"/>
+      <c r="H205" s="8"/>
+      <c r="I205" s="8"/>
+      <c r="J205" s="8"/>
+      <c r="K205" s="21"/>
       <c r="L205" s="5"/>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A206" s="35"/>
+      <c r="B206" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C206" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D206" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E206" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F206" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G206" s="38"/>
+      <c r="H206" s="8"/>
+      <c r="I206" s="8"/>
+      <c r="J206" s="8"/>
+      <c r="K206" s="21"/>
       <c r="L206" s="5"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A207" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B207" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C207" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D207" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E207" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F207" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G207" s="38"/>
+      <c r="H207" s="8"/>
+      <c r="I207" s="48"/>
+      <c r="J207" s="8"/>
+      <c r="K207" s="21"/>
       <c r="L207" s="5"/>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A208" s="40">
+        <v>1</v>
+      </c>
+      <c r="B208" s="26">
+        <v>10</v>
+      </c>
+      <c r="C208" s="26">
+        <v>2</v>
+      </c>
+      <c r="D208" s="26">
+        <v>10</v>
+      </c>
+      <c r="E208" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F208" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G208" s="13"/>
+      <c r="H208" s="8"/>
+      <c r="I208" s="8"/>
+      <c r="J208" s="8"/>
+      <c r="K208" s="21"/>
       <c r="L208" s="5"/>
     </row>
-    <row r="209" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A209" s="40">
+        <v>2</v>
+      </c>
+      <c r="B209" s="26">
+        <v>30</v>
+      </c>
+      <c r="C209" s="26">
+        <v>2</v>
+      </c>
+      <c r="D209" s="26">
+        <v>10</v>
+      </c>
+      <c r="E209" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F209" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G209" s="13"/>
+      <c r="H209" s="8"/>
+      <c r="I209" s="8"/>
+      <c r="J209" s="8"/>
+      <c r="K209" s="21"/>
       <c r="L209" s="5"/>
     </row>
-    <row r="210" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A210" s="40">
+        <v>3</v>
+      </c>
+      <c r="B210" s="26">
+        <v>45</v>
+      </c>
+      <c r="C210" s="26">
+        <v>2</v>
+      </c>
+      <c r="D210" s="26">
+        <v>10</v>
+      </c>
+      <c r="E210" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F210" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G210" s="13"/>
+      <c r="H210" s="8"/>
+      <c r="I210" s="8"/>
+      <c r="J210" s="8"/>
+      <c r="K210" s="21"/>
       <c r="L210" s="5"/>
     </row>
-    <row r="211" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A211" s="41">
+        <v>4</v>
+      </c>
+      <c r="B211" s="26">
+        <v>0</v>
+      </c>
+      <c r="C211" s="26">
+        <v>0</v>
+      </c>
+      <c r="D211" s="26">
+        <v>0</v>
+      </c>
+      <c r="E211" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F211" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G211" s="13"/>
+      <c r="H211" s="8"/>
+      <c r="I211" s="8"/>
+      <c r="J211" s="8"/>
+      <c r="K211" s="21"/>
       <c r="L211" s="5"/>
     </row>
-    <row r="212" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A212" s="41">
+        <v>5</v>
+      </c>
+      <c r="B212" s="26">
+        <v>0</v>
+      </c>
+      <c r="C212" s="26">
+        <v>0</v>
+      </c>
+      <c r="D212" s="26">
+        <v>0</v>
+      </c>
+      <c r="E212" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F212" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G212" s="13"/>
+      <c r="H212" s="8"/>
+      <c r="I212" s="8"/>
+      <c r="J212" s="8"/>
+      <c r="K212" s="21"/>
       <c r="L212" s="5"/>
     </row>
-    <row r="213" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A213" s="41">
+        <v>6</v>
+      </c>
+      <c r="B213" s="26">
+        <v>0</v>
+      </c>
+      <c r="C213" s="26">
+        <v>0</v>
+      </c>
+      <c r="D213" s="26">
+        <v>0</v>
+      </c>
+      <c r="E213" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F213" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G213" s="13"/>
+      <c r="H213" s="8"/>
+      <c r="I213" s="8"/>
+      <c r="J213" s="8"/>
+      <c r="K213" s="21"/>
       <c r="L213" s="5"/>
     </row>
-    <row r="214" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A214" s="41">
+        <v>7</v>
+      </c>
+      <c r="B214" s="26">
+        <v>0</v>
+      </c>
+      <c r="C214" s="26">
+        <v>0</v>
+      </c>
+      <c r="D214" s="26">
+        <v>0</v>
+      </c>
+      <c r="E214" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F214" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G214" s="13"/>
+      <c r="H214" s="8"/>
+      <c r="I214" s="8"/>
+      <c r="J214" s="8"/>
+      <c r="K214" s="21"/>
       <c r="L214" s="5"/>
     </row>
-    <row r="215" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A215" s="41">
+        <v>8</v>
+      </c>
+      <c r="B215" s="26">
+        <v>0</v>
+      </c>
+      <c r="C215" s="26">
+        <v>0</v>
+      </c>
+      <c r="D215" s="26">
+        <v>0</v>
+      </c>
+      <c r="E215" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F215" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G215" s="13"/>
+      <c r="H215" s="8"/>
+      <c r="I215" s="8"/>
+      <c r="J215" s="8"/>
+      <c r="K215" s="21"/>
       <c r="L215" s="5"/>
     </row>
-    <row r="216" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A216" s="41">
+        <v>9</v>
+      </c>
+      <c r="B216" s="26">
+        <v>0</v>
+      </c>
+      <c r="C216" s="26">
+        <v>0</v>
+      </c>
+      <c r="D216" s="26">
+        <v>0</v>
+      </c>
+      <c r="E216" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F216" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G216" s="13"/>
+      <c r="H216" s="8"/>
+      <c r="I216" s="8"/>
+      <c r="J216" s="8"/>
+      <c r="K216" s="21"/>
       <c r="L216" s="5"/>
     </row>
-    <row r="217" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="42">
+        <v>10</v>
+      </c>
+      <c r="B217" s="26">
+        <v>0</v>
+      </c>
+      <c r="C217" s="26">
+        <v>0</v>
+      </c>
+      <c r="D217" s="26">
+        <v>0</v>
+      </c>
+      <c r="E217" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F217" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G217" s="44"/>
+      <c r="H217" s="45"/>
+      <c r="I217" s="45"/>
+      <c r="J217" s="45"/>
+      <c r="K217" s="46"/>
       <c r="L217" s="5"/>
     </row>
-    <row r="218" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L218" s="5"/>
     </row>
-    <row r="219" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L219" s="5"/>
     </row>
-    <row r="220" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L220" s="5"/>
     </row>
-    <row r="221" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L221" s="5"/>
     </row>
-    <row r="222" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L222" s="5"/>
     </row>
-    <row r="223" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L223" s="5"/>
     </row>
-    <row r="224" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L224" s="5"/>
     </row>
     <row r="225" spans="12:12" x14ac:dyDescent="0.25">

--- a/input/managementPlans.xlsx
+++ b/input/managementPlans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achille\Documents\GitHub\SSM.R\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78D6DF3-7116-46FA-B267-182E8BA28A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C8EA0D-7FEB-48EF-8C20-26437133A5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="Diameter">[1]Run!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2360,315 +2360,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="A200" authorId="0" shapeId="0" xr:uid="{6E16B265-E8DC-4F1E-862C-229500278AFD}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>afshin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-0 - Fixed sowing date. 
-1 - Sow in the 5th day of a 5-day rainfree period.
-2 - Sow in the 5th day  of a 5-day rainfree period + average temp &gt; SowTmp.
-3 - Sow in the 5th day  of a 5-day rainfree period + average temp &lt; SowTmp.
-4 - Sow when FTSW1 &gt; SowWat. 
-5 - Sow when FTSW1 &lt; SowWat. 
-6 - Sow when cumulative rainfall over a 5-day period &gt; SowWat. 
-7 - Sow when soil profile ATSW &gt; SowWat. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D200" authorId="0" shapeId="0" xr:uid="{B08E754E-8C99-4A21-85EF-872BEC69FBD7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>afshin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Start simulation DOY</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E200" authorId="0" shapeId="0" xr:uid="{4B955ECF-4E39-404D-A3E8-504C42BF1A79}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>afshin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Sowing date for FixFind=0, or beginning of sowing window</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F200" authorId="0" shapeId="0" xr:uid="{4CCF4E9C-E42A-46ED-9FA8-2000F8827F53}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>afshin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Specifies the DOY of the end of sowing window</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G200" authorId="1" shapeId="0" xr:uid="{44F74DBD-2195-4E0A-BE1B-73AC1BA5F846}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Afshin Soltani:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-DOY when crop must be harvested even pre-maturely</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H200" authorId="0" shapeId="0" xr:uid="{373C076A-5221-4307-A6E3-4949C984B845}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>afshin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Sowing temperature </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I200" authorId="0" shapeId="0" xr:uid="{DE57EA7A-82F4-45ED-8A07-4223225EEFB9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>afshin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Soil profile (not top layer) ATSW that allows sowing.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I201" authorId="2" shapeId="0" xr:uid="{33F2FA31-4750-4F07-96EC-9DCE8E6E3FAF}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Marie Gosme:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-was 0.3, I'm just trying to see if this level can be reached a few days after simustart</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A203" authorId="0" shapeId="0" xr:uid="{89C9C2A5-93A0-4631-8F39-8CEBB948F842}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>afshin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-N application scenario: 
-0=non-N-limited conditions, 
-2=N-limited conditions.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E203" authorId="0" shapeId="0" xr:uid="{0EE82C85-C095-4CD8-AB63-0571CF238A3C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>afshin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Water application scenario:
-0=potential production, 1=automated irrigated, 2=rainfed, 
-3=fixed irrigated</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A205" authorId="0" shapeId="0" xr:uid="{A714FB6C-A2C9-4551-B628-909713BA2824}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>afshin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-1=DAP, 
-2=CBD, 
-3=DOY</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E205" authorId="0" shapeId="0" xr:uid="{3FC61E12-137F-46AF-8B34-46FC331E06CE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>afshin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-1=DAP, 
-2=CBD, 
-3=DOY</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="59">
   <si>
     <t>water = 0   for potential production</t>
   </si>
@@ -2845,9 +2542,6 @@
   </si>
   <si>
     <t>essai_bidon_irrigation_CBDautoAmount</t>
-  </si>
-  <si>
-    <t>achille_rainfed_3N</t>
   </si>
 </sst>
 </file>
@@ -3679,8 +3373,8 @@
   <dimension ref="A1:X3956"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A199" sqref="A199"/>
+      <pane ySplit="10" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D187" sqref="B185:D187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -8495,546 +8189,91 @@
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L195" s="5"/>
     </row>
-    <row r="196" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L196" s="5"/>
     </row>
-    <row r="197" spans="1:12" ht="13" x14ac:dyDescent="0.3">
-      <c r="A197" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B197" s="16"/>
-      <c r="C197" s="16"/>
-      <c r="D197" s="16"/>
-      <c r="E197" s="16"/>
-      <c r="F197" s="16"/>
-      <c r="G197" s="16"/>
-      <c r="H197" s="17"/>
-      <c r="I197" s="17"/>
-      <c r="J197" s="17"/>
-      <c r="K197" s="18"/>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L197" s="5"/>
     </row>
-    <row r="198" spans="1:12" ht="13" x14ac:dyDescent="0.3">
-      <c r="A198" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B198" s="20"/>
-      <c r="C198" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D198" s="13"/>
-      <c r="E198" s="13"/>
-      <c r="F198" s="13"/>
-      <c r="G198" s="13"/>
-      <c r="H198" s="8"/>
-      <c r="I198" s="8"/>
-      <c r="J198" s="8"/>
-      <c r="K198" s="21"/>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L198" s="5"/>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A199" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="B199" s="13"/>
-      <c r="C199" s="22">
-        <v>0</v>
-      </c>
-      <c r="D199" s="13"/>
-      <c r="E199" s="13"/>
-      <c r="F199" s="13"/>
-      <c r="G199" s="13"/>
-      <c r="H199" s="8"/>
-      <c r="I199" s="8"/>
-      <c r="J199" s="8"/>
-      <c r="K199" s="21"/>
       <c r="L199" s="5"/>
     </row>
-    <row r="200" spans="1:12" ht="13" x14ac:dyDescent="0.3">
-      <c r="A200" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B200" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C200" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D200" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E200" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F200" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G200" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H200" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="I200" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="J200" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="K200" s="24" t="s">
-        <v>32</v>
-      </c>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L200" s="5"/>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A201" s="25">
-        <v>4</v>
-      </c>
-      <c r="B201" s="26">
-        <v>1980</v>
-      </c>
-      <c r="C201" s="26">
-        <v>1</v>
-      </c>
-      <c r="D201" s="47">
-        <v>67</v>
-      </c>
-      <c r="E201" s="26">
-        <v>288</v>
-      </c>
-      <c r="F201" s="26">
-        <v>20</v>
-      </c>
-      <c r="G201" s="26">
-        <v>280</v>
-      </c>
-      <c r="H201" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="I201" s="26">
-        <v>0.21</v>
-      </c>
-      <c r="J201" s="26">
-        <v>30</v>
-      </c>
-      <c r="K201" s="27">
-        <v>1.7658476878487881</v>
-      </c>
       <c r="L201" s="5"/>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A202" s="28"/>
-      <c r="B202" s="13"/>
-      <c r="C202" s="13"/>
-      <c r="D202" s="13"/>
-      <c r="E202" s="13"/>
-      <c r="F202" s="13"/>
-      <c r="G202" s="13"/>
-      <c r="H202" s="8"/>
-      <c r="I202" s="8"/>
-      <c r="J202" s="8"/>
-      <c r="K202" s="21"/>
       <c r="L202" s="5"/>
     </row>
-    <row r="203" spans="1:12" ht="13" x14ac:dyDescent="0.3">
-      <c r="A203" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B203" s="26">
-        <v>2</v>
-      </c>
-      <c r="C203" s="30"/>
-      <c r="D203" s="8"/>
-      <c r="E203" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="F203" s="26">
-        <v>2</v>
-      </c>
-      <c r="G203" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="H203" s="8"/>
-      <c r="I203" s="8"/>
-      <c r="J203" s="8"/>
-      <c r="K203" s="21"/>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L203" s="5"/>
     </row>
-    <row r="204" spans="1:12" ht="13" x14ac:dyDescent="0.3">
-      <c r="A204" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B204" s="26">
-        <v>3</v>
-      </c>
-      <c r="C204" s="8"/>
-      <c r="D204" s="8"/>
-      <c r="E204" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F204" s="26">
-        <v>0</v>
-      </c>
-      <c r="G204" s="26">
-        <v>0</v>
-      </c>
-      <c r="H204" s="8"/>
-      <c r="I204" s="8"/>
-      <c r="J204" s="8"/>
-      <c r="K204" s="21"/>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L204" s="5"/>
     </row>
-    <row r="205" spans="1:12" ht="13" x14ac:dyDescent="0.3">
-      <c r="A205" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B205" s="26">
-        <v>2</v>
-      </c>
-      <c r="C205" s="8"/>
-      <c r="D205" s="8"/>
-      <c r="E205" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F205" s="26">
-        <v>0</v>
-      </c>
-      <c r="G205" s="30"/>
-      <c r="H205" s="8"/>
-      <c r="I205" s="8"/>
-      <c r="J205" s="8"/>
-      <c r="K205" s="21"/>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L205" s="5"/>
     </row>
-    <row r="206" spans="1:12" ht="13" x14ac:dyDescent="0.3">
-      <c r="A206" s="35"/>
-      <c r="B206" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C206" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="D206" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="E206" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="F206" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="G206" s="38"/>
-      <c r="H206" s="8"/>
-      <c r="I206" s="8"/>
-      <c r="J206" s="8"/>
-      <c r="K206" s="21"/>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L206" s="5"/>
     </row>
-    <row r="207" spans="1:12" ht="13" x14ac:dyDescent="0.3">
-      <c r="A207" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B207" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C207" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D207" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="E207" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="F207" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="G207" s="38"/>
-      <c r="H207" s="8"/>
-      <c r="I207" s="48"/>
-      <c r="J207" s="8"/>
-      <c r="K207" s="21"/>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L207" s="5"/>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A208" s="40">
-        <v>1</v>
-      </c>
-      <c r="B208" s="26">
-        <v>10</v>
-      </c>
-      <c r="C208" s="26">
-        <v>2</v>
-      </c>
-      <c r="D208" s="26">
-        <v>10</v>
-      </c>
-      <c r="E208" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F208" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G208" s="13"/>
-      <c r="H208" s="8"/>
-      <c r="I208" s="8"/>
-      <c r="J208" s="8"/>
-      <c r="K208" s="21"/>
       <c r="L208" s="5"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A209" s="40">
-        <v>2</v>
-      </c>
-      <c r="B209" s="26">
-        <v>30</v>
-      </c>
-      <c r="C209" s="26">
-        <v>2</v>
-      </c>
-      <c r="D209" s="26">
-        <v>10</v>
-      </c>
-      <c r="E209" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F209" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G209" s="13"/>
-      <c r="H209" s="8"/>
-      <c r="I209" s="8"/>
-      <c r="J209" s="8"/>
-      <c r="K209" s="21"/>
+    <row r="209" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L209" s="5"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A210" s="40">
-        <v>3</v>
-      </c>
-      <c r="B210" s="26">
-        <v>45</v>
-      </c>
-      <c r="C210" s="26">
-        <v>2</v>
-      </c>
-      <c r="D210" s="26">
-        <v>10</v>
-      </c>
-      <c r="E210" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F210" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G210" s="13"/>
-      <c r="H210" s="8"/>
-      <c r="I210" s="8"/>
-      <c r="J210" s="8"/>
-      <c r="K210" s="21"/>
+    <row r="210" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L210" s="5"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A211" s="41">
-        <v>4</v>
-      </c>
-      <c r="B211" s="26">
-        <v>0</v>
-      </c>
-      <c r="C211" s="26">
-        <v>0</v>
-      </c>
-      <c r="D211" s="26">
-        <v>0</v>
-      </c>
-      <c r="E211" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F211" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G211" s="13"/>
-      <c r="H211" s="8"/>
-      <c r="I211" s="8"/>
-      <c r="J211" s="8"/>
-      <c r="K211" s="21"/>
+    <row r="211" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L211" s="5"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A212" s="41">
-        <v>5</v>
-      </c>
-      <c r="B212" s="26">
-        <v>0</v>
-      </c>
-      <c r="C212" s="26">
-        <v>0</v>
-      </c>
-      <c r="D212" s="26">
-        <v>0</v>
-      </c>
-      <c r="E212" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F212" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G212" s="13"/>
-      <c r="H212" s="8"/>
-      <c r="I212" s="8"/>
-      <c r="J212" s="8"/>
-      <c r="K212" s="21"/>
+    <row r="212" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L212" s="5"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A213" s="41">
-        <v>6</v>
-      </c>
-      <c r="B213" s="26">
-        <v>0</v>
-      </c>
-      <c r="C213" s="26">
-        <v>0</v>
-      </c>
-      <c r="D213" s="26">
-        <v>0</v>
-      </c>
-      <c r="E213" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F213" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G213" s="13"/>
-      <c r="H213" s="8"/>
-      <c r="I213" s="8"/>
-      <c r="J213" s="8"/>
-      <c r="K213" s="21"/>
+    <row r="213" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L213" s="5"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A214" s="41">
-        <v>7</v>
-      </c>
-      <c r="B214" s="26">
-        <v>0</v>
-      </c>
-      <c r="C214" s="26">
-        <v>0</v>
-      </c>
-      <c r="D214" s="26">
-        <v>0</v>
-      </c>
-      <c r="E214" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F214" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G214" s="13"/>
-      <c r="H214" s="8"/>
-      <c r="I214" s="8"/>
-      <c r="J214" s="8"/>
-      <c r="K214" s="21"/>
+    <row r="214" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L214" s="5"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A215" s="41">
-        <v>8</v>
-      </c>
-      <c r="B215" s="26">
-        <v>0</v>
-      </c>
-      <c r="C215" s="26">
-        <v>0</v>
-      </c>
-      <c r="D215" s="26">
-        <v>0</v>
-      </c>
-      <c r="E215" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F215" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G215" s="13"/>
-      <c r="H215" s="8"/>
-      <c r="I215" s="8"/>
-      <c r="J215" s="8"/>
-      <c r="K215" s="21"/>
+    <row r="215" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L215" s="5"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A216" s="41">
-        <v>9</v>
-      </c>
-      <c r="B216" s="26">
-        <v>0</v>
-      </c>
-      <c r="C216" s="26">
-        <v>0</v>
-      </c>
-      <c r="D216" s="26">
-        <v>0</v>
-      </c>
-      <c r="E216" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F216" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G216" s="13"/>
-      <c r="H216" s="8"/>
-      <c r="I216" s="8"/>
-      <c r="J216" s="8"/>
-      <c r="K216" s="21"/>
+    <row r="216" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L216" s="5"/>
     </row>
-    <row r="217" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="42">
-        <v>10</v>
-      </c>
-      <c r="B217" s="26">
-        <v>0</v>
-      </c>
-      <c r="C217" s="26">
-        <v>0</v>
-      </c>
-      <c r="D217" s="26">
-        <v>0</v>
-      </c>
-      <c r="E217" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F217" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G217" s="44"/>
-      <c r="H217" s="45"/>
-      <c r="I217" s="45"/>
-      <c r="J217" s="45"/>
-      <c r="K217" s="46"/>
+    <row r="217" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L217" s="5"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L218" s="5"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L219" s="5"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L220" s="5"/>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L221" s="5"/>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L222" s="5"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L223" s="5"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L224" s="5"/>
     </row>
     <row r="225" spans="12:12" x14ac:dyDescent="0.25">

--- a/input/managementPlans.xlsx
+++ b/input/managementPlans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achille\Documents\GitHub\SSM.R\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C8EA0D-7FEB-48EF-8C20-26437133A5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EE1A4B-8946-470C-8598-D7DEC6D4E78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="Diameter">[1]Run!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2360,12 +2360,315 @@
         </r>
       </text>
     </comment>
+    <comment ref="A200" authorId="0" shapeId="0" xr:uid="{6E16B265-E8DC-4F1E-862C-229500278AFD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Fixed sowing date. 
+1 - Sow in the 5th day of a 5-day rainfree period.
+2 - Sow in the 5th day  of a 5-day rainfree period + average temp &gt; SowTmp.
+3 - Sow in the 5th day  of a 5-day rainfree period + average temp &lt; SowTmp.
+4 - Sow when FTSW1 &gt; SowWat. 
+5 - Sow when FTSW1 &lt; SowWat. 
+6 - Sow when cumulative rainfall over a 5-day period &gt; SowWat. 
+7 - Sow when soil profile ATSW &gt; SowWat. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D200" authorId="0" shapeId="0" xr:uid="{B08E754E-8C99-4A21-85EF-872BEC69FBD7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Start simulation DOY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E200" authorId="0" shapeId="0" xr:uid="{4B955ECF-4E39-404D-A3E8-504C42BF1A79}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sowing date for FixFind=0, or beginning of sowing window</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F200" authorId="0" shapeId="0" xr:uid="{4CCF4E9C-E42A-46ED-9FA8-2000F8827F53}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Specifies the DOY of the end of sowing window</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G200" authorId="1" shapeId="0" xr:uid="{44F74DBD-2195-4E0A-BE1B-73AC1BA5F846}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Afshin Soltani:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DOY when crop must be harvested even pre-maturely</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H200" authorId="0" shapeId="0" xr:uid="{373C076A-5221-4307-A6E3-4949C984B845}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sowing temperature </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I200" authorId="0" shapeId="0" xr:uid="{DE57EA7A-82F4-45ED-8A07-4223225EEFB9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Soil profile (not top layer) ATSW that allows sowing.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I201" authorId="2" shapeId="0" xr:uid="{33F2FA31-4750-4F07-96EC-9DCE8E6E3FAF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marie Gosme:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+was 0.3, I'm just trying to see if this level can be reached a few days after simustart</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A203" authorId="0" shapeId="0" xr:uid="{89C9C2A5-93A0-4631-8F39-8CEBB948F842}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+N application scenario: 
+0=non-N-limited conditions, 
+2=N-limited conditions.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E203" authorId="0" shapeId="0" xr:uid="{0EE82C85-C095-4CD8-AB63-0571CF238A3C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Water application scenario:
+0=potential production, 1=automated irrigated, 2=rainfed, 
+3=fixed irrigated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A205" authorId="0" shapeId="0" xr:uid="{A714FB6C-A2C9-4551-B628-909713BA2824}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1=DAP, 
+2=CBD, 
+3=DOY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E205" authorId="0" shapeId="0" xr:uid="{3FC61E12-137F-46AF-8B34-46FC331E06CE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1=DAP, 
+2=CBD, 
+3=DOY</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="60">
   <si>
     <t>water = 0   for potential production</t>
   </si>
@@ -2542,6 +2845,9 @@
   </si>
   <si>
     <t>essai_bidon_irrigation_CBDautoAmount</t>
+  </si>
+  <si>
+    <t>achille_rainfed_3N</t>
   </si>
 </sst>
 </file>
@@ -3373,8 +3679,8 @@
   <dimension ref="A1:X3956"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D187" sqref="B185:D187"/>
+      <pane ySplit="10" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A199" sqref="A199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -8189,91 +8495,546 @@
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L195" s="5"/>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L196" s="5"/>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A197" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B197" s="16"/>
+      <c r="C197" s="16"/>
+      <c r="D197" s="16"/>
+      <c r="E197" s="16"/>
+      <c r="F197" s="16"/>
+      <c r="G197" s="16"/>
+      <c r="H197" s="17"/>
+      <c r="I197" s="17"/>
+      <c r="J197" s="17"/>
+      <c r="K197" s="18"/>
       <c r="L197" s="5"/>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A198" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B198" s="20"/>
+      <c r="C198" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D198" s="13"/>
+      <c r="E198" s="13"/>
+      <c r="F198" s="13"/>
+      <c r="G198" s="13"/>
+      <c r="H198" s="8"/>
+      <c r="I198" s="8"/>
+      <c r="J198" s="8"/>
+      <c r="K198" s="21"/>
       <c r="L198" s="5"/>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A199" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B199" s="13"/>
+      <c r="C199" s="22">
+        <v>0</v>
+      </c>
+      <c r="D199" s="13"/>
+      <c r="E199" s="13"/>
+      <c r="F199" s="13"/>
+      <c r="G199" s="13"/>
+      <c r="H199" s="8"/>
+      <c r="I199" s="8"/>
+      <c r="J199" s="8"/>
+      <c r="K199" s="21"/>
       <c r="L199" s="5"/>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A200" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B200" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C200" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D200" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E200" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F200" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G200" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H200" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I200" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J200" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="K200" s="24" t="s">
+        <v>32</v>
+      </c>
       <c r="L200" s="5"/>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A201" s="25">
+        <v>4</v>
+      </c>
+      <c r="B201" s="26">
+        <v>1980</v>
+      </c>
+      <c r="C201" s="26">
+        <v>1</v>
+      </c>
+      <c r="D201" s="47">
+        <v>67</v>
+      </c>
+      <c r="E201" s="26">
+        <v>288</v>
+      </c>
+      <c r="F201" s="26">
+        <v>20</v>
+      </c>
+      <c r="G201" s="26">
+        <v>280</v>
+      </c>
+      <c r="H201" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I201" s="26">
+        <v>0.21</v>
+      </c>
+      <c r="J201" s="26">
+        <v>30</v>
+      </c>
+      <c r="K201" s="27">
+        <v>1.7658476878487881</v>
+      </c>
       <c r="L201" s="5"/>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A202" s="28"/>
+      <c r="B202" s="13"/>
+      <c r="C202" s="13"/>
+      <c r="D202" s="13"/>
+      <c r="E202" s="13"/>
+      <c r="F202" s="13"/>
+      <c r="G202" s="13"/>
+      <c r="H202" s="8"/>
+      <c r="I202" s="8"/>
+      <c r="J202" s="8"/>
+      <c r="K202" s="21"/>
       <c r="L202" s="5"/>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A203" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B203" s="26">
+        <v>2</v>
+      </c>
+      <c r="C203" s="30"/>
+      <c r="D203" s="8"/>
+      <c r="E203" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F203" s="26">
+        <v>2</v>
+      </c>
+      <c r="G203" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H203" s="8"/>
+      <c r="I203" s="8"/>
+      <c r="J203" s="8"/>
+      <c r="K203" s="21"/>
       <c r="L203" s="5"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A204" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B204" s="26">
+        <v>3</v>
+      </c>
+      <c r="C204" s="8"/>
+      <c r="D204" s="8"/>
+      <c r="E204" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F204" s="26">
+        <v>0</v>
+      </c>
+      <c r="G204" s="26">
+        <v>0</v>
+      </c>
+      <c r="H204" s="8"/>
+      <c r="I204" s="8"/>
+      <c r="J204" s="8"/>
+      <c r="K204" s="21"/>
       <c r="L204" s="5"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A205" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B205" s="26">
+        <v>2</v>
+      </c>
+      <c r="C205" s="8"/>
+      <c r="D205" s="8"/>
+      <c r="E205" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F205" s="26">
+        <v>0</v>
+      </c>
+      <c r="G205" s="30"/>
+      <c r="H205" s="8"/>
+      <c r="I205" s="8"/>
+      <c r="J205" s="8"/>
+      <c r="K205" s="21"/>
       <c r="L205" s="5"/>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A206" s="35"/>
+      <c r="B206" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C206" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D206" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E206" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F206" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G206" s="38"/>
+      <c r="H206" s="8"/>
+      <c r="I206" s="8"/>
+      <c r="J206" s="8"/>
+      <c r="K206" s="21"/>
       <c r="L206" s="5"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A207" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B207" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C207" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D207" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E207" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F207" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G207" s="38"/>
+      <c r="H207" s="8"/>
+      <c r="I207" s="48"/>
+      <c r="J207" s="8"/>
+      <c r="K207" s="21"/>
       <c r="L207" s="5"/>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A208" s="40">
+        <v>1</v>
+      </c>
+      <c r="B208" s="26">
+        <v>10</v>
+      </c>
+      <c r="C208" s="26">
+        <v>2</v>
+      </c>
+      <c r="D208" s="26">
+        <v>10</v>
+      </c>
+      <c r="E208" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F208" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G208" s="13"/>
+      <c r="H208" s="8"/>
+      <c r="I208" s="8"/>
+      <c r="J208" s="8"/>
+      <c r="K208" s="21"/>
       <c r="L208" s="5"/>
     </row>
-    <row r="209" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A209" s="40">
+        <v>2</v>
+      </c>
+      <c r="B209" s="26">
+        <v>30</v>
+      </c>
+      <c r="C209" s="26">
+        <v>2</v>
+      </c>
+      <c r="D209" s="26">
+        <v>10</v>
+      </c>
+      <c r="E209" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F209" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G209" s="13"/>
+      <c r="H209" s="8"/>
+      <c r="I209" s="8"/>
+      <c r="J209" s="8"/>
+      <c r="K209" s="21"/>
       <c r="L209" s="5"/>
     </row>
-    <row r="210" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A210" s="40">
+        <v>3</v>
+      </c>
+      <c r="B210" s="26">
+        <v>45</v>
+      </c>
+      <c r="C210" s="26">
+        <v>2</v>
+      </c>
+      <c r="D210" s="26">
+        <v>10</v>
+      </c>
+      <c r="E210" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F210" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G210" s="13"/>
+      <c r="H210" s="8"/>
+      <c r="I210" s="8"/>
+      <c r="J210" s="8"/>
+      <c r="K210" s="21"/>
       <c r="L210" s="5"/>
     </row>
-    <row r="211" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A211" s="41">
+        <v>4</v>
+      </c>
+      <c r="B211" s="26">
+        <v>0</v>
+      </c>
+      <c r="C211" s="26">
+        <v>0</v>
+      </c>
+      <c r="D211" s="26">
+        <v>0</v>
+      </c>
+      <c r="E211" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F211" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G211" s="13"/>
+      <c r="H211" s="8"/>
+      <c r="I211" s="8"/>
+      <c r="J211" s="8"/>
+      <c r="K211" s="21"/>
       <c r="L211" s="5"/>
     </row>
-    <row r="212" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A212" s="41">
+        <v>5</v>
+      </c>
+      <c r="B212" s="26">
+        <v>0</v>
+      </c>
+      <c r="C212" s="26">
+        <v>0</v>
+      </c>
+      <c r="D212" s="26">
+        <v>0</v>
+      </c>
+      <c r="E212" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F212" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G212" s="13"/>
+      <c r="H212" s="8"/>
+      <c r="I212" s="8"/>
+      <c r="J212" s="8"/>
+      <c r="K212" s="21"/>
       <c r="L212" s="5"/>
     </row>
-    <row r="213" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A213" s="41">
+        <v>6</v>
+      </c>
+      <c r="B213" s="26">
+        <v>0</v>
+      </c>
+      <c r="C213" s="26">
+        <v>0</v>
+      </c>
+      <c r="D213" s="26">
+        <v>0</v>
+      </c>
+      <c r="E213" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F213" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G213" s="13"/>
+      <c r="H213" s="8"/>
+      <c r="I213" s="8"/>
+      <c r="J213" s="8"/>
+      <c r="K213" s="21"/>
       <c r="L213" s="5"/>
     </row>
-    <row r="214" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A214" s="41">
+        <v>7</v>
+      </c>
+      <c r="B214" s="26">
+        <v>0</v>
+      </c>
+      <c r="C214" s="26">
+        <v>0</v>
+      </c>
+      <c r="D214" s="26">
+        <v>0</v>
+      </c>
+      <c r="E214" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F214" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G214" s="13"/>
+      <c r="H214" s="8"/>
+      <c r="I214" s="8"/>
+      <c r="J214" s="8"/>
+      <c r="K214" s="21"/>
       <c r="L214" s="5"/>
     </row>
-    <row r="215" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A215" s="41">
+        <v>8</v>
+      </c>
+      <c r="B215" s="26">
+        <v>0</v>
+      </c>
+      <c r="C215" s="26">
+        <v>0</v>
+      </c>
+      <c r="D215" s="26">
+        <v>0</v>
+      </c>
+      <c r="E215" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F215" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G215" s="13"/>
+      <c r="H215" s="8"/>
+      <c r="I215" s="8"/>
+      <c r="J215" s="8"/>
+      <c r="K215" s="21"/>
       <c r="L215" s="5"/>
     </row>
-    <row r="216" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A216" s="41">
+        <v>9</v>
+      </c>
+      <c r="B216" s="26">
+        <v>0</v>
+      </c>
+      <c r="C216" s="26">
+        <v>0</v>
+      </c>
+      <c r="D216" s="26">
+        <v>0</v>
+      </c>
+      <c r="E216" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F216" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G216" s="13"/>
+      <c r="H216" s="8"/>
+      <c r="I216" s="8"/>
+      <c r="J216" s="8"/>
+      <c r="K216" s="21"/>
       <c r="L216" s="5"/>
     </row>
-    <row r="217" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="42">
+        <v>10</v>
+      </c>
+      <c r="B217" s="26">
+        <v>0</v>
+      </c>
+      <c r="C217" s="26">
+        <v>0</v>
+      </c>
+      <c r="D217" s="26">
+        <v>0</v>
+      </c>
+      <c r="E217" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F217" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G217" s="44"/>
+      <c r="H217" s="45"/>
+      <c r="I217" s="45"/>
+      <c r="J217" s="45"/>
+      <c r="K217" s="46"/>
       <c r="L217" s="5"/>
     </row>
-    <row r="218" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L218" s="5"/>
     </row>
-    <row r="219" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L219" s="5"/>
     </row>
-    <row r="220" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L220" s="5"/>
     </row>
-    <row r="221" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L221" s="5"/>
     </row>
-    <row r="222" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L222" s="5"/>
     </row>
-    <row r="223" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L223" s="5"/>
     </row>
-    <row r="224" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L224" s="5"/>
     </row>
     <row r="225" spans="12:12" x14ac:dyDescent="0.25">

--- a/input/managementPlans.xlsx
+++ b/input/managementPlans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achille\Documents\GitHub\SSM.R\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EE1A4B-8946-470C-8598-D7DEC6D4E78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953CAA7D-9499-4E18-BE7E-8B37F7CFCCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2668,7 +2668,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="61">
   <si>
     <t>water = 0   for potential production</t>
   </si>
@@ -2848,6 +2848,9 @@
   </si>
   <si>
     <t>achille_rainfed_3N</t>
+  </si>
+  <si>
+    <t>For wheat</t>
   </si>
 </sst>
 </file>
@@ -3679,8 +3682,8 @@
   <dimension ref="A1:X3956"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A199" sqref="A199"/>
+      <pane ySplit="10" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I217" sqref="I217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -8523,7 +8526,9 @@
         <v>20</v>
       </c>
       <c r="D198" s="13"/>
-      <c r="E198" s="13"/>
+      <c r="E198" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="F198" s="13"/>
       <c r="G198" s="13"/>
       <c r="H198" s="8"/>
@@ -8612,10 +8617,10 @@
         <v>33</v>
       </c>
       <c r="I201" s="26">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
       <c r="J201" s="26">
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="K201" s="27">
         <v>1.7658476878487881</v>

--- a/input/managementPlans.xlsx
+++ b/input/managementPlans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achille\Documents\GitHub\SSM.R\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78D6DF3-7116-46FA-B267-182E8BA28A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EE1A4B-8946-470C-8598-D7DEC6D4E78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3679,7 +3679,7 @@
   <dimension ref="A1:X3956"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A199" sqref="A199"/>
     </sheetView>
   </sheetViews>

--- a/input/managementPlans.xlsx
+++ b/input/managementPlans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achille\Documents\GitHub\SSM.R\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953CAA7D-9499-4E18-BE7E-8B37F7CFCCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2178E84-978C-4D2B-88D4-C39E662124D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2663,12 +2663,315 @@
         </r>
       </text>
     </comment>
+    <comment ref="A223" authorId="0" shapeId="0" xr:uid="{B6740F96-35BF-4ACC-82F9-4E3F6F4D77B6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Fixed sowing date. 
+1 - Sow in the 5th day of a 5-day rainfree period.
+2 - Sow in the 5th day  of a 5-day rainfree period + average temp &gt; SowTmp.
+3 - Sow in the 5th day  of a 5-day rainfree period + average temp &lt; SowTmp.
+4 - Sow when FTSW1 &gt; SowWat. 
+5 - Sow when FTSW1 &lt; SowWat. 
+6 - Sow when cumulative rainfall over a 5-day period &gt; SowWat. 
+7 - Sow when soil profile ATSW &gt; SowWat. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D223" authorId="0" shapeId="0" xr:uid="{68D01D30-F854-4498-B2E8-CF1B45186460}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Start simulation DOY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E223" authorId="0" shapeId="0" xr:uid="{9881D503-8268-4E30-908D-CDBAD84453A7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sowing date for FixFind=0, or beginning of sowing window</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F223" authorId="0" shapeId="0" xr:uid="{5221FC5E-A360-49FA-81AF-7D40C6CCEE4E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Specifies the DOY of the end of sowing window</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G223" authorId="1" shapeId="0" xr:uid="{0DCE1D91-5F76-48B2-86D1-042A24F0B2F6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Afshin Soltani:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DOY when crop must be harvested even pre-maturely</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H223" authorId="0" shapeId="0" xr:uid="{446A2A70-19C5-4095-BF4B-E67B4D15BEB7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sowing temperature </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I223" authorId="0" shapeId="0" xr:uid="{023222E3-6155-466A-87FB-7DAA75C06631}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Soil profile (not top layer) ATSW that allows sowing.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I224" authorId="2" shapeId="0" xr:uid="{16D8B0AC-5079-486C-B47B-6A50896096E5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marie Gosme:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+was 0.3, I'm just trying to see if this level can be reached a few days after simustart</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A226" authorId="0" shapeId="0" xr:uid="{F826F649-D3CC-4C43-A4F9-7EAA0ED861AC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+N application scenario: 
+0=non-N-limited conditions, 
+2=N-limited conditions.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E226" authorId="0" shapeId="0" xr:uid="{78FCF48E-2843-45EF-A845-CDA638EF0F33}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Water application scenario:
+0=potential production, 1=automated irrigated, 2=rainfed, 
+3=fixed irrigated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A228" authorId="0" shapeId="0" xr:uid="{31D39C17-7BC6-4A29-A40F-6F2FFD2C6DB7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1=DAP, 
+2=CBD, 
+3=DOY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E228" authorId="0" shapeId="0" xr:uid="{73E04697-14A6-41F4-9714-53B563E515F9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1=DAP, 
+2=CBD, 
+3=DOY</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="62">
   <si>
     <t>water = 0   for potential production</t>
   </si>
@@ -2847,10 +3150,13 @@
     <t>essai_bidon_irrigation_CBDautoAmount</t>
   </si>
   <si>
-    <t>achille_rainfed_3N</t>
+    <t>For wheat</t>
   </si>
   <si>
-    <t>For wheat</t>
+    <t>achille_rainfed_3N_wheat</t>
+  </si>
+  <si>
+    <t>achille_rainfed_chickpea</t>
   </si>
 </sst>
 </file>
@@ -3682,8 +3988,8 @@
   <dimension ref="A1:X3956"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I217" sqref="I217"/>
+      <pane ySplit="10" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M225" sqref="M225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -8527,7 +8833,7 @@
       </c>
       <c r="D198" s="13"/>
       <c r="E198" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F198" s="13"/>
       <c r="G198" s="13"/>
@@ -8539,7 +8845,7 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B199" s="13"/>
       <c r="C199" s="22">
@@ -9024,70 +9330,527 @@
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L218" s="5"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L219" s="5"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A220" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B220" s="16"/>
+      <c r="C220" s="16"/>
+      <c r="D220" s="16"/>
+      <c r="E220" s="16"/>
+      <c r="F220" s="16"/>
+      <c r="G220" s="16"/>
+      <c r="H220" s="17"/>
+      <c r="I220" s="17"/>
+      <c r="J220" s="17"/>
+      <c r="K220" s="18"/>
       <c r="L220" s="5"/>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A221" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B221" s="20"/>
+      <c r="C221" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D221" s="13"/>
+      <c r="E221" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F221" s="13"/>
+      <c r="G221" s="13"/>
+      <c r="H221" s="8"/>
+      <c r="I221" s="8"/>
+      <c r="J221" s="8"/>
+      <c r="K221" s="21"/>
       <c r="L221" s="5"/>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A222" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B222" s="13"/>
+      <c r="C222" s="22">
+        <v>0</v>
+      </c>
+      <c r="D222" s="13"/>
+      <c r="E222" s="13"/>
+      <c r="F222" s="13"/>
+      <c r="G222" s="13"/>
+      <c r="H222" s="8"/>
+      <c r="I222" s="8"/>
+      <c r="J222" s="8"/>
+      <c r="K222" s="21"/>
       <c r="L222" s="5"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A223" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B223" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C223" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D223" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E223" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F223" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G223" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H223" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I223" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J223" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="K223" s="24" t="s">
+        <v>32</v>
+      </c>
       <c r="L223" s="5"/>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A224" s="25">
+        <v>4</v>
+      </c>
+      <c r="B224" s="26">
+        <v>1980</v>
+      </c>
+      <c r="C224" s="26">
+        <v>1</v>
+      </c>
+      <c r="D224" s="47">
+        <v>67</v>
+      </c>
+      <c r="E224" s="26">
+        <v>288</v>
+      </c>
+      <c r="F224" s="26">
+        <v>20</v>
+      </c>
+      <c r="G224" s="26">
+        <v>280</v>
+      </c>
+      <c r="H224" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I224" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="J224" s="26">
+        <v>50</v>
+      </c>
+      <c r="K224" s="27">
+        <v>1.7658476878487881</v>
+      </c>
       <c r="L224" s="5"/>
     </row>
-    <row r="225" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A225" s="28"/>
+      <c r="B225" s="13"/>
+      <c r="C225" s="13"/>
+      <c r="D225" s="13"/>
+      <c r="E225" s="13"/>
+      <c r="F225" s="13"/>
+      <c r="G225" s="13"/>
+      <c r="H225" s="8"/>
+      <c r="I225" s="8"/>
+      <c r="J225" s="8"/>
+      <c r="K225" s="21"/>
       <c r="L225" s="5"/>
     </row>
-    <row r="226" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A226" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B226" s="26">
+        <v>2</v>
+      </c>
+      <c r="C226" s="30"/>
+      <c r="D226" s="8"/>
+      <c r="E226" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F226" s="26">
+        <v>2</v>
+      </c>
+      <c r="G226" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H226" s="8"/>
+      <c r="I226" s="8"/>
+      <c r="J226" s="8"/>
+      <c r="K226" s="21"/>
       <c r="L226" s="5"/>
     </row>
-    <row r="227" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A227" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B227" s="26">
+        <v>3</v>
+      </c>
+      <c r="C227" s="8"/>
+      <c r="D227" s="8"/>
+      <c r="E227" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F227" s="26">
+        <v>0</v>
+      </c>
+      <c r="G227" s="26">
+        <v>0</v>
+      </c>
+      <c r="H227" s="8"/>
+      <c r="I227" s="8"/>
+      <c r="J227" s="8"/>
+      <c r="K227" s="21"/>
       <c r="L227" s="5"/>
     </row>
-    <row r="228" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A228" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B228" s="26">
+        <v>2</v>
+      </c>
+      <c r="C228" s="8"/>
+      <c r="D228" s="8"/>
+      <c r="E228" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F228" s="26">
+        <v>0</v>
+      </c>
+      <c r="G228" s="30"/>
+      <c r="H228" s="8"/>
+      <c r="I228" s="8"/>
+      <c r="J228" s="8"/>
+      <c r="K228" s="21"/>
       <c r="L228" s="5"/>
     </row>
-    <row r="229" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A229" s="35"/>
+      <c r="B229" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C229" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D229" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E229" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F229" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G229" s="38"/>
+      <c r="H229" s="8"/>
+      <c r="I229" s="8"/>
+      <c r="J229" s="8"/>
+      <c r="K229" s="21"/>
       <c r="L229" s="5"/>
     </row>
-    <row r="230" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A230" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B230" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C230" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D230" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E230" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F230" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G230" s="38"/>
+      <c r="H230" s="8"/>
+      <c r="I230" s="48"/>
+      <c r="J230" s="8"/>
+      <c r="K230" s="21"/>
       <c r="L230" s="5"/>
     </row>
-    <row r="231" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A231" s="40">
+        <v>1</v>
+      </c>
+      <c r="B231" s="26">
+        <v>10</v>
+      </c>
+      <c r="C231" s="26">
+        <v>2</v>
+      </c>
+      <c r="D231" s="26">
+        <v>10</v>
+      </c>
+      <c r="E231" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F231" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G231" s="13"/>
+      <c r="H231" s="8"/>
+      <c r="I231" s="8"/>
+      <c r="J231" s="8"/>
+      <c r="K231" s="21"/>
       <c r="L231" s="5"/>
     </row>
-    <row r="232" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A232" s="40">
+        <v>2</v>
+      </c>
+      <c r="B232" s="26">
+        <v>30</v>
+      </c>
+      <c r="C232" s="26">
+        <v>2</v>
+      </c>
+      <c r="D232" s="26">
+        <v>10</v>
+      </c>
+      <c r="E232" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F232" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G232" s="13"/>
+      <c r="H232" s="8"/>
+      <c r="I232" s="8"/>
+      <c r="J232" s="8"/>
+      <c r="K232" s="21"/>
       <c r="L232" s="5"/>
     </row>
-    <row r="233" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A233" s="40">
+        <v>3</v>
+      </c>
+      <c r="B233" s="26">
+        <v>45</v>
+      </c>
+      <c r="C233" s="26">
+        <v>2</v>
+      </c>
+      <c r="D233" s="26">
+        <v>10</v>
+      </c>
+      <c r="E233" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F233" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G233" s="13"/>
+      <c r="H233" s="8"/>
+      <c r="I233" s="8"/>
+      <c r="J233" s="8"/>
+      <c r="K233" s="21"/>
       <c r="L233" s="5"/>
     </row>
-    <row r="234" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A234" s="41">
+        <v>4</v>
+      </c>
+      <c r="B234" s="26">
+        <v>0</v>
+      </c>
+      <c r="C234" s="26">
+        <v>0</v>
+      </c>
+      <c r="D234" s="26">
+        <v>0</v>
+      </c>
+      <c r="E234" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F234" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G234" s="13"/>
+      <c r="H234" s="8"/>
+      <c r="I234" s="8"/>
+      <c r="J234" s="8"/>
+      <c r="K234" s="21"/>
       <c r="L234" s="5"/>
     </row>
-    <row r="235" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A235" s="41">
+        <v>5</v>
+      </c>
+      <c r="B235" s="26">
+        <v>0</v>
+      </c>
+      <c r="C235" s="26">
+        <v>0</v>
+      </c>
+      <c r="D235" s="26">
+        <v>0</v>
+      </c>
+      <c r="E235" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F235" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G235" s="13"/>
+      <c r="H235" s="8"/>
+      <c r="I235" s="8"/>
+      <c r="J235" s="8"/>
+      <c r="K235" s="21"/>
       <c r="L235" s="5"/>
     </row>
-    <row r="236" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A236" s="41">
+        <v>6</v>
+      </c>
+      <c r="B236" s="26">
+        <v>0</v>
+      </c>
+      <c r="C236" s="26">
+        <v>0</v>
+      </c>
+      <c r="D236" s="26">
+        <v>0</v>
+      </c>
+      <c r="E236" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F236" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G236" s="13"/>
+      <c r="H236" s="8"/>
+      <c r="I236" s="8"/>
+      <c r="J236" s="8"/>
+      <c r="K236" s="21"/>
       <c r="L236" s="5"/>
     </row>
-    <row r="237" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A237" s="41">
+        <v>7</v>
+      </c>
+      <c r="B237" s="26">
+        <v>0</v>
+      </c>
+      <c r="C237" s="26">
+        <v>0</v>
+      </c>
+      <c r="D237" s="26">
+        <v>0</v>
+      </c>
+      <c r="E237" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F237" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G237" s="13"/>
+      <c r="H237" s="8"/>
+      <c r="I237" s="8"/>
+      <c r="J237" s="8"/>
+      <c r="K237" s="21"/>
       <c r="L237" s="5"/>
     </row>
-    <row r="238" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A238" s="41">
+        <v>8</v>
+      </c>
+      <c r="B238" s="26">
+        <v>0</v>
+      </c>
+      <c r="C238" s="26">
+        <v>0</v>
+      </c>
+      <c r="D238" s="26">
+        <v>0</v>
+      </c>
+      <c r="E238" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F238" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G238" s="13"/>
+      <c r="H238" s="8"/>
+      <c r="I238" s="8"/>
+      <c r="J238" s="8"/>
+      <c r="K238" s="21"/>
       <c r="L238" s="5"/>
     </row>
-    <row r="239" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A239" s="41">
+        <v>9</v>
+      </c>
+      <c r="B239" s="26">
+        <v>0</v>
+      </c>
+      <c r="C239" s="26">
+        <v>0</v>
+      </c>
+      <c r="D239" s="26">
+        <v>0</v>
+      </c>
+      <c r="E239" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F239" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G239" s="13"/>
+      <c r="H239" s="8"/>
+      <c r="I239" s="8"/>
+      <c r="J239" s="8"/>
+      <c r="K239" s="21"/>
       <c r="L239" s="5"/>
     </row>
-    <row r="240" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="42">
+        <v>10</v>
+      </c>
+      <c r="B240" s="26">
+        <v>0</v>
+      </c>
+      <c r="C240" s="26">
+        <v>0</v>
+      </c>
+      <c r="D240" s="26">
+        <v>0</v>
+      </c>
+      <c r="E240" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F240" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G240" s="44"/>
+      <c r="H240" s="45"/>
+      <c r="I240" s="45"/>
+      <c r="J240" s="45"/>
+      <c r="K240" s="46"/>
       <c r="L240" s="5"/>
     </row>
     <row r="241" spans="12:12" x14ac:dyDescent="0.25">

--- a/input/managementPlans.xlsx
+++ b/input/managementPlans.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achille\Documents\GitHub\SSM.R\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2178E84-978C-4D2B-88D4-C39E662124D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B7CAB8-994A-4BF9-AEAB-41683CEE7E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="Diameter">[1]Run!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2966,12 +2966,315 @@
         </r>
       </text>
     </comment>
+    <comment ref="A246" authorId="0" shapeId="0" xr:uid="{A8759652-10CC-457B-815F-60AA2A889B41}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Fixed sowing date. 
+1 - Sow in the 5th day of a 5-day rainfree period.
+2 - Sow in the 5th day  of a 5-day rainfree period + average temp &gt; SowTmp.
+3 - Sow in the 5th day  of a 5-day rainfree period + average temp &lt; SowTmp.
+4 - Sow when FTSW1 &gt; SowWat. 
+5 - Sow when FTSW1 &lt; SowWat. 
+6 - Sow when cumulative rainfall over a 5-day period &gt; SowWat. 
+7 - Sow when soil profile ATSW &gt; SowWat. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D246" authorId="0" shapeId="0" xr:uid="{1041C073-E4F0-420A-AB7B-4AE6D72B43A8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Start simulation DOY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E246" authorId="0" shapeId="0" xr:uid="{5E6A3D58-D949-44EF-A5EE-A92B72F712FD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sowing date for FixFind=0, or beginning of sowing window</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F246" authorId="0" shapeId="0" xr:uid="{5B0C5996-D1DD-4765-BD4A-3C320429D5F7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Specifies the DOY of the end of sowing window</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G246" authorId="1" shapeId="0" xr:uid="{CB9480B7-9E62-4499-B7CB-B370DB0F5E28}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Afshin Soltani:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DOY when crop must be harvested even pre-maturely</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H246" authorId="0" shapeId="0" xr:uid="{77FEC3CA-80A6-4D8A-B4C6-7E8172BE05C1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sowing temperature </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I246" authorId="0" shapeId="0" xr:uid="{923D1CC0-688F-4848-93D5-BABAD3005C67}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Soil profile (not top layer) ATSW that allows sowing.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I247" authorId="2" shapeId="0" xr:uid="{B900DB57-A032-4945-9DBC-0EC3DDCEAECA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marie Gosme:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+was 0.3, I'm just trying to see if this level can be reached a few days after simustart</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A249" authorId="0" shapeId="0" xr:uid="{33DCE5F5-FDD3-4DA0-8BF9-665906DECC12}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+N application scenario: 
+0=non-N-limited conditions, 
+2=N-limited conditions.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E249" authorId="0" shapeId="0" xr:uid="{21512F43-7722-4099-AB83-D5F808A5559B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Water application scenario:
+0=potential production, 1=automated irrigated, 2=rainfed, 
+3=fixed irrigated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A251" authorId="0" shapeId="0" xr:uid="{6F8979A5-03B5-4280-8696-433BF32F277C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1=DAP, 
+2=CBD, 
+3=DOY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E251" authorId="0" shapeId="0" xr:uid="{A50C8620-3A56-4091-A0F9-0FA804C8427A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1=DAP, 
+2=CBD, 
+3=DOY</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="63">
   <si>
     <t>water = 0   for potential production</t>
   </si>
@@ -3157,6 +3460,9 @@
   </si>
   <si>
     <t>achille_rainfed_chickpea</t>
+  </si>
+  <si>
+    <t>achille_automatic_3N_wheat</t>
   </si>
 </sst>
 </file>
@@ -3988,8 +4294,8 @@
   <dimension ref="A1:X3956"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M225" sqref="M225"/>
+      <pane ySplit="10" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L255" sqref="L255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -9853,100 +10159,557 @@
       <c r="K240" s="46"/>
       <c r="L240" s="5"/>
     </row>
-    <row r="241" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L241" s="5"/>
     </row>
-    <row r="242" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L242" s="5"/>
     </row>
-    <row r="243" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A243" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B243" s="16"/>
+      <c r="C243" s="16"/>
+      <c r="D243" s="16"/>
+      <c r="E243" s="16"/>
+      <c r="F243" s="16"/>
+      <c r="G243" s="16"/>
+      <c r="H243" s="17"/>
+      <c r="I243" s="17"/>
+      <c r="J243" s="17"/>
+      <c r="K243" s="18"/>
       <c r="L243" s="5"/>
     </row>
-    <row r="244" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A244" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B244" s="20"/>
+      <c r="C244" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D244" s="13"/>
+      <c r="E244" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F244" s="13"/>
+      <c r="G244" s="13"/>
+      <c r="H244" s="8"/>
+      <c r="I244" s="8"/>
+      <c r="J244" s="8"/>
+      <c r="K244" s="21"/>
       <c r="L244" s="5"/>
     </row>
-    <row r="245" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A245" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B245" s="13"/>
+      <c r="C245" s="22">
+        <v>0</v>
+      </c>
+      <c r="D245" s="13"/>
+      <c r="E245" s="13"/>
+      <c r="F245" s="13"/>
+      <c r="G245" s="13"/>
+      <c r="H245" s="8"/>
+      <c r="I245" s="8"/>
+      <c r="J245" s="8"/>
+      <c r="K245" s="21"/>
       <c r="L245" s="5"/>
     </row>
-    <row r="246" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A246" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B246" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C246" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D246" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E246" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F246" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G246" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H246" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I246" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J246" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="K246" s="24" t="s">
+        <v>32</v>
+      </c>
       <c r="L246" s="5"/>
     </row>
-    <row r="247" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A247" s="25">
+        <v>4</v>
+      </c>
+      <c r="B247" s="26">
+        <v>1980</v>
+      </c>
+      <c r="C247" s="26">
+        <v>1</v>
+      </c>
+      <c r="D247" s="47">
+        <v>67</v>
+      </c>
+      <c r="E247" s="26">
+        <v>288</v>
+      </c>
+      <c r="F247" s="26">
+        <v>20</v>
+      </c>
+      <c r="G247" s="26">
+        <v>280</v>
+      </c>
+      <c r="H247" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I247" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="J247" s="26">
+        <v>280</v>
+      </c>
+      <c r="K247" s="27">
+        <v>1.7658476878487881</v>
+      </c>
       <c r="L247" s="5"/>
     </row>
-    <row r="248" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A248" s="28"/>
+      <c r="B248" s="13"/>
+      <c r="C248" s="13"/>
+      <c r="D248" s="13"/>
+      <c r="E248" s="13"/>
+      <c r="F248" s="13"/>
+      <c r="G248" s="13"/>
+      <c r="H248" s="8"/>
+      <c r="I248" s="8"/>
+      <c r="J248" s="8"/>
+      <c r="K248" s="21"/>
       <c r="L248" s="5"/>
     </row>
-    <row r="249" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A249" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B249" s="26">
+        <v>2</v>
+      </c>
+      <c r="C249" s="30"/>
+      <c r="D249" s="8"/>
+      <c r="E249" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F249" s="26">
+        <v>1</v>
+      </c>
+      <c r="G249" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H249" s="8"/>
+      <c r="I249" s="8"/>
+      <c r="J249" s="8"/>
+      <c r="K249" s="21"/>
       <c r="L249" s="5"/>
     </row>
-    <row r="250" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A250" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B250" s="26">
+        <v>3</v>
+      </c>
+      <c r="C250" s="8"/>
+      <c r="D250" s="8"/>
+      <c r="E250" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F250" s="26">
+        <v>10</v>
+      </c>
+      <c r="G250" s="26">
+        <v>0</v>
+      </c>
+      <c r="H250" s="8"/>
+      <c r="I250" s="8"/>
+      <c r="J250" s="8"/>
+      <c r="K250" s="21"/>
       <c r="L250" s="5"/>
     </row>
-    <row r="251" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A251" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B251" s="26">
+        <v>2</v>
+      </c>
+      <c r="C251" s="8"/>
+      <c r="D251" s="8"/>
+      <c r="E251" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F251" s="26">
+        <v>2</v>
+      </c>
+      <c r="G251" s="30"/>
+      <c r="H251" s="8"/>
+      <c r="I251" s="8"/>
+      <c r="J251" s="8"/>
+      <c r="K251" s="21"/>
       <c r="L251" s="5"/>
     </row>
-    <row r="252" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A252" s="35"/>
+      <c r="B252" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C252" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D252" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E252" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F252" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G252" s="38"/>
+      <c r="H252" s="8"/>
+      <c r="I252" s="8"/>
+      <c r="J252" s="8"/>
+      <c r="K252" s="21"/>
       <c r="L252" s="5"/>
     </row>
-    <row r="253" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A253" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B253" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C253" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D253" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E253" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F253" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G253" s="38"/>
+      <c r="H253" s="8"/>
+      <c r="I253" s="48"/>
+      <c r="J253" s="8"/>
+      <c r="K253" s="21"/>
       <c r="L253" s="5"/>
     </row>
-    <row r="254" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A254" s="40">
+        <v>1</v>
+      </c>
+      <c r="B254" s="26">
+        <v>10</v>
+      </c>
+      <c r="C254" s="26">
+        <v>2</v>
+      </c>
+      <c r="D254" s="26">
+        <v>10</v>
+      </c>
+      <c r="E254" s="10">
+        <v>10</v>
+      </c>
+      <c r="F254" s="26">
+        <v>1978</v>
+      </c>
+      <c r="G254" s="13"/>
+      <c r="H254" s="8"/>
+      <c r="I254" s="8"/>
+      <c r="J254" s="8"/>
+      <c r="K254" s="21"/>
       <c r="L254" s="5"/>
     </row>
-    <row r="255" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A255" s="40">
+        <v>2</v>
+      </c>
+      <c r="B255" s="26">
+        <v>30</v>
+      </c>
+      <c r="C255" s="26">
+        <v>2</v>
+      </c>
+      <c r="D255" s="26">
+        <v>10</v>
+      </c>
+      <c r="E255" s="26">
+        <v>20</v>
+      </c>
+      <c r="F255" s="26">
+        <v>1978</v>
+      </c>
+      <c r="G255" s="13"/>
+      <c r="H255" s="8"/>
+      <c r="I255" s="8"/>
+      <c r="J255" s="8"/>
+      <c r="K255" s="21"/>
       <c r="L255" s="5"/>
     </row>
-    <row r="256" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A256" s="40">
+        <v>3</v>
+      </c>
+      <c r="B256" s="26">
+        <v>45</v>
+      </c>
+      <c r="C256" s="26">
+        <v>2</v>
+      </c>
+      <c r="D256" s="26">
+        <v>10</v>
+      </c>
+      <c r="E256" s="10">
+        <v>30</v>
+      </c>
+      <c r="F256" s="26">
+        <v>1978</v>
+      </c>
+      <c r="G256" s="13"/>
+      <c r="H256" s="8"/>
+      <c r="I256" s="8"/>
+      <c r="J256" s="8"/>
+      <c r="K256" s="21"/>
       <c r="L256" s="5"/>
     </row>
-    <row r="257" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A257" s="41">
+        <v>4</v>
+      </c>
+      <c r="B257" s="26">
+        <v>0</v>
+      </c>
+      <c r="C257" s="26">
+        <v>0</v>
+      </c>
+      <c r="D257" s="26">
+        <v>0</v>
+      </c>
+      <c r="E257" s="26">
+        <v>40</v>
+      </c>
+      <c r="F257" s="26">
+        <v>1978</v>
+      </c>
+      <c r="G257" s="13"/>
+      <c r="H257" s="8"/>
+      <c r="I257" s="8"/>
+      <c r="J257" s="8"/>
+      <c r="K257" s="21"/>
       <c r="L257" s="5"/>
     </row>
-    <row r="258" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A258" s="41">
+        <v>5</v>
+      </c>
+      <c r="B258" s="26">
+        <v>0</v>
+      </c>
+      <c r="C258" s="26">
+        <v>0</v>
+      </c>
+      <c r="D258" s="26">
+        <v>0</v>
+      </c>
+      <c r="E258" s="10">
+        <v>50</v>
+      </c>
+      <c r="F258" s="26">
+        <v>1978</v>
+      </c>
+      <c r="G258" s="13"/>
+      <c r="H258" s="8"/>
+      <c r="I258" s="8"/>
+      <c r="J258" s="8"/>
+      <c r="K258" s="21"/>
       <c r="L258" s="5"/>
     </row>
-    <row r="259" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A259" s="41">
+        <v>6</v>
+      </c>
+      <c r="B259" s="26">
+        <v>0</v>
+      </c>
+      <c r="C259" s="26">
+        <v>0</v>
+      </c>
+      <c r="D259" s="26">
+        <v>0</v>
+      </c>
+      <c r="E259" s="26">
+        <v>60</v>
+      </c>
+      <c r="F259" s="26">
+        <v>1978</v>
+      </c>
+      <c r="G259" s="13"/>
+      <c r="H259" s="8"/>
+      <c r="I259" s="8"/>
+      <c r="J259" s="8"/>
+      <c r="K259" s="21"/>
       <c r="L259" s="5"/>
     </row>
-    <row r="260" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A260" s="41">
+        <v>7</v>
+      </c>
+      <c r="B260" s="26">
+        <v>0</v>
+      </c>
+      <c r="C260" s="26">
+        <v>0</v>
+      </c>
+      <c r="D260" s="26">
+        <v>0</v>
+      </c>
+      <c r="E260" s="10">
+        <v>70</v>
+      </c>
+      <c r="F260" s="26">
+        <v>1978</v>
+      </c>
+      <c r="G260" s="13"/>
+      <c r="H260" s="8"/>
+      <c r="I260" s="8"/>
+      <c r="J260" s="8"/>
+      <c r="K260" s="21"/>
       <c r="L260" s="5"/>
     </row>
-    <row r="261" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A261" s="41">
+        <v>8</v>
+      </c>
+      <c r="B261" s="26">
+        <v>0</v>
+      </c>
+      <c r="C261" s="26">
+        <v>0</v>
+      </c>
+      <c r="D261" s="26">
+        <v>0</v>
+      </c>
+      <c r="E261" s="26">
+        <v>80</v>
+      </c>
+      <c r="F261" s="26">
+        <v>1978</v>
+      </c>
+      <c r="G261" s="13"/>
+      <c r="H261" s="8"/>
+      <c r="I261" s="8"/>
+      <c r="J261" s="8"/>
+      <c r="K261" s="21"/>
       <c r="L261" s="5"/>
     </row>
-    <row r="262" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A262" s="41">
+        <v>9</v>
+      </c>
+      <c r="B262" s="26">
+        <v>0</v>
+      </c>
+      <c r="C262" s="26">
+        <v>0</v>
+      </c>
+      <c r="D262" s="26">
+        <v>0</v>
+      </c>
+      <c r="E262" s="10">
+        <v>85</v>
+      </c>
+      <c r="F262" s="26">
+        <v>1978</v>
+      </c>
+      <c r="G262" s="13"/>
+      <c r="H262" s="8"/>
+      <c r="I262" s="8"/>
+      <c r="J262" s="8"/>
+      <c r="K262" s="21"/>
       <c r="L262" s="5"/>
     </row>
-    <row r="263" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="42">
+        <v>10</v>
+      </c>
+      <c r="B263" s="26">
+        <v>0</v>
+      </c>
+      <c r="C263" s="26">
+        <v>0</v>
+      </c>
+      <c r="D263" s="26">
+        <v>0</v>
+      </c>
+      <c r="E263" s="26">
+        <v>90</v>
+      </c>
+      <c r="F263" s="26">
+        <v>1978</v>
+      </c>
+      <c r="G263" s="44"/>
+      <c r="H263" s="45"/>
+      <c r="I263" s="45"/>
+      <c r="J263" s="45"/>
+      <c r="K263" s="46"/>
       <c r="L263" s="5"/>
     </row>
-    <row r="264" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L264" s="5"/>
     </row>
-    <row r="265" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L265" s="5"/>
     </row>
-    <row r="266" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L266" s="5"/>
     </row>
-    <row r="267" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L267" s="5"/>
     </row>
-    <row r="268" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L268" s="5"/>
     </row>
-    <row r="269" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L269" s="5"/>
     </row>
-    <row r="270" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L270" s="5"/>
     </row>
-    <row r="271" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L271" s="5"/>
     </row>
-    <row r="272" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L272" s="5"/>
     </row>
     <row r="273" spans="12:12" x14ac:dyDescent="0.25">

--- a/input/managementPlans.xlsx
+++ b/input/managementPlans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achille\Documents\GitHub\SSM.R\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B7CAB8-994A-4BF9-AEAB-41683CEE7E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80392358-F3AD-48EC-A919-EBCC99FB4A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="10400" windowHeight="9410" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Manag" sheetId="1" r:id="rId1"/>
@@ -274,6 +274,33 @@
         </r>
       </text>
     </comment>
+    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{7BF07D8A-1423-46CF-A2CC-870108E338D4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tillage scenario:
+0=No tillage considered
+1=Tillage is considered
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
@@ -301,6 +328,32 @@
       </text>
     </comment>
     <comment ref="E21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1=DAP, 
+2=CBD, 
+3=DOY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H21" authorId="0" shapeId="0" xr:uid="{C669ADC9-E928-4553-91F5-2E57F87CCBBA}">
       <text>
         <r>
           <rPr>
@@ -553,6 +606,33 @@
         </r>
       </text>
     </comment>
+    <comment ref="H42" authorId="0" shapeId="0" xr:uid="{859D641E-3709-4710-BD6F-62B540FB3AF7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tillage scenario:
+0=No tillage considered
+1=Tillage is considered
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
@@ -580,6 +660,32 @@
       </text>
     </comment>
     <comment ref="E44" authorId="0" shapeId="0" xr:uid="{0870B7BC-AD57-4F82-9FF1-50FC584AB48F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1=DAP, 
+2=CBD, 
+3=DOY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H44" authorId="0" shapeId="0" xr:uid="{E642F47A-E58F-40E6-B589-D38667A9D2E2}">
       <text>
         <r>
           <rPr>
@@ -856,6 +962,33 @@
         </r>
       </text>
     </comment>
+    <comment ref="H65" authorId="0" shapeId="0" xr:uid="{D76C5E58-F8B7-4A94-8951-9D7195AB6514}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tillage scenario:
+0=No tillage considered
+1=Tillage is considered
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A67" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
         <r>
@@ -908,6 +1041,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="H67" authorId="0" shapeId="0" xr:uid="{A6000977-250E-4625-9523-341422BC96DB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1=DAP, 
+2=CBD, 
+3=DOY</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D85" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
       <text>
         <r>
@@ -1100,6 +1259,33 @@
         </r>
       </text>
     </comment>
+    <comment ref="H88" authorId="0" shapeId="0" xr:uid="{647A88A3-AB1E-4A31-A0C5-62925A17D146}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tillage scenario:
+0=No tillage considered
+1=Tillage is considered
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A90" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002B000000}">
       <text>
         <r>
@@ -1145,6 +1331,32 @@
           </rPr>
           <t xml:space="preserve">
 1=DAP, 2=CBD with user-specified irrigation, 3= DOY, 4= CBD with auto-irrigation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H90" authorId="0" shapeId="0" xr:uid="{D3B88FC7-1B3C-4C1A-B2AD-806C80A229CA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1=DAP, 
+2=CBD, 
+3=DOY</t>
         </r>
       </text>
     </comment>
@@ -1399,6 +1611,33 @@
         </r>
       </text>
     </comment>
+    <comment ref="H111" authorId="0" shapeId="0" xr:uid="{E42FB3C9-FB0C-4C16-87D8-0D36A5C193A8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tillage scenario:
+0=No tillage considered
+1=Tillage is considered
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A113" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000037000000}">
       <text>
         <r>
@@ -1426,6 +1665,32 @@
       </text>
     </comment>
     <comment ref="E113" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000038000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1=DAP, 
+2=CBD, 
+3=DOY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H113" authorId="0" shapeId="0" xr:uid="{72003856-ED97-4E71-8FBC-33F221C733C1}">
       <text>
         <r>
           <rPr>
@@ -1702,6 +1967,33 @@
         </r>
       </text>
     </comment>
+    <comment ref="H134" authorId="0" shapeId="0" xr:uid="{76B48C99-1B8D-4B28-A420-B619166C9167}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tillage scenario:
+0=No tillage considered
+1=Tillage is considered
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A136" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000043000000}">
       <text>
         <r>
@@ -1729,6 +2021,32 @@
       </text>
     </comment>
     <comment ref="E136" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000044000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1=DAP, 
+2=CBD, 
+3=DOY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H136" authorId="0" shapeId="0" xr:uid="{CCF73A1D-65E9-48C7-AEFD-9AB5C1069F0B}">
       <text>
         <r>
           <rPr>
@@ -2005,6 +2323,33 @@
         </r>
       </text>
     </comment>
+    <comment ref="H157" authorId="0" shapeId="0" xr:uid="{DD7C51AE-CBF9-4D39-B957-986D2C7A7409}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tillage scenario:
+0=No tillage considered
+1=Tillage is considered
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A159" authorId="0" shapeId="0" xr:uid="{8AE9910D-1758-445B-B59A-A7D74CE948C6}">
       <text>
         <r>
@@ -2032,6 +2377,32 @@
       </text>
     </comment>
     <comment ref="E159" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000050000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1=DAP, 
+2=CBD, 
+3=DOY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H159" authorId="0" shapeId="0" xr:uid="{CC6232AC-8D0B-484D-8297-F2E5116AA2D0}">
       <text>
         <r>
           <rPr>
@@ -2308,6 +2679,33 @@
         </r>
       </text>
     </comment>
+    <comment ref="H180" authorId="0" shapeId="0" xr:uid="{D757E0F0-6201-49FA-8E28-83DEF5133E5E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tillage scenario:
+0=No tillage considered
+1=Tillage is considered
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A182" authorId="0" shapeId="0" xr:uid="{8CC83427-C6A8-4303-BBD2-EB584C000958}">
       <text>
         <r>
@@ -2335,6 +2733,32 @@
       </text>
     </comment>
     <comment ref="E182" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005C000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1=DAP, 
+2=CBD, 
+3=DOY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H182" authorId="0" shapeId="0" xr:uid="{93429C49-ED4D-492B-BAE9-3668666A36A0}">
       <text>
         <r>
           <rPr>
@@ -2611,6 +3035,33 @@
         </r>
       </text>
     </comment>
+    <comment ref="H203" authorId="0" shapeId="0" xr:uid="{FDFE2857-C6B9-4265-8325-73C7CBBB29A8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tillage scenario:
+0=No tillage considered
+1=Tillage is considered
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A205" authorId="0" shapeId="0" xr:uid="{A714FB6C-A2C9-4551-B628-909713BA2824}">
       <text>
         <r>
@@ -2638,6 +3089,32 @@
       </text>
     </comment>
     <comment ref="E205" authorId="0" shapeId="0" xr:uid="{3FC61E12-137F-46AF-8B34-46FC331E06CE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1=DAP, 
+2=CBD, 
+3=DOY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H205" authorId="0" shapeId="0" xr:uid="{8CFFD5F9-D684-41D9-8F71-ECD94643C7E1}">
       <text>
         <r>
           <rPr>
@@ -2914,6 +3391,33 @@
         </r>
       </text>
     </comment>
+    <comment ref="H226" authorId="0" shapeId="0" xr:uid="{E5090E73-D61D-4528-8E3A-D32D29D704D7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tillage scenario:
+0=No tillage considered
+1=Tillage is considered
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A228" authorId="0" shapeId="0" xr:uid="{31D39C17-7BC6-4A29-A40F-6F2FFD2C6DB7}">
       <text>
         <r>
@@ -2941,6 +3445,32 @@
       </text>
     </comment>
     <comment ref="E228" authorId="0" shapeId="0" xr:uid="{73E04697-14A6-41F4-9714-53B563E515F9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1=DAP, 
+2=CBD, 
+3=DOY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H228" authorId="0" shapeId="0" xr:uid="{ABE97212-F586-451E-8B40-2A65D3573C07}">
       <text>
         <r>
           <rPr>
@@ -3217,6 +3747,33 @@
         </r>
       </text>
     </comment>
+    <comment ref="H249" authorId="0" shapeId="0" xr:uid="{E54EE4E6-A6CA-49BA-BA65-6A201C7E9597}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tillage scenario:
+0=No tillage considered
+1=Tillage is considered
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A251" authorId="0" shapeId="0" xr:uid="{6F8979A5-03B5-4280-8696-433BF32F277C}">
       <text>
         <r>
@@ -3244,6 +3801,32 @@
       </text>
     </comment>
     <comment ref="E251" authorId="0" shapeId="0" xr:uid="{A50C8620-3A56-4091-A0F9-0FA804C8427A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>afshin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1=DAP, 
+2=CBD, 
+3=DOY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H251" authorId="0" shapeId="0" xr:uid="{89075A53-1094-45C1-BD14-2E489553BFBD}">
       <text>
         <r>
           <rPr>
@@ -3274,7 +3857,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="71">
   <si>
     <t>water = 0   for potential production</t>
   </si>
@@ -3464,6 +4047,30 @@
   <si>
     <t>achille_automatic_3N_wheat</t>
   </si>
+  <si>
+    <t>Frac</t>
+  </si>
+  <si>
+    <t>Number of tillages =</t>
+  </si>
+  <si>
+    <t>tillage =</t>
+  </si>
+  <si>
+    <t>NSTBLCON</t>
+  </si>
+  <si>
+    <t>g N kg -1</t>
+  </si>
+  <si>
+    <t>kg m-2</t>
+  </si>
+  <si>
+    <t>Tillage number</t>
+  </si>
+  <si>
+    <t>(#)</t>
+  </si>
 </sst>
 </file>
 
@@ -3565,7 +4172,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3611,6 +4218,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3760,7 +4373,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3850,12 +4463,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3885,6 +4496,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="34">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
@@ -4293,9 +4914,9 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:X3956"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L255" sqref="L255"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4307,8 +4928,10 @@
     <col min="5" max="5" width="27.81640625" customWidth="1"/>
     <col min="6" max="6" width="10.453125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="10.1796875" customWidth="1"/>
-    <col min="9" max="12" width="10.453125" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="12" width="10.453125" customWidth="1"/>
     <col min="14" max="14" width="25.453125" customWidth="1"/>
     <col min="16" max="16" width="10.453125" customWidth="1"/>
   </cols>
@@ -4553,7 +5176,7 @@
       <c r="P14" s="8"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="47" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="13"/>
@@ -4568,7 +5191,9 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="21"/>
-      <c r="L15" s="5"/>
+      <c r="L15" s="63" t="s">
+        <v>67</v>
+      </c>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
@@ -4607,7 +5232,9 @@
       <c r="K16" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="5"/>
+      <c r="L16" s="64" t="s">
+        <v>66</v>
+      </c>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
@@ -4646,7 +5273,9 @@
       <c r="K17" s="27">
         <v>0.01</v>
       </c>
-      <c r="L17" s="5"/>
+      <c r="L17" s="56">
+        <v>5</v>
+      </c>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
@@ -4686,8 +5315,12 @@
       <c r="G19" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="H19" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="26">
+        <v>0</v>
+      </c>
       <c r="J19" s="8"/>
       <c r="K19" s="21"/>
       <c r="L19" s="5"/>
@@ -4713,8 +5346,12 @@
       <c r="G20" s="26">
         <v>0</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="H20" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="26">
+        <v>0</v>
+      </c>
       <c r="J20" s="8"/>
       <c r="K20" s="21"/>
       <c r="L20" s="5"/>
@@ -4738,8 +5375,12 @@
         <v>0</v>
       </c>
       <c r="G21" s="30"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+      <c r="H21" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="26">
+        <v>1</v>
+      </c>
       <c r="J21" s="8"/>
       <c r="K21" s="21"/>
       <c r="L21" s="5"/>
@@ -4765,9 +5406,15 @@
         <v>44</v>
       </c>
       <c r="G22" s="38"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="H22" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="J22" s="60" t="s">
+        <v>69</v>
+      </c>
       <c r="K22" s="21"/>
       <c r="L22" s="5"/>
       <c r="N22" s="8"/>
@@ -4794,9 +5441,15 @@
         <v>50</v>
       </c>
       <c r="G23" s="38"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="H23" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="60" t="s">
+        <v>70</v>
+      </c>
       <c r="K23" s="21"/>
       <c r="L23" s="5"/>
       <c r="N23" s="8"/>
@@ -4823,9 +5476,15 @@
         <v>0</v>
       </c>
       <c r="G24" s="13"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
+      <c r="H24" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="10">
+        <v>1</v>
+      </c>
       <c r="K24" s="21"/>
       <c r="L24" s="5"/>
       <c r="N24" s="8"/>
@@ -4852,9 +5511,15 @@
         <v>0</v>
       </c>
       <c r="G25" s="13"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="H25" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="10">
+        <v>2</v>
+      </c>
       <c r="K25" s="21"/>
       <c r="L25" s="5"/>
       <c r="N25" s="8"/>
@@ -4881,9 +5546,15 @@
         <v>0</v>
       </c>
       <c r="G26" s="13"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
+      <c r="H26" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="10">
+        <v>3</v>
+      </c>
       <c r="K26" s="21"/>
       <c r="L26" s="5"/>
       <c r="N26" s="8"/>
@@ -4910,9 +5581,15 @@
         <v>0</v>
       </c>
       <c r="G27" s="13"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
+      <c r="H27" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="10">
+        <v>4</v>
+      </c>
       <c r="K27" s="21"/>
       <c r="L27" s="5"/>
       <c r="N27" s="8"/>
@@ -4939,9 +5616,15 @@
         <v>0</v>
       </c>
       <c r="G28" s="13"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+      <c r="H28" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="10">
+        <v>5</v>
+      </c>
       <c r="K28" s="21"/>
       <c r="L28" s="5"/>
       <c r="N28" s="8"/>
@@ -4968,9 +5651,15 @@
         <v>0</v>
       </c>
       <c r="G29" s="13"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
+      <c r="H29" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="10">
+        <v>6</v>
+      </c>
       <c r="K29" s="21"/>
       <c r="L29" s="5"/>
       <c r="N29" s="8"/>
@@ -4997,9 +5686,15 @@
         <v>0</v>
       </c>
       <c r="G30" s="13"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
+      <c r="H30" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30" s="10">
+        <v>7</v>
+      </c>
       <c r="K30" s="21"/>
       <c r="L30" s="5"/>
       <c r="N30" s="8"/>
@@ -5026,9 +5721,15 @@
         <v>0</v>
       </c>
       <c r="G31" s="13"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
+      <c r="H31" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" s="10">
+        <v>8</v>
+      </c>
       <c r="K31" s="21"/>
       <c r="L31" s="5"/>
       <c r="N31" s="8"/>
@@ -5055,9 +5756,15 @@
         <v>0</v>
       </c>
       <c r="G32" s="13"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
+      <c r="H32" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" s="10">
+        <v>9</v>
+      </c>
       <c r="K32" s="21"/>
       <c r="L32" s="5"/>
       <c r="N32" s="8"/>
@@ -5084,10 +5791,16 @@
         <v>0</v>
       </c>
       <c r="G33" s="44"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="46"/>
+      <c r="H33" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" s="10">
+        <v>10</v>
+      </c>
+      <c r="K33" s="45"/>
       <c r="L33" s="5"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
@@ -5164,7 +5877,7 @@
       <c r="X37" s="8"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="47" t="s">
         <v>51</v>
       </c>
       <c r="B38" s="13"/>
@@ -5179,7 +5892,9 @@
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="21"/>
-      <c r="L38" s="5"/>
+      <c r="L38" s="63" t="s">
+        <v>67</v>
+      </c>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
@@ -5226,7 +5941,9 @@
       <c r="K39" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="L39" s="5"/>
+      <c r="L39" s="64" t="s">
+        <v>66</v>
+      </c>
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
@@ -5273,7 +5990,9 @@
       <c r="K40" s="27">
         <v>0.64892767691432707</v>
       </c>
-      <c r="L40" s="5"/>
+      <c r="L40" s="56">
+        <v>5</v>
+      </c>
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
       <c r="P40" s="10"/>
@@ -5329,8 +6048,12 @@
       <c r="G42" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
+      <c r="H42" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="I42" s="26">
+        <v>0</v>
+      </c>
       <c r="J42" s="8"/>
       <c r="K42" s="21"/>
       <c r="L42" s="5"/>
@@ -5364,8 +6087,12 @@
       <c r="G43" s="26">
         <v>0.25</v>
       </c>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
+      <c r="H43" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="I43" s="26">
+        <v>0</v>
+      </c>
       <c r="J43" s="8"/>
       <c r="K43" s="21"/>
       <c r="L43" s="5"/>
@@ -5397,8 +6124,12 @@
         <v>1</v>
       </c>
       <c r="G44" s="30"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
+      <c r="H44" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="I44" s="26">
+        <v>1</v>
+      </c>
       <c r="J44" s="8"/>
       <c r="K44" s="21"/>
       <c r="L44" s="5"/>
@@ -5432,9 +6163,15 @@
         <v>44</v>
       </c>
       <c r="G45" s="38"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
+      <c r="H45" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="J45" s="60" t="s">
+        <v>69</v>
+      </c>
       <c r="K45" s="21"/>
       <c r="L45" s="5"/>
       <c r="N45" s="8"/>
@@ -5469,9 +6206,15 @@
         <v>50</v>
       </c>
       <c r="G46" s="38"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
+      <c r="H46" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="I46" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="J46" s="60" t="s">
+        <v>70</v>
+      </c>
       <c r="K46" s="21"/>
       <c r="L46" s="5"/>
       <c r="N46" s="8"/>
@@ -5506,9 +6249,15 @@
         <v>10</v>
       </c>
       <c r="G47" s="13"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
+      <c r="H47" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I47" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J47" s="10">
+        <v>1</v>
+      </c>
       <c r="K47" s="21"/>
       <c r="L47" s="5"/>
       <c r="N47" s="8"/>
@@ -5543,9 +6292,15 @@
         <v>25</v>
       </c>
       <c r="G48" s="13"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
+      <c r="H48" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I48" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J48" s="10">
+        <v>2</v>
+      </c>
       <c r="K48" s="21"/>
       <c r="L48" s="5"/>
       <c r="N48" s="8"/>
@@ -5580,9 +6335,15 @@
         <v>40</v>
       </c>
       <c r="G49" s="13"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
+      <c r="H49" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I49" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J49" s="10">
+        <v>3</v>
+      </c>
       <c r="K49" s="21"/>
       <c r="L49" s="5"/>
       <c r="N49" s="8"/>
@@ -5617,9 +6378,15 @@
         <v>30</v>
       </c>
       <c r="G50" s="13"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
+      <c r="H50" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I50" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J50" s="10">
+        <v>4</v>
+      </c>
       <c r="K50" s="21"/>
       <c r="L50" s="5"/>
       <c r="N50" s="8"/>
@@ -5654,9 +6421,15 @@
         <v>5</v>
       </c>
       <c r="G51" s="13"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
+      <c r="H51" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I51" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J51" s="10">
+        <v>5</v>
+      </c>
       <c r="K51" s="21"/>
       <c r="L51" s="5"/>
       <c r="N51" s="8"/>
@@ -5691,9 +6464,15 @@
         <v>18</v>
       </c>
       <c r="G52" s="13"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
+      <c r="H52" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I52" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J52" s="10">
+        <v>6</v>
+      </c>
       <c r="K52" s="21"/>
       <c r="L52" s="5"/>
       <c r="N52" s="8"/>
@@ -5728,9 +6507,15 @@
         <v>0</v>
       </c>
       <c r="G53" s="13"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
+      <c r="H53" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I53" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J53" s="10">
+        <v>7</v>
+      </c>
       <c r="K53" s="21"/>
       <c r="L53" s="5"/>
       <c r="N53" s="8"/>
@@ -5765,9 +6550,15 @@
         <v>0</v>
       </c>
       <c r="G54" s="13"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
+      <c r="H54" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I54" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J54" s="10">
+        <v>8</v>
+      </c>
       <c r="K54" s="21"/>
       <c r="L54" s="5"/>
       <c r="N54" s="8"/>
@@ -5802,9 +6593,15 @@
         <v>0</v>
       </c>
       <c r="G55" s="13"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
+      <c r="H55" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I55" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J55" s="10">
+        <v>9</v>
+      </c>
       <c r="K55" s="21"/>
       <c r="L55" s="5"/>
       <c r="N55" s="8"/>
@@ -5839,10 +6636,16 @@
         <v>0</v>
       </c>
       <c r="G56" s="44"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="45"/>
-      <c r="J56" s="45"/>
-      <c r="K56" s="46"/>
+      <c r="H56" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I56" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J56" s="10">
+        <v>10</v>
+      </c>
+      <c r="K56" s="45"/>
       <c r="L56" s="5"/>
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
@@ -5951,7 +6754,7 @@
       <c r="X60" s="8"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A61" s="49" t="s">
+      <c r="A61" s="47" t="s">
         <v>52</v>
       </c>
       <c r="B61" s="13"/>
@@ -5966,7 +6769,9 @@
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="21"/>
-      <c r="L61" s="5"/>
+      <c r="L61" s="63" t="s">
+        <v>67</v>
+      </c>
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
       <c r="P61" s="8"/>
@@ -6013,7 +6818,9 @@
       <c r="K62" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="L62" s="5"/>
+      <c r="L62" s="64" t="s">
+        <v>66</v>
+      </c>
       <c r="N62" s="9"/>
       <c r="O62" s="9"/>
       <c r="P62" s="9"/>
@@ -6036,7 +6843,7 @@
       <c r="C63" s="26">
         <v>1</v>
       </c>
-      <c r="D63" s="47">
+      <c r="D63" s="46">
         <v>67</v>
       </c>
       <c r="E63" s="26">
@@ -6060,7 +6867,9 @@
       <c r="K63" s="27">
         <v>1.7658476878487881</v>
       </c>
-      <c r="L63" s="5"/>
+      <c r="L63" s="56">
+        <v>5</v>
+      </c>
       <c r="N63" s="8"/>
       <c r="O63" s="8"/>
       <c r="P63" s="10"/>
@@ -6116,8 +6925,12 @@
       <c r="G65" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
+      <c r="H65" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="I65" s="26">
+        <v>0</v>
+      </c>
       <c r="J65" s="8"/>
       <c r="K65" s="21"/>
       <c r="L65" s="5"/>
@@ -6151,8 +6964,12 @@
       <c r="G66" s="26">
         <v>0</v>
       </c>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
+      <c r="H66" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="I66" s="26">
+        <v>0</v>
+      </c>
       <c r="J66" s="8"/>
       <c r="K66" s="21"/>
       <c r="L66" s="5"/>
@@ -6184,8 +7001,12 @@
         <v>0</v>
       </c>
       <c r="G67" s="30"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
+      <c r="H67" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="I67" s="26">
+        <v>1</v>
+      </c>
       <c r="J67" s="8"/>
       <c r="K67" s="21"/>
       <c r="L67" s="5"/>
@@ -6219,9 +7040,15 @@
         <v>44</v>
       </c>
       <c r="G68" s="38"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
+      <c r="H68" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="I68" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="J68" s="60" t="s">
+        <v>69</v>
+      </c>
       <c r="K68" s="21"/>
       <c r="L68" s="5"/>
       <c r="N68" s="8"/>
@@ -6256,9 +7083,15 @@
         <v>50</v>
       </c>
       <c r="G69" s="38"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="48"/>
-      <c r="J69" s="8"/>
+      <c r="H69" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="I69" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="J69" s="60" t="s">
+        <v>70</v>
+      </c>
       <c r="K69" s="21"/>
       <c r="L69" s="5"/>
       <c r="N69" s="8"/>
@@ -6293,9 +7126,15 @@
         <v>0</v>
       </c>
       <c r="G70" s="13"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
+      <c r="H70" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I70" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J70" s="10">
+        <v>1</v>
+      </c>
       <c r="K70" s="21"/>
       <c r="L70" s="5"/>
       <c r="N70" s="8"/>
@@ -6330,9 +7169,15 @@
         <v>0</v>
       </c>
       <c r="G71" s="13"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
+      <c r="H71" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I71" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J71" s="10">
+        <v>2</v>
+      </c>
       <c r="K71" s="21"/>
       <c r="L71" s="5"/>
       <c r="N71" s="8"/>
@@ -6367,9 +7212,15 @@
         <v>0</v>
       </c>
       <c r="G72" s="13"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
+      <c r="H72" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I72" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J72" s="10">
+        <v>3</v>
+      </c>
       <c r="K72" s="21"/>
       <c r="L72" s="5"/>
       <c r="N72" s="8"/>
@@ -6404,9 +7255,15 @@
         <v>0</v>
       </c>
       <c r="G73" s="13"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
+      <c r="H73" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I73" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J73" s="10">
+        <v>4</v>
+      </c>
       <c r="K73" s="21"/>
       <c r="L73" s="5"/>
       <c r="N73" s="8"/>
@@ -6441,9 +7298,15 @@
         <v>0</v>
       </c>
       <c r="G74" s="13"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
+      <c r="H74" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I74" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J74" s="10">
+        <v>5</v>
+      </c>
       <c r="K74" s="21"/>
       <c r="L74" s="5"/>
       <c r="N74" s="8"/>
@@ -6478,9 +7341,15 @@
         <v>0</v>
       </c>
       <c r="G75" s="13"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
+      <c r="H75" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I75" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J75" s="10">
+        <v>6</v>
+      </c>
       <c r="K75" s="21"/>
       <c r="L75" s="5"/>
       <c r="N75" s="8"/>
@@ -6515,9 +7384,15 @@
         <v>0</v>
       </c>
       <c r="G76" s="13"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
+      <c r="H76" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I76" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J76" s="10">
+        <v>7</v>
+      </c>
       <c r="K76" s="21"/>
       <c r="L76" s="5"/>
       <c r="N76" s="8"/>
@@ -6552,9 +7427,15 @@
         <v>0</v>
       </c>
       <c r="G77" s="13"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
+      <c r="H77" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I77" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J77" s="10">
+        <v>8</v>
+      </c>
       <c r="K77" s="21"/>
       <c r="L77" s="5"/>
       <c r="N77" s="8"/>
@@ -6589,9 +7470,15 @@
         <v>0</v>
       </c>
       <c r="G78" s="13"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
+      <c r="H78" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I78" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J78" s="10">
+        <v>9</v>
+      </c>
       <c r="K78" s="21"/>
       <c r="L78" s="5"/>
       <c r="N78" s="8"/>
@@ -6626,10 +7513,16 @@
         <v>0</v>
       </c>
       <c r="G79" s="44"/>
-      <c r="H79" s="45"/>
-      <c r="I79" s="45"/>
-      <c r="J79" s="45"/>
-      <c r="K79" s="46"/>
+      <c r="H79" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I79" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J79" s="10">
+        <v>10</v>
+      </c>
+      <c r="K79" s="45"/>
       <c r="L79" s="5"/>
       <c r="N79" s="8"/>
       <c r="O79" s="8"/>
@@ -6679,7 +7572,7 @@
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
       <c r="F82" s="16"/>
-      <c r="G82" s="50"/>
+      <c r="G82" s="48"/>
       <c r="L82" s="5"/>
     </row>
     <row r="83" spans="1:24" ht="13" x14ac:dyDescent="0.3">
@@ -6693,20 +7586,22 @@
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
       <c r="F83" s="13"/>
-      <c r="G83" s="51"/>
+      <c r="G83" s="49"/>
       <c r="L83" s="5"/>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A84" s="49" t="s">
+      <c r="A84" s="47" t="s">
         <v>53</v>
       </c>
       <c r="B84" s="13"/>
-      <c r="C84" s="52"/>
+      <c r="C84" s="50"/>
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
       <c r="F84" s="13"/>
-      <c r="G84" s="51"/>
-      <c r="L84" s="5"/>
+      <c r="G84" s="49"/>
+      <c r="L84" s="63" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="85" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A85" s="20" t="s">
@@ -6742,7 +7637,9 @@
       <c r="K85" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L85" s="5"/>
+      <c r="L85" s="64" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="25">
@@ -6763,11 +7660,13 @@
       <c r="F86" s="10">
         <v>200</v>
       </c>
-      <c r="G86" s="53"/>
+      <c r="G86" s="51"/>
       <c r="J86">
         <v>1</v>
       </c>
-      <c r="L86" s="5"/>
+      <c r="L86" s="56">
+        <v>5</v>
+      </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="28"/>
@@ -6776,7 +7675,7 @@
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
       <c r="F87" s="13"/>
-      <c r="G87" s="51"/>
+      <c r="G87" s="49"/>
       <c r="L87" s="5"/>
     </row>
     <row r="88" spans="1:24" ht="13" x14ac:dyDescent="0.3">
@@ -6794,9 +7693,17 @@
       <c r="F88" s="26">
         <v>2</v>
       </c>
-      <c r="G88" s="54" t="s">
+      <c r="G88" s="52" t="s">
         <v>36</v>
       </c>
+      <c r="H88" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="I88" s="26">
+        <v>0</v>
+      </c>
+      <c r="J88" s="8"/>
+      <c r="K88" s="21"/>
       <c r="L88" s="5"/>
     </row>
     <row r="89" spans="1:24" ht="13" x14ac:dyDescent="0.3">
@@ -6817,6 +7724,14 @@
       <c r="G89" s="27">
         <v>0.5</v>
       </c>
+      <c r="H89" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="I89" s="26">
+        <v>0</v>
+      </c>
+      <c r="J89" s="8"/>
+      <c r="K89" s="21"/>
       <c r="L89" s="5"/>
     </row>
     <row r="90" spans="1:24" ht="13" x14ac:dyDescent="0.3">
@@ -6834,7 +7749,15 @@
       <c r="F90" s="26">
         <v>0</v>
       </c>
-      <c r="G90" s="55"/>
+      <c r="G90" s="53"/>
+      <c r="H90" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="I90" s="26">
+        <v>1</v>
+      </c>
+      <c r="J90" s="8"/>
+      <c r="K90" s="21"/>
       <c r="L90" s="5"/>
     </row>
     <row r="91" spans="1:24" ht="13" x14ac:dyDescent="0.3">
@@ -6854,7 +7777,17 @@
       <c r="F91" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="G91" s="56"/>
+      <c r="G91" s="54"/>
+      <c r="H91" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="I91" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="J91" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="K91" s="21"/>
       <c r="L91" s="5"/>
     </row>
     <row r="92" spans="1:24" ht="13" x14ac:dyDescent="0.3">
@@ -6876,55 +7809,95 @@
       <c r="F92" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="G92" s="56"/>
+      <c r="G92" s="54"/>
+      <c r="H92" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="I92" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="J92" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="K92" s="21"/>
       <c r="L92" s="5"/>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>1</v>
       </c>
-      <c r="B93" s="57">
+      <c r="B93" s="55">
         <v>1</v>
       </c>
-      <c r="C93" s="57">
+      <c r="C93" s="55">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D93" s="57">
+      <c r="D93" s="55">
         <v>2</v>
       </c>
-      <c r="E93" s="58"/>
+      <c r="E93" s="56"/>
       <c r="F93" s="26"/>
-      <c r="G93" s="51"/>
+      <c r="G93" s="49"/>
+      <c r="H93" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I93" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J93" s="10">
+        <v>1</v>
+      </c>
+      <c r="K93" s="21"/>
       <c r="L93" s="5"/>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>2</v>
       </c>
-      <c r="B94" s="57">
+      <c r="B94" s="55">
         <v>10</v>
       </c>
-      <c r="C94" s="57">
+      <c r="C94" s="55">
         <v>3.45</v>
       </c>
-      <c r="D94" s="57">
+      <c r="D94" s="55">
         <v>10</v>
       </c>
       <c r="E94" s="26"/>
       <c r="F94" s="26"/>
-      <c r="G94" s="51"/>
+      <c r="G94" s="49"/>
+      <c r="H94" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I94" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J94" s="10">
+        <v>2</v>
+      </c>
+      <c r="K94" s="21"/>
       <c r="L94" s="5"/>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>3</v>
       </c>
-      <c r="B95" s="57"/>
-      <c r="C95" s="57"/>
-      <c r="D95" s="57"/>
+      <c r="B95" s="55"/>
+      <c r="C95" s="55"/>
+      <c r="D95" s="55"/>
       <c r="E95" s="26"/>
       <c r="F95" s="26"/>
-      <c r="G95" s="51"/>
+      <c r="G95" s="49"/>
+      <c r="H95" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I95" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J95" s="10">
+        <v>3</v>
+      </c>
+      <c r="K95" s="21"/>
       <c r="L95" s="5"/>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.25">
@@ -6936,7 +7909,17 @@
       <c r="D96" s="10"/>
       <c r="E96" s="26"/>
       <c r="F96" s="26"/>
-      <c r="G96" s="51"/>
+      <c r="G96" s="49"/>
+      <c r="H96" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I96" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J96" s="10">
+        <v>4</v>
+      </c>
+      <c r="K96" s="21"/>
       <c r="L96" s="5"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -6948,7 +7931,17 @@
       <c r="D97" s="10"/>
       <c r="E97" s="26"/>
       <c r="F97" s="26"/>
-      <c r="G97" s="51"/>
+      <c r="G97" s="49"/>
+      <c r="H97" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I97" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J97" s="10">
+        <v>5</v>
+      </c>
+      <c r="K97" s="21"/>
       <c r="L97" s="5"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -6960,7 +7953,17 @@
       <c r="D98" s="10"/>
       <c r="E98" s="26"/>
       <c r="F98" s="26"/>
-      <c r="G98" s="51"/>
+      <c r="G98" s="49"/>
+      <c r="H98" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I98" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J98" s="10">
+        <v>6</v>
+      </c>
+      <c r="K98" s="21"/>
       <c r="L98" s="5"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -6972,7 +7975,17 @@
       <c r="D99" s="10"/>
       <c r="E99" s="26"/>
       <c r="F99" s="26"/>
-      <c r="G99" s="51"/>
+      <c r="G99" s="49"/>
+      <c r="H99" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I99" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J99" s="10">
+        <v>7</v>
+      </c>
+      <c r="K99" s="21"/>
       <c r="L99" s="5"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -6984,7 +7997,17 @@
       <c r="D100" s="10"/>
       <c r="E100" s="26"/>
       <c r="F100" s="26"/>
-      <c r="G100" s="51"/>
+      <c r="G100" s="49"/>
+      <c r="H100" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I100" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J100" s="10">
+        <v>8</v>
+      </c>
+      <c r="K100" s="21"/>
       <c r="L100" s="5"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -6996,19 +8019,39 @@
       <c r="D101" s="10"/>
       <c r="E101" s="26"/>
       <c r="F101" s="26"/>
-      <c r="G101" s="51"/>
+      <c r="G101" s="49"/>
+      <c r="H101" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I101" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J101" s="10">
+        <v>9</v>
+      </c>
+      <c r="K101" s="21"/>
       <c r="L101" s="5"/>
     </row>
     <row r="102" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="42">
         <v>10</v>
       </c>
-      <c r="B102" s="59"/>
-      <c r="C102" s="59"/>
-      <c r="D102" s="60"/>
+      <c r="B102" s="57"/>
+      <c r="C102" s="57"/>
+      <c r="D102" s="58"/>
       <c r="E102" s="43"/>
       <c r="F102" s="43"/>
-      <c r="G102" s="61"/>
+      <c r="G102" s="59"/>
+      <c r="H102" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I102" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J102" s="10">
+        <v>10</v>
+      </c>
+      <c r="K102" s="45"/>
       <c r="L102" s="5"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -7052,7 +8095,7 @@
       <c r="L106" s="5"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="49" t="s">
+      <c r="A107" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B107" s="13"/>
@@ -7067,7 +8110,9 @@
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="21"/>
-      <c r="L107" s="5"/>
+      <c r="L107" s="63" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="108" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A108" s="19" t="s">
@@ -7103,7 +8148,9 @@
       <c r="K108" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="L108" s="5"/>
+      <c r="L108" s="64" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="25">
@@ -7115,7 +8162,7 @@
       <c r="C109" s="26">
         <v>1</v>
       </c>
-      <c r="D109" s="47">
+      <c r="D109" s="46">
         <v>67</v>
       </c>
       <c r="E109" s="26">
@@ -7139,7 +8186,9 @@
       <c r="K109" s="27">
         <v>1.7658476878487881</v>
       </c>
-      <c r="L109" s="5"/>
+      <c r="L109" s="56">
+        <v>5</v>
+      </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="28"/>
@@ -7173,8 +8222,12 @@
       <c r="G111" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8"/>
+      <c r="H111" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="I111" s="26">
+        <v>0</v>
+      </c>
       <c r="J111" s="8"/>
       <c r="K111" s="21"/>
       <c r="L111" s="5"/>
@@ -7197,8 +8250,12 @@
       <c r="G112" s="26">
         <v>0</v>
       </c>
-      <c r="H112" s="8"/>
-      <c r="I112" s="8"/>
+      <c r="H112" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="I112" s="26">
+        <v>0</v>
+      </c>
       <c r="J112" s="8"/>
       <c r="K112" s="21"/>
       <c r="L112" s="5"/>
@@ -7219,8 +8276,12 @@
         <v>1</v>
       </c>
       <c r="G113" s="30"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="8"/>
+      <c r="H113" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="I113" s="26">
+        <v>1</v>
+      </c>
       <c r="J113" s="8"/>
       <c r="K113" s="21"/>
       <c r="L113" s="5"/>
@@ -7243,9 +8304,15 @@
         <v>44</v>
       </c>
       <c r="G114" s="38"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="8"/>
-      <c r="J114" s="8"/>
+      <c r="H114" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="I114" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="J114" s="60" t="s">
+        <v>69</v>
+      </c>
       <c r="K114" s="21"/>
       <c r="L114" s="5"/>
     </row>
@@ -7269,9 +8336,15 @@
         <v>50</v>
       </c>
       <c r="G115" s="38"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="48"/>
-      <c r="J115" s="8"/>
+      <c r="H115" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="I115" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="J115" s="60" t="s">
+        <v>70</v>
+      </c>
       <c r="K115" s="21"/>
       <c r="L115" s="5"/>
     </row>
@@ -7295,9 +8368,15 @@
         <v>10</v>
       </c>
       <c r="G116" s="13"/>
-      <c r="H116" s="8"/>
-      <c r="I116" s="8"/>
-      <c r="J116" s="8"/>
+      <c r="H116" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I116" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J116" s="10">
+        <v>1</v>
+      </c>
       <c r="K116" s="21"/>
       <c r="L116" s="5"/>
     </row>
@@ -7321,9 +8400,15 @@
         <v>25</v>
       </c>
       <c r="G117" s="13"/>
-      <c r="H117" s="8"/>
-      <c r="I117" s="8"/>
-      <c r="J117" s="8"/>
+      <c r="H117" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I117" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J117" s="10">
+        <v>2</v>
+      </c>
       <c r="K117" s="21"/>
       <c r="L117" s="5"/>
     </row>
@@ -7347,9 +8432,15 @@
         <v>40</v>
       </c>
       <c r="G118" s="13"/>
-      <c r="H118" s="8"/>
-      <c r="I118" s="8"/>
-      <c r="J118" s="8"/>
+      <c r="H118" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I118" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J118" s="10">
+        <v>3</v>
+      </c>
       <c r="K118" s="21"/>
       <c r="L118" s="5"/>
     </row>
@@ -7373,9 +8464,15 @@
         <v>30</v>
       </c>
       <c r="G119" s="13"/>
-      <c r="H119" s="8"/>
-      <c r="I119" s="8"/>
-      <c r="J119" s="8"/>
+      <c r="H119" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I119" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J119" s="10">
+        <v>4</v>
+      </c>
       <c r="K119" s="21"/>
       <c r="L119" s="5"/>
     </row>
@@ -7399,9 +8496,15 @@
         <v>5</v>
       </c>
       <c r="G120" s="13"/>
-      <c r="H120" s="8"/>
-      <c r="I120" s="8"/>
-      <c r="J120" s="8"/>
+      <c r="H120" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I120" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J120" s="10">
+        <v>5</v>
+      </c>
       <c r="K120" s="21"/>
       <c r="L120" s="5"/>
     </row>
@@ -7425,9 +8528,15 @@
         <v>18</v>
       </c>
       <c r="G121" s="13"/>
-      <c r="H121" s="8"/>
-      <c r="I121" s="8"/>
-      <c r="J121" s="8"/>
+      <c r="H121" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I121" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J121" s="10">
+        <v>6</v>
+      </c>
       <c r="K121" s="21"/>
       <c r="L121" s="5"/>
     </row>
@@ -7451,9 +8560,15 @@
         <v>0</v>
       </c>
       <c r="G122" s="13"/>
-      <c r="H122" s="8"/>
-      <c r="I122" s="8"/>
-      <c r="J122" s="8"/>
+      <c r="H122" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I122" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J122" s="10">
+        <v>7</v>
+      </c>
       <c r="K122" s="21"/>
       <c r="L122" s="5"/>
     </row>
@@ -7477,9 +8592,15 @@
         <v>0</v>
       </c>
       <c r="G123" s="13"/>
-      <c r="H123" s="8"/>
-      <c r="I123" s="8"/>
-      <c r="J123" s="8"/>
+      <c r="H123" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I123" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J123" s="10">
+        <v>8</v>
+      </c>
       <c r="K123" s="21"/>
       <c r="L123" s="5"/>
     </row>
@@ -7503,9 +8624,15 @@
         <v>0</v>
       </c>
       <c r="G124" s="13"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="8"/>
-      <c r="J124" s="8"/>
+      <c r="H124" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I124" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J124" s="10">
+        <v>9</v>
+      </c>
       <c r="K124" s="21"/>
       <c r="L124" s="5"/>
     </row>
@@ -7529,10 +8656,16 @@
         <v>0</v>
       </c>
       <c r="G125" s="44"/>
-      <c r="H125" s="45"/>
-      <c r="I125" s="45"/>
-      <c r="J125" s="45"/>
-      <c r="K125" s="46"/>
+      <c r="H125" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I125" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J125" s="10">
+        <v>10</v>
+      </c>
+      <c r="K125" s="45"/>
       <c r="L125" s="5"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
@@ -7576,7 +8709,7 @@
       <c r="L129" s="5"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="49" t="s">
+      <c r="A130" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B130" s="13"/>
@@ -7591,7 +8724,9 @@
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="21"/>
-      <c r="L130" s="5"/>
+      <c r="L130" s="63" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="131" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A131" s="19" t="s">
@@ -7627,7 +8762,9 @@
       <c r="K131" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="L131" s="5"/>
+      <c r="L131" s="64" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="25">
@@ -7639,7 +8776,7 @@
       <c r="C132" s="26">
         <v>1</v>
       </c>
-      <c r="D132" s="47">
+      <c r="D132" s="46">
         <v>67</v>
       </c>
       <c r="E132" s="26">
@@ -7663,7 +8800,9 @@
       <c r="K132" s="27">
         <v>1.7658476878487881</v>
       </c>
-      <c r="L132" s="5"/>
+      <c r="L132" s="56">
+        <v>5</v>
+      </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="28"/>
@@ -7697,8 +8836,12 @@
       <c r="G134" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="H134" s="8"/>
-      <c r="I134" s="8"/>
+      <c r="H134" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="I134" s="26">
+        <v>0</v>
+      </c>
       <c r="J134" s="8"/>
       <c r="K134" s="21"/>
       <c r="L134" s="5"/>
@@ -7721,8 +8864,12 @@
       <c r="G135" s="26">
         <v>0</v>
       </c>
-      <c r="H135" s="8"/>
-      <c r="I135" s="8"/>
+      <c r="H135" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="I135" s="26">
+        <v>0</v>
+      </c>
       <c r="J135" s="8"/>
       <c r="K135" s="21"/>
       <c r="L135" s="5"/>
@@ -7743,8 +8890,12 @@
         <v>3</v>
       </c>
       <c r="G136" s="30"/>
-      <c r="H136" s="8"/>
-      <c r="I136" s="8"/>
+      <c r="H136" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="I136" s="26">
+        <v>1</v>
+      </c>
       <c r="J136" s="8"/>
       <c r="K136" s="21"/>
       <c r="L136" s="5"/>
@@ -7767,9 +8918,15 @@
         <v>44</v>
       </c>
       <c r="G137" s="38"/>
-      <c r="H137" s="8"/>
-      <c r="I137" s="8"/>
-      <c r="J137" s="8"/>
+      <c r="H137" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="I137" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="J137" s="60" t="s">
+        <v>69</v>
+      </c>
       <c r="K137" s="21"/>
       <c r="L137" s="5"/>
     </row>
@@ -7793,9 +8950,15 @@
         <v>50</v>
       </c>
       <c r="G138" s="38"/>
-      <c r="H138" s="8"/>
-      <c r="I138" s="48"/>
-      <c r="J138" s="8"/>
+      <c r="H138" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="I138" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="J138" s="60" t="s">
+        <v>70</v>
+      </c>
       <c r="K138" s="21"/>
       <c r="L138" s="5"/>
     </row>
@@ -7819,9 +8982,15 @@
         <v>10</v>
       </c>
       <c r="G139" s="13"/>
-      <c r="H139" s="8"/>
-      <c r="I139" s="8"/>
-      <c r="J139" s="8"/>
+      <c r="H139" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I139" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J139" s="10">
+        <v>1</v>
+      </c>
       <c r="K139" s="21"/>
       <c r="L139" s="5"/>
     </row>
@@ -7845,9 +9014,15 @@
         <v>25</v>
       </c>
       <c r="G140" s="13"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
+      <c r="H140" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I140" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J140" s="10">
+        <v>2</v>
+      </c>
       <c r="K140" s="21"/>
       <c r="L140" s="5"/>
     </row>
@@ -7871,9 +9046,15 @@
         <v>40</v>
       </c>
       <c r="G141" s="13"/>
-      <c r="H141" s="8"/>
-      <c r="I141" s="8"/>
-      <c r="J141" s="8"/>
+      <c r="H141" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I141" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J141" s="10">
+        <v>3</v>
+      </c>
       <c r="K141" s="21"/>
       <c r="L141" s="5"/>
     </row>
@@ -7897,9 +9078,15 @@
         <v>30</v>
       </c>
       <c r="G142" s="13"/>
-      <c r="H142" s="8"/>
-      <c r="I142" s="8"/>
-      <c r="J142" s="8"/>
+      <c r="H142" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I142" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J142" s="10">
+        <v>4</v>
+      </c>
       <c r="K142" s="21"/>
       <c r="L142" s="5"/>
     </row>
@@ -7923,9 +9110,15 @@
         <v>5</v>
       </c>
       <c r="G143" s="13"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="8"/>
+      <c r="H143" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I143" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J143" s="10">
+        <v>5</v>
+      </c>
       <c r="K143" s="21"/>
       <c r="L143" s="5"/>
     </row>
@@ -7949,9 +9142,15 @@
         <v>18</v>
       </c>
       <c r="G144" s="13"/>
-      <c r="H144" s="8"/>
-      <c r="I144" s="8"/>
-      <c r="J144" s="8"/>
+      <c r="H144" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I144" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J144" s="10">
+        <v>6</v>
+      </c>
       <c r="K144" s="21"/>
       <c r="L144" s="5"/>
     </row>
@@ -7975,9 +9174,15 @@
         <v>0</v>
       </c>
       <c r="G145" s="13"/>
-      <c r="H145" s="8"/>
-      <c r="I145" s="8"/>
-      <c r="J145" s="8"/>
+      <c r="H145" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I145" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J145" s="10">
+        <v>7</v>
+      </c>
       <c r="K145" s="21"/>
       <c r="L145" s="5"/>
     </row>
@@ -8001,9 +9206,15 @@
         <v>0</v>
       </c>
       <c r="G146" s="13"/>
-      <c r="H146" s="8"/>
-      <c r="I146" s="8"/>
-      <c r="J146" s="8"/>
+      <c r="H146" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I146" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J146" s="10">
+        <v>8</v>
+      </c>
       <c r="K146" s="21"/>
       <c r="L146" s="5"/>
     </row>
@@ -8027,9 +9238,15 @@
         <v>0</v>
       </c>
       <c r="G147" s="13"/>
-      <c r="H147" s="8"/>
-      <c r="I147" s="8"/>
-      <c r="J147" s="8"/>
+      <c r="H147" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I147" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J147" s="10">
+        <v>9</v>
+      </c>
       <c r="K147" s="21"/>
       <c r="L147" s="5"/>
     </row>
@@ -8053,10 +9270,16 @@
         <v>0</v>
       </c>
       <c r="G148" s="44"/>
-      <c r="H148" s="45"/>
-      <c r="I148" s="45"/>
-      <c r="J148" s="45"/>
-      <c r="K148" s="46"/>
+      <c r="H148" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I148" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J148" s="10">
+        <v>10</v>
+      </c>
+      <c r="K148" s="45"/>
       <c r="L148" s="5"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
@@ -8100,7 +9323,7 @@
       <c r="L152" s="5"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="49" t="s">
+      <c r="A153" s="47" t="s">
         <v>57</v>
       </c>
       <c r="B153" s="13"/>
@@ -8115,7 +9338,9 @@
       <c r="I153" s="8"/>
       <c r="J153" s="8"/>
       <c r="K153" s="21"/>
-      <c r="L153" s="5"/>
+      <c r="L153" s="63" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="154" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A154" s="19" t="s">
@@ -8151,7 +9376,9 @@
       <c r="K154" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="L154" s="5"/>
+      <c r="L154" s="64" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="25">
@@ -8163,7 +9390,7 @@
       <c r="C155" s="26">
         <v>1</v>
       </c>
-      <c r="D155" s="47">
+      <c r="D155" s="46">
         <v>67</v>
       </c>
       <c r="E155" s="26">
@@ -8187,7 +9414,9 @@
       <c r="K155" s="27">
         <v>1.7658476878487881</v>
       </c>
-      <c r="L155" s="5"/>
+      <c r="L155" s="56">
+        <v>5</v>
+      </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="28"/>
@@ -8221,8 +9450,12 @@
       <c r="G157" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="H157" s="8"/>
-      <c r="I157" s="8"/>
+      <c r="H157" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="I157" s="26">
+        <v>0</v>
+      </c>
       <c r="J157" s="8"/>
       <c r="K157" s="21"/>
       <c r="L157" s="5"/>
@@ -8245,8 +9478,12 @@
       <c r="G158" s="26">
         <v>0</v>
       </c>
-      <c r="H158" s="8"/>
-      <c r="I158" s="8"/>
+      <c r="H158" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="I158" s="26">
+        <v>0</v>
+      </c>
       <c r="J158" s="8"/>
       <c r="K158" s="21"/>
       <c r="L158" s="5"/>
@@ -8267,8 +9504,12 @@
         <v>2</v>
       </c>
       <c r="G159" s="30"/>
-      <c r="H159" s="8"/>
-      <c r="I159" s="8"/>
+      <c r="H159" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="I159" s="26">
+        <v>1</v>
+      </c>
       <c r="J159" s="8"/>
       <c r="K159" s="21"/>
       <c r="L159" s="5"/>
@@ -8291,9 +9532,15 @@
         <v>44</v>
       </c>
       <c r="G160" s="38"/>
-      <c r="H160" s="8"/>
-      <c r="I160" s="8"/>
-      <c r="J160" s="8"/>
+      <c r="H160" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="I160" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="J160" s="60" t="s">
+        <v>69</v>
+      </c>
       <c r="K160" s="21"/>
       <c r="L160" s="5"/>
     </row>
@@ -8317,9 +9564,15 @@
         <v>50</v>
       </c>
       <c r="G161" s="38"/>
-      <c r="H161" s="8"/>
-      <c r="I161" s="48"/>
-      <c r="J161" s="8"/>
+      <c r="H161" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="I161" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="J161" s="60" t="s">
+        <v>70</v>
+      </c>
       <c r="K161" s="21"/>
       <c r="L161" s="5"/>
     </row>
@@ -8343,9 +9596,15 @@
         <v>10</v>
       </c>
       <c r="G162" s="13"/>
-      <c r="H162" s="8"/>
-      <c r="I162" s="8"/>
-      <c r="J162" s="8"/>
+      <c r="H162" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I162" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J162" s="10">
+        <v>1</v>
+      </c>
       <c r="K162" s="21"/>
       <c r="L162" s="5"/>
     </row>
@@ -8369,9 +9628,15 @@
         <v>25</v>
       </c>
       <c r="G163" s="13"/>
-      <c r="H163" s="8"/>
-      <c r="I163" s="8"/>
-      <c r="J163" s="8"/>
+      <c r="H163" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I163" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J163" s="10">
+        <v>2</v>
+      </c>
       <c r="K163" s="21"/>
       <c r="L163" s="5"/>
     </row>
@@ -8395,9 +9660,15 @@
         <v>40</v>
       </c>
       <c r="G164" s="13"/>
-      <c r="H164" s="8"/>
-      <c r="I164" s="8"/>
-      <c r="J164" s="8"/>
+      <c r="H164" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I164" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J164" s="10">
+        <v>3</v>
+      </c>
       <c r="K164" s="21"/>
       <c r="L164" s="5"/>
     </row>
@@ -8421,9 +9692,15 @@
         <v>30</v>
       </c>
       <c r="G165" s="13"/>
-      <c r="H165" s="8"/>
-      <c r="I165" s="8"/>
-      <c r="J165" s="8"/>
+      <c r="H165" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I165" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J165" s="10">
+        <v>4</v>
+      </c>
       <c r="K165" s="21"/>
       <c r="L165" s="5"/>
     </row>
@@ -8447,9 +9724,15 @@
         <v>5</v>
       </c>
       <c r="G166" s="13"/>
-      <c r="H166" s="8"/>
-      <c r="I166" s="8"/>
-      <c r="J166" s="8"/>
+      <c r="H166" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I166" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J166" s="10">
+        <v>5</v>
+      </c>
       <c r="K166" s="21"/>
       <c r="L166" s="5"/>
     </row>
@@ -8473,9 +9756,15 @@
         <v>18</v>
       </c>
       <c r="G167" s="13"/>
-      <c r="H167" s="8"/>
-      <c r="I167" s="8"/>
-      <c r="J167" s="8"/>
+      <c r="H167" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I167" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J167" s="10">
+        <v>6</v>
+      </c>
       <c r="K167" s="21"/>
       <c r="L167" s="5"/>
     </row>
@@ -8499,9 +9788,15 @@
         <v>0</v>
       </c>
       <c r="G168" s="13"/>
-      <c r="H168" s="8"/>
-      <c r="I168" s="8"/>
-      <c r="J168" s="8"/>
+      <c r="H168" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I168" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J168" s="10">
+        <v>7</v>
+      </c>
       <c r="K168" s="21"/>
       <c r="L168" s="5"/>
     </row>
@@ -8525,9 +9820,15 @@
         <v>0</v>
       </c>
       <c r="G169" s="13"/>
-      <c r="H169" s="8"/>
-      <c r="I169" s="8"/>
-      <c r="J169" s="8"/>
+      <c r="H169" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I169" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J169" s="10">
+        <v>8</v>
+      </c>
       <c r="K169" s="21"/>
       <c r="L169" s="5"/>
     </row>
@@ -8551,9 +9852,15 @@
         <v>0</v>
       </c>
       <c r="G170" s="13"/>
-      <c r="H170" s="8"/>
-      <c r="I170" s="8"/>
-      <c r="J170" s="8"/>
+      <c r="H170" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I170" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J170" s="10">
+        <v>9</v>
+      </c>
       <c r="K170" s="21"/>
       <c r="L170" s="5"/>
     </row>
@@ -8577,10 +9884,16 @@
         <v>0</v>
       </c>
       <c r="G171" s="44"/>
-      <c r="H171" s="45"/>
-      <c r="I171" s="45"/>
-      <c r="J171" s="45"/>
-      <c r="K171" s="46"/>
+      <c r="H171" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I171" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J171" s="10">
+        <v>10</v>
+      </c>
+      <c r="K171" s="45"/>
       <c r="L171" s="5"/>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
@@ -8624,7 +9937,7 @@
       <c r="L175" s="5"/>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A176" s="49" t="s">
+      <c r="A176" s="47" t="s">
         <v>58</v>
       </c>
       <c r="B176" s="13"/>
@@ -8639,7 +9952,9 @@
       <c r="I176" s="8"/>
       <c r="J176" s="8"/>
       <c r="K176" s="21"/>
-      <c r="L176" s="5"/>
+      <c r="L176" s="63" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="177" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A177" s="19" t="s">
@@ -8675,7 +9990,9 @@
       <c r="K177" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="L177" s="5"/>
+      <c r="L177" s="64" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="25">
@@ -8687,7 +10004,7 @@
       <c r="C178" s="26">
         <v>1</v>
       </c>
-      <c r="D178" s="47">
+      <c r="D178" s="46">
         <v>67</v>
       </c>
       <c r="E178" s="26">
@@ -8711,7 +10028,9 @@
       <c r="K178" s="27">
         <v>1.7658476878487881</v>
       </c>
-      <c r="L178" s="5"/>
+      <c r="L178" s="56">
+        <v>5</v>
+      </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="28"/>
@@ -8745,8 +10064,12 @@
       <c r="G180" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="H180" s="8"/>
-      <c r="I180" s="8"/>
+      <c r="H180" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="I180" s="26">
+        <v>0</v>
+      </c>
       <c r="J180" s="8"/>
       <c r="K180" s="21"/>
       <c r="L180" s="5"/>
@@ -8769,8 +10092,12 @@
       <c r="G181" s="26">
         <v>0</v>
       </c>
-      <c r="H181" s="8"/>
-      <c r="I181" s="8"/>
+      <c r="H181" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="I181" s="26">
+        <v>0</v>
+      </c>
       <c r="J181" s="8"/>
       <c r="K181" s="21"/>
       <c r="L181" s="5"/>
@@ -8791,8 +10118,12 @@
         <v>4</v>
       </c>
       <c r="G182" s="30"/>
-      <c r="H182" s="8"/>
-      <c r="I182" s="8"/>
+      <c r="H182" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="I182" s="26">
+        <v>1</v>
+      </c>
       <c r="J182" s="8"/>
       <c r="K182" s="21"/>
       <c r="L182" s="5"/>
@@ -8815,9 +10146,15 @@
         <v>44</v>
       </c>
       <c r="G183" s="38"/>
-      <c r="H183" s="8"/>
-      <c r="I183" s="8"/>
-      <c r="J183" s="8"/>
+      <c r="H183" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="I183" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="J183" s="60" t="s">
+        <v>69</v>
+      </c>
       <c r="K183" s="21"/>
       <c r="L183" s="5"/>
     </row>
@@ -8841,9 +10178,15 @@
         <v>50</v>
       </c>
       <c r="G184" s="38"/>
-      <c r="H184" s="8"/>
-      <c r="I184" s="48"/>
-      <c r="J184" s="8"/>
+      <c r="H184" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="I184" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="J184" s="60" t="s">
+        <v>70</v>
+      </c>
       <c r="K184" s="21"/>
       <c r="L184" s="5"/>
     </row>
@@ -8867,9 +10210,15 @@
         <v>1978</v>
       </c>
       <c r="G185" s="13"/>
-      <c r="H185" s="8"/>
-      <c r="I185" s="8"/>
-      <c r="J185" s="8"/>
+      <c r="H185" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I185" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J185" s="10">
+        <v>1</v>
+      </c>
       <c r="K185" s="21"/>
       <c r="L185" s="5"/>
     </row>
@@ -8893,9 +10242,15 @@
         <v>1978</v>
       </c>
       <c r="G186" s="13"/>
-      <c r="H186" s="8"/>
-      <c r="I186" s="8"/>
-      <c r="J186" s="8"/>
+      <c r="H186" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I186" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J186" s="10">
+        <v>2</v>
+      </c>
       <c r="K186" s="21"/>
       <c r="L186" s="5"/>
     </row>
@@ -8919,9 +10274,15 @@
         <v>1978</v>
       </c>
       <c r="G187" s="13"/>
-      <c r="H187" s="8"/>
-      <c r="I187" s="8"/>
-      <c r="J187" s="8"/>
+      <c r="H187" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I187" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J187" s="10">
+        <v>3</v>
+      </c>
       <c r="K187" s="21"/>
       <c r="L187" s="5"/>
     </row>
@@ -8945,9 +10306,15 @@
         <v>1978</v>
       </c>
       <c r="G188" s="13"/>
-      <c r="H188" s="8"/>
-      <c r="I188" s="8"/>
-      <c r="J188" s="8"/>
+      <c r="H188" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I188" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J188" s="10">
+        <v>4</v>
+      </c>
       <c r="K188" s="21"/>
       <c r="L188" s="5"/>
     </row>
@@ -8971,9 +10338,15 @@
         <v>1978</v>
       </c>
       <c r="G189" s="13"/>
-      <c r="H189" s="8"/>
-      <c r="I189" s="8"/>
-      <c r="J189" s="8"/>
+      <c r="H189" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I189" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J189" s="10">
+        <v>5</v>
+      </c>
       <c r="K189" s="21"/>
       <c r="L189" s="5"/>
     </row>
@@ -8997,9 +10370,15 @@
         <v>1978</v>
       </c>
       <c r="G190" s="13"/>
-      <c r="H190" s="8"/>
-      <c r="I190" s="8"/>
-      <c r="J190" s="8"/>
+      <c r="H190" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I190" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J190" s="10">
+        <v>6</v>
+      </c>
       <c r="K190" s="21"/>
       <c r="L190" s="5"/>
     </row>
@@ -9023,9 +10402,15 @@
         <v>0</v>
       </c>
       <c r="G191" s="13"/>
-      <c r="H191" s="8"/>
-      <c r="I191" s="8"/>
-      <c r="J191" s="8"/>
+      <c r="H191" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I191" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J191" s="10">
+        <v>7</v>
+      </c>
       <c r="K191" s="21"/>
       <c r="L191" s="5"/>
     </row>
@@ -9049,9 +10434,15 @@
         <v>0</v>
       </c>
       <c r="G192" s="13"/>
-      <c r="H192" s="8"/>
-      <c r="I192" s="8"/>
-      <c r="J192" s="8"/>
+      <c r="H192" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I192" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J192" s="10">
+        <v>8</v>
+      </c>
       <c r="K192" s="21"/>
       <c r="L192" s="5"/>
     </row>
@@ -9075,9 +10466,15 @@
         <v>0</v>
       </c>
       <c r="G193" s="13"/>
-      <c r="H193" s="8"/>
-      <c r="I193" s="8"/>
-      <c r="J193" s="8"/>
+      <c r="H193" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I193" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J193" s="10">
+        <v>9</v>
+      </c>
       <c r="K193" s="21"/>
       <c r="L193" s="5"/>
     </row>
@@ -9101,10 +10498,16 @@
         <v>0</v>
       </c>
       <c r="G194" s="44"/>
-      <c r="H194" s="45"/>
-      <c r="I194" s="45"/>
-      <c r="J194" s="45"/>
-      <c r="K194" s="46"/>
+      <c r="H194" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I194" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J194" s="10">
+        <v>10</v>
+      </c>
+      <c r="K194" s="45"/>
       <c r="L194" s="5"/>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
@@ -9150,7 +10553,7 @@
       <c r="L198" s="5"/>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A199" s="49" t="s">
+      <c r="A199" s="47" t="s">
         <v>60</v>
       </c>
       <c r="B199" s="13"/>
@@ -9164,8 +10567,12 @@
       <c r="H199" s="8"/>
       <c r="I199" s="8"/>
       <c r="J199" s="8"/>
-      <c r="K199" s="21"/>
-      <c r="L199" s="5"/>
+      <c r="K199" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="L199" s="63" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="200" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A200" s="19" t="s">
@@ -9201,7 +10608,9 @@
       <c r="K200" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="L200" s="5"/>
+      <c r="L200" s="64" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="25">
@@ -9213,7 +10622,7 @@
       <c r="C201" s="26">
         <v>1</v>
       </c>
-      <c r="D201" s="47">
+      <c r="D201" s="46">
         <v>67</v>
       </c>
       <c r="E201" s="26">
@@ -9235,9 +10644,11 @@
         <v>280</v>
       </c>
       <c r="K201" s="27">
-        <v>1.7658476878487881</v>
-      </c>
-      <c r="L201" s="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="L201" s="56">
+        <v>5</v>
+      </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="28"/>
@@ -9271,8 +10682,12 @@
       <c r="G203" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="H203" s="8"/>
-      <c r="I203" s="8"/>
+      <c r="H203" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="I203" s="26">
+        <v>0</v>
+      </c>
       <c r="J203" s="8"/>
       <c r="K203" s="21"/>
       <c r="L203" s="5"/>
@@ -9295,8 +10710,12 @@
       <c r="G204" s="26">
         <v>0</v>
       </c>
-      <c r="H204" s="8"/>
-      <c r="I204" s="8"/>
+      <c r="H204" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="I204" s="26">
+        <v>0</v>
+      </c>
       <c r="J204" s="8"/>
       <c r="K204" s="21"/>
       <c r="L204" s="5"/>
@@ -9317,8 +10736,12 @@
         <v>0</v>
       </c>
       <c r="G205" s="30"/>
-      <c r="H205" s="8"/>
-      <c r="I205" s="8"/>
+      <c r="H205" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="I205" s="26">
+        <v>1</v>
+      </c>
       <c r="J205" s="8"/>
       <c r="K205" s="21"/>
       <c r="L205" s="5"/>
@@ -9341,9 +10764,15 @@
         <v>44</v>
       </c>
       <c r="G206" s="38"/>
-      <c r="H206" s="8"/>
-      <c r="I206" s="8"/>
-      <c r="J206" s="8"/>
+      <c r="H206" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="I206" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="J206" s="60" t="s">
+        <v>69</v>
+      </c>
       <c r="K206" s="21"/>
       <c r="L206" s="5"/>
     </row>
@@ -9367,9 +10796,15 @@
         <v>50</v>
       </c>
       <c r="G207" s="38"/>
-      <c r="H207" s="8"/>
-      <c r="I207" s="48"/>
-      <c r="J207" s="8"/>
+      <c r="H207" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="I207" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="J207" s="60" t="s">
+        <v>70</v>
+      </c>
       <c r="K207" s="21"/>
       <c r="L207" s="5"/>
     </row>
@@ -9393,9 +10828,15 @@
         <v>33</v>
       </c>
       <c r="G208" s="13"/>
-      <c r="H208" s="8"/>
-      <c r="I208" s="8"/>
-      <c r="J208" s="8"/>
+      <c r="H208" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I208" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J208" s="10">
+        <v>1</v>
+      </c>
       <c r="K208" s="21"/>
       <c r="L208" s="5"/>
     </row>
@@ -9419,9 +10860,15 @@
         <v>33</v>
       </c>
       <c r="G209" s="13"/>
-      <c r="H209" s="8"/>
-      <c r="I209" s="8"/>
-      <c r="J209" s="8"/>
+      <c r="H209" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I209" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J209" s="10">
+        <v>2</v>
+      </c>
       <c r="K209" s="21"/>
       <c r="L209" s="5"/>
     </row>
@@ -9445,9 +10892,15 @@
         <v>33</v>
       </c>
       <c r="G210" s="13"/>
-      <c r="H210" s="8"/>
-      <c r="I210" s="8"/>
-      <c r="J210" s="8"/>
+      <c r="H210" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I210" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J210" s="10">
+        <v>3</v>
+      </c>
       <c r="K210" s="21"/>
       <c r="L210" s="5"/>
     </row>
@@ -9471,9 +10924,15 @@
         <v>33</v>
       </c>
       <c r="G211" s="13"/>
-      <c r="H211" s="8"/>
-      <c r="I211" s="8"/>
-      <c r="J211" s="8"/>
+      <c r="H211" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I211" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J211" s="10">
+        <v>4</v>
+      </c>
       <c r="K211" s="21"/>
       <c r="L211" s="5"/>
     </row>
@@ -9497,9 +10956,15 @@
         <v>33</v>
       </c>
       <c r="G212" s="13"/>
-      <c r="H212" s="8"/>
-      <c r="I212" s="8"/>
-      <c r="J212" s="8"/>
+      <c r="H212" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I212" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J212" s="10">
+        <v>5</v>
+      </c>
       <c r="K212" s="21"/>
       <c r="L212" s="5"/>
     </row>
@@ -9523,9 +10988,15 @@
         <v>33</v>
       </c>
       <c r="G213" s="13"/>
-      <c r="H213" s="8"/>
-      <c r="I213" s="8"/>
-      <c r="J213" s="8"/>
+      <c r="H213" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I213" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J213" s="10">
+        <v>6</v>
+      </c>
       <c r="K213" s="21"/>
       <c r="L213" s="5"/>
     </row>
@@ -9549,9 +11020,15 @@
         <v>33</v>
       </c>
       <c r="G214" s="13"/>
-      <c r="H214" s="8"/>
-      <c r="I214" s="8"/>
-      <c r="J214" s="8"/>
+      <c r="H214" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I214" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J214" s="10">
+        <v>7</v>
+      </c>
       <c r="K214" s="21"/>
       <c r="L214" s="5"/>
     </row>
@@ -9575,9 +11052,15 @@
         <v>33</v>
       </c>
       <c r="G215" s="13"/>
-      <c r="H215" s="8"/>
-      <c r="I215" s="8"/>
-      <c r="J215" s="8"/>
+      <c r="H215" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I215" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J215" s="10">
+        <v>8</v>
+      </c>
       <c r="K215" s="21"/>
       <c r="L215" s="5"/>
     </row>
@@ -9601,9 +11084,15 @@
         <v>33</v>
       </c>
       <c r="G216" s="13"/>
-      <c r="H216" s="8"/>
-      <c r="I216" s="8"/>
-      <c r="J216" s="8"/>
+      <c r="H216" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I216" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J216" s="10">
+        <v>9</v>
+      </c>
       <c r="K216" s="21"/>
       <c r="L216" s="5"/>
     </row>
@@ -9627,10 +11116,16 @@
         <v>33</v>
       </c>
       <c r="G217" s="44"/>
-      <c r="H217" s="45"/>
-      <c r="I217" s="45"/>
-      <c r="J217" s="45"/>
-      <c r="K217" s="46"/>
+      <c r="H217" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I217" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J217" s="10">
+        <v>10</v>
+      </c>
+      <c r="K217" s="45"/>
       <c r="L217" s="5"/>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
@@ -9676,7 +11171,7 @@
       <c r="L221" s="5"/>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A222" s="49" t="s">
+      <c r="A222" s="47" t="s">
         <v>61</v>
       </c>
       <c r="B222" s="13"/>
@@ -9690,8 +11185,12 @@
       <c r="H222" s="8"/>
       <c r="I222" s="8"/>
       <c r="J222" s="8"/>
-      <c r="K222" s="21"/>
-      <c r="L222" s="5"/>
+      <c r="K222" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="L222" s="63" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="223" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A223" s="19" t="s">
@@ -9727,7 +11226,9 @@
       <c r="K223" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="L223" s="5"/>
+      <c r="L223" s="64" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="25">
@@ -9739,7 +11240,7 @@
       <c r="C224" s="26">
         <v>1</v>
       </c>
-      <c r="D224" s="47">
+      <c r="D224" s="46">
         <v>67</v>
       </c>
       <c r="E224" s="26">
@@ -9761,9 +11262,11 @@
         <v>50</v>
       </c>
       <c r="K224" s="27">
-        <v>1.7658476878487881</v>
-      </c>
-      <c r="L224" s="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="L224" s="56">
+        <v>5</v>
+      </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="28"/>
@@ -9797,8 +11300,12 @@
       <c r="G226" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="H226" s="8"/>
-      <c r="I226" s="8"/>
+      <c r="H226" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="I226" s="26">
+        <v>0</v>
+      </c>
       <c r="J226" s="8"/>
       <c r="K226" s="21"/>
       <c r="L226" s="5"/>
@@ -9821,8 +11328,12 @@
       <c r="G227" s="26">
         <v>0</v>
       </c>
-      <c r="H227" s="8"/>
-      <c r="I227" s="8"/>
+      <c r="H227" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="I227" s="26">
+        <v>0</v>
+      </c>
       <c r="J227" s="8"/>
       <c r="K227" s="21"/>
       <c r="L227" s="5"/>
@@ -9843,8 +11354,12 @@
         <v>0</v>
       </c>
       <c r="G228" s="30"/>
-      <c r="H228" s="8"/>
-      <c r="I228" s="8"/>
+      <c r="H228" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="I228" s="26">
+        <v>1</v>
+      </c>
       <c r="J228" s="8"/>
       <c r="K228" s="21"/>
       <c r="L228" s="5"/>
@@ -9867,9 +11382,15 @@
         <v>44</v>
       </c>
       <c r="G229" s="38"/>
-      <c r="H229" s="8"/>
-      <c r="I229" s="8"/>
-      <c r="J229" s="8"/>
+      <c r="H229" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="I229" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="J229" s="60" t="s">
+        <v>69</v>
+      </c>
       <c r="K229" s="21"/>
       <c r="L229" s="5"/>
     </row>
@@ -9893,9 +11414,15 @@
         <v>50</v>
       </c>
       <c r="G230" s="38"/>
-      <c r="H230" s="8"/>
-      <c r="I230" s="48"/>
-      <c r="J230" s="8"/>
+      <c r="H230" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="I230" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="J230" s="60" t="s">
+        <v>70</v>
+      </c>
       <c r="K230" s="21"/>
       <c r="L230" s="5"/>
     </row>
@@ -9919,9 +11446,15 @@
         <v>33</v>
       </c>
       <c r="G231" s="13"/>
-      <c r="H231" s="8"/>
-      <c r="I231" s="8"/>
-      <c r="J231" s="8"/>
+      <c r="H231" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I231" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J231" s="10">
+        <v>1</v>
+      </c>
       <c r="K231" s="21"/>
       <c r="L231" s="5"/>
     </row>
@@ -9945,9 +11478,15 @@
         <v>33</v>
       </c>
       <c r="G232" s="13"/>
-      <c r="H232" s="8"/>
-      <c r="I232" s="8"/>
-      <c r="J232" s="8"/>
+      <c r="H232" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I232" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J232" s="10">
+        <v>2</v>
+      </c>
       <c r="K232" s="21"/>
       <c r="L232" s="5"/>
     </row>
@@ -9971,9 +11510,15 @@
         <v>33</v>
       </c>
       <c r="G233" s="13"/>
-      <c r="H233" s="8"/>
-      <c r="I233" s="8"/>
-      <c r="J233" s="8"/>
+      <c r="H233" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I233" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J233" s="10">
+        <v>3</v>
+      </c>
       <c r="K233" s="21"/>
       <c r="L233" s="5"/>
     </row>
@@ -9997,9 +11542,15 @@
         <v>33</v>
       </c>
       <c r="G234" s="13"/>
-      <c r="H234" s="8"/>
-      <c r="I234" s="8"/>
-      <c r="J234" s="8"/>
+      <c r="H234" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I234" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J234" s="10">
+        <v>4</v>
+      </c>
       <c r="K234" s="21"/>
       <c r="L234" s="5"/>
     </row>
@@ -10023,9 +11574,15 @@
         <v>33</v>
       </c>
       <c r="G235" s="13"/>
-      <c r="H235" s="8"/>
-      <c r="I235" s="8"/>
-      <c r="J235" s="8"/>
+      <c r="H235" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I235" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J235" s="10">
+        <v>5</v>
+      </c>
       <c r="K235" s="21"/>
       <c r="L235" s="5"/>
     </row>
@@ -10049,9 +11606,15 @@
         <v>33</v>
       </c>
       <c r="G236" s="13"/>
-      <c r="H236" s="8"/>
-      <c r="I236" s="8"/>
-      <c r="J236" s="8"/>
+      <c r="H236" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I236" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J236" s="10">
+        <v>6</v>
+      </c>
       <c r="K236" s="21"/>
       <c r="L236" s="5"/>
     </row>
@@ -10075,9 +11638,15 @@
         <v>33</v>
       </c>
       <c r="G237" s="13"/>
-      <c r="H237" s="8"/>
-      <c r="I237" s="8"/>
-      <c r="J237" s="8"/>
+      <c r="H237" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I237" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J237" s="10">
+        <v>7</v>
+      </c>
       <c r="K237" s="21"/>
       <c r="L237" s="5"/>
     </row>
@@ -10101,9 +11670,15 @@
         <v>33</v>
       </c>
       <c r="G238" s="13"/>
-      <c r="H238" s="8"/>
-      <c r="I238" s="8"/>
-      <c r="J238" s="8"/>
+      <c r="H238" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I238" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J238" s="10">
+        <v>8</v>
+      </c>
       <c r="K238" s="21"/>
       <c r="L238" s="5"/>
     </row>
@@ -10127,9 +11702,15 @@
         <v>33</v>
       </c>
       <c r="G239" s="13"/>
-      <c r="H239" s="8"/>
-      <c r="I239" s="8"/>
-      <c r="J239" s="8"/>
+      <c r="H239" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I239" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J239" s="10">
+        <v>9</v>
+      </c>
       <c r="K239" s="21"/>
       <c r="L239" s="5"/>
     </row>
@@ -10153,19 +11734,26 @@
         <v>33</v>
       </c>
       <c r="G240" s="44"/>
-      <c r="H240" s="45"/>
-      <c r="I240" s="45"/>
-      <c r="J240" s="45"/>
-      <c r="K240" s="46"/>
+      <c r="H240" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I240" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J240" s="10">
+        <v>10</v>
+      </c>
+      <c r="K240" s="45"/>
       <c r="L240" s="5"/>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L241" s="5"/>
-    </row>
-    <row r="242" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N241" s="65"/>
+    </row>
+    <row r="242" spans="1:14" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L242" s="5"/>
     </row>
-    <row r="243" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A243" s="15" t="s">
         <v>18</v>
       </c>
@@ -10181,7 +11769,7 @@
       <c r="K243" s="18"/>
       <c r="L243" s="5"/>
     </row>
-    <row r="244" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A244" s="19" t="s">
         <v>19</v>
       </c>
@@ -10201,8 +11789,8 @@
       <c r="K244" s="21"/>
       <c r="L244" s="5"/>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A245" s="49" t="s">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A245" s="47" t="s">
         <v>62</v>
       </c>
       <c r="B245" s="13"/>
@@ -10216,10 +11804,14 @@
       <c r="H245" s="8"/>
       <c r="I245" s="8"/>
       <c r="J245" s="8"/>
-      <c r="K245" s="21"/>
-      <c r="L245" s="5"/>
-    </row>
-    <row r="246" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="K245" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="L245" s="63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A246" s="19" t="s">
         <v>22</v>
       </c>
@@ -10253,9 +11845,11 @@
       <c r="K246" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="L246" s="5"/>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L246" s="64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" s="25">
         <v>4</v>
       </c>
@@ -10265,7 +11859,7 @@
       <c r="C247" s="26">
         <v>1</v>
       </c>
-      <c r="D247" s="47">
+      <c r="D247" s="46">
         <v>67</v>
       </c>
       <c r="E247" s="26">
@@ -10287,11 +11881,13 @@
         <v>280</v>
       </c>
       <c r="K247" s="27">
-        <v>1.7658476878487881</v>
-      </c>
-      <c r="L247" s="5"/>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="L247" s="56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" s="28"/>
       <c r="B248" s="13"/>
       <c r="C248" s="13"/>
@@ -10305,7 +11901,7 @@
       <c r="K248" s="21"/>
       <c r="L248" s="5"/>
     </row>
-    <row r="249" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A249" s="29" t="s">
         <v>34</v>
       </c>
@@ -10323,13 +11919,17 @@
       <c r="G249" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="H249" s="8"/>
-      <c r="I249" s="8"/>
+      <c r="H249" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="I249" s="26">
+        <v>0</v>
+      </c>
       <c r="J249" s="8"/>
       <c r="K249" s="21"/>
       <c r="L249" s="5"/>
     </row>
-    <row r="250" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A250" s="33" t="s">
         <v>37</v>
       </c>
@@ -10347,13 +11947,17 @@
       <c r="G250" s="26">
         <v>0</v>
       </c>
-      <c r="H250" s="8"/>
-      <c r="I250" s="8"/>
+      <c r="H250" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="I250" s="26">
+        <v>0</v>
+      </c>
       <c r="J250" s="8"/>
       <c r="K250" s="21"/>
       <c r="L250" s="5"/>
     </row>
-    <row r="251" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A251" s="33" t="s">
         <v>39</v>
       </c>
@@ -10369,13 +11973,17 @@
         <v>2</v>
       </c>
       <c r="G251" s="30"/>
-      <c r="H251" s="8"/>
-      <c r="I251" s="8"/>
+      <c r="H251" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="I251" s="26">
+        <v>1</v>
+      </c>
       <c r="J251" s="8"/>
       <c r="K251" s="21"/>
       <c r="L251" s="5"/>
     </row>
-    <row r="252" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A252" s="35"/>
       <c r="B252" s="36" t="s">
         <v>40</v>
@@ -10393,13 +12001,19 @@
         <v>44</v>
       </c>
       <c r="G252" s="38"/>
-      <c r="H252" s="8"/>
-      <c r="I252" s="8"/>
-      <c r="J252" s="8"/>
+      <c r="H252" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="I252" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="J252" s="60" t="s">
+        <v>69</v>
+      </c>
       <c r="K252" s="21"/>
       <c r="L252" s="5"/>
     </row>
-    <row r="253" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A253" s="35" t="s">
         <v>45</v>
       </c>
@@ -10419,13 +12033,19 @@
         <v>50</v>
       </c>
       <c r="G253" s="38"/>
-      <c r="H253" s="8"/>
-      <c r="I253" s="48"/>
-      <c r="J253" s="8"/>
+      <c r="H253" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="I253" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="J253" s="60" t="s">
+        <v>70</v>
+      </c>
       <c r="K253" s="21"/>
       <c r="L253" s="5"/>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>1</v>
       </c>
@@ -10445,13 +12065,19 @@
         <v>1978</v>
       </c>
       <c r="G254" s="13"/>
-      <c r="H254" s="8"/>
-      <c r="I254" s="8"/>
-      <c r="J254" s="8"/>
+      <c r="H254" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I254" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J254" s="10">
+        <v>1</v>
+      </c>
       <c r="K254" s="21"/>
       <c r="L254" s="5"/>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>2</v>
       </c>
@@ -10471,13 +12097,19 @@
         <v>1978</v>
       </c>
       <c r="G255" s="13"/>
-      <c r="H255" s="8"/>
-      <c r="I255" s="8"/>
-      <c r="J255" s="8"/>
+      <c r="H255" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I255" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J255" s="10">
+        <v>2</v>
+      </c>
       <c r="K255" s="21"/>
       <c r="L255" s="5"/>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>3</v>
       </c>
@@ -10497,9 +12129,15 @@
         <v>1978</v>
       </c>
       <c r="G256" s="13"/>
-      <c r="H256" s="8"/>
-      <c r="I256" s="8"/>
-      <c r="J256" s="8"/>
+      <c r="H256" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I256" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J256" s="10">
+        <v>3</v>
+      </c>
       <c r="K256" s="21"/>
       <c r="L256" s="5"/>
     </row>
@@ -10523,9 +12161,15 @@
         <v>1978</v>
       </c>
       <c r="G257" s="13"/>
-      <c r="H257" s="8"/>
-      <c r="I257" s="8"/>
-      <c r="J257" s="8"/>
+      <c r="H257" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I257" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J257" s="10">
+        <v>4</v>
+      </c>
       <c r="K257" s="21"/>
       <c r="L257" s="5"/>
     </row>
@@ -10549,9 +12193,15 @@
         <v>1978</v>
       </c>
       <c r="G258" s="13"/>
-      <c r="H258" s="8"/>
-      <c r="I258" s="8"/>
-      <c r="J258" s="8"/>
+      <c r="H258" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I258" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J258" s="10">
+        <v>5</v>
+      </c>
       <c r="K258" s="21"/>
       <c r="L258" s="5"/>
     </row>
@@ -10575,9 +12225,15 @@
         <v>1978</v>
       </c>
       <c r="G259" s="13"/>
-      <c r="H259" s="8"/>
-      <c r="I259" s="8"/>
-      <c r="J259" s="8"/>
+      <c r="H259" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I259" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J259" s="10">
+        <v>6</v>
+      </c>
       <c r="K259" s="21"/>
       <c r="L259" s="5"/>
     </row>
@@ -10601,9 +12257,15 @@
         <v>1978</v>
       </c>
       <c r="G260" s="13"/>
-      <c r="H260" s="8"/>
-      <c r="I260" s="8"/>
-      <c r="J260" s="8"/>
+      <c r="H260" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I260" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J260" s="10">
+        <v>7</v>
+      </c>
       <c r="K260" s="21"/>
       <c r="L260" s="5"/>
     </row>
@@ -10627,9 +12289,15 @@
         <v>1978</v>
       </c>
       <c r="G261" s="13"/>
-      <c r="H261" s="8"/>
-      <c r="I261" s="8"/>
-      <c r="J261" s="8"/>
+      <c r="H261" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I261" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J261" s="10">
+        <v>8</v>
+      </c>
       <c r="K261" s="21"/>
       <c r="L261" s="5"/>
     </row>
@@ -10653,9 +12321,15 @@
         <v>1978</v>
       </c>
       <c r="G262" s="13"/>
-      <c r="H262" s="8"/>
-      <c r="I262" s="8"/>
-      <c r="J262" s="8"/>
+      <c r="H262" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I262" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J262" s="10">
+        <v>9</v>
+      </c>
       <c r="K262" s="21"/>
       <c r="L262" s="5"/>
     </row>
@@ -10679,10 +12353,16 @@
         <v>1978</v>
       </c>
       <c r="G263" s="44"/>
-      <c r="H263" s="45"/>
-      <c r="I263" s="45"/>
-      <c r="J263" s="45"/>
-      <c r="K263" s="46"/>
+      <c r="H263" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I263" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J263" s="10">
+        <v>10</v>
+      </c>
+      <c r="K263" s="45"/>
       <c r="L263" s="5"/>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
